--- a/data/imf_total_exports_2021A.xlsx
+++ b/data/imf_total_exports_2021A.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F455"/>
+  <dimension ref="A1:G455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,10 +380,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>value</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -411,9 +416,12 @@
         </is>
       </c>
       <c r="E2">
+        <v>2021</v>
+      </c>
+      <c r="F2">
         <v>923586872758</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2021</v>
       </c>
     </row>
@@ -439,9 +447,12 @@
         </is>
       </c>
       <c r="E3">
+        <v>2022</v>
+      </c>
+      <c r="F3">
         <v>1301216908197</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2022</v>
       </c>
     </row>
@@ -467,9 +478,12 @@
         </is>
       </c>
       <c r="E4">
+        <v>2021</v>
+      </c>
+      <c r="F4">
         <v>81239605833</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2021</v>
       </c>
     </row>
@@ -495,9 +509,12 @@
         </is>
       </c>
       <c r="E5">
+        <v>2022</v>
+      </c>
+      <c r="F5">
         <v>124427845251</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2022</v>
       </c>
     </row>
@@ -523,9 +540,12 @@
         </is>
       </c>
       <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="F6">
         <v>87388114977</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2021</v>
       </c>
     </row>
@@ -551,9 +571,12 @@
         </is>
       </c>
       <c r="E7">
+        <v>2022</v>
+      </c>
+      <c r="F7">
         <v>96706966763</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2022</v>
       </c>
     </row>
@@ -579,9 +602,12 @@
         </is>
       </c>
       <c r="E8">
+        <v>2021</v>
+      </c>
+      <c r="F8">
         <v>1411875549</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2021</v>
       </c>
     </row>
@@ -607,9 +633,12 @@
         </is>
       </c>
       <c r="E9">
+        <v>2022</v>
+      </c>
+      <c r="F9">
         <v>1566350022</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2022</v>
       </c>
     </row>
@@ -635,9 +664,12 @@
         </is>
       </c>
       <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="F10">
         <v>585020854161</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2021</v>
       </c>
     </row>
@@ -663,9 +695,12 @@
         </is>
       </c>
       <c r="E11">
+        <v>2022</v>
+      </c>
+      <c r="F11">
         <v>618152685111</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2022</v>
       </c>
     </row>
@@ -691,9 +726,12 @@
         </is>
       </c>
       <c r="E12">
+        <v>2021</v>
+      </c>
+      <c r="F12">
         <v>189524794453</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2021</v>
       </c>
     </row>
@@ -719,9 +757,12 @@
         </is>
       </c>
       <c r="E13">
+        <v>2022</v>
+      </c>
+      <c r="F13">
         <v>197825954907</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2022</v>
       </c>
     </row>
@@ -747,9 +788,12 @@
         </is>
       </c>
       <c r="E14">
+        <v>2021</v>
+      </c>
+      <c r="F14">
         <v>14747546463</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2021</v>
       </c>
     </row>
@@ -775,9 +819,12 @@
         </is>
       </c>
       <c r="E15">
+        <v>2022</v>
+      </c>
+      <c r="F15">
         <v>17947848105</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2022</v>
       </c>
     </row>
@@ -803,9 +850,12 @@
         </is>
       </c>
       <c r="E16">
+        <v>2021</v>
+      </c>
+      <c r="F16">
         <v>5821624149</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2021</v>
       </c>
     </row>
@@ -831,9 +881,12 @@
         </is>
       </c>
       <c r="E17">
+        <v>2022</v>
+      </c>
+      <c r="F17">
         <v>5745176767</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2022</v>
       </c>
     </row>
@@ -859,9 +912,12 @@
         </is>
       </c>
       <c r="E18">
+        <v>2021</v>
+      </c>
+      <c r="F18">
         <v>505755692</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2021</v>
       </c>
     </row>
@@ -887,9 +943,12 @@
         </is>
       </c>
       <c r="E19">
+        <v>2022</v>
+      </c>
+      <c r="F19">
         <v>742312921</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2022</v>
       </c>
     </row>
@@ -915,9 +974,12 @@
         </is>
       </c>
       <c r="E20">
+        <v>2021</v>
+      </c>
+      <c r="F20">
         <v>5194857137</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2021</v>
       </c>
     </row>
@@ -943,9 +1005,12 @@
         </is>
       </c>
       <c r="E21">
+        <v>2022</v>
+      </c>
+      <c r="F21">
         <v>4904300758</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2022</v>
       </c>
     </row>
@@ -971,9 +1036,12 @@
         </is>
       </c>
       <c r="E22">
+        <v>2021</v>
+      </c>
+      <c r="F22">
         <v>1023799460</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2021</v>
       </c>
     </row>
@@ -999,9 +1067,12 @@
         </is>
       </c>
       <c r="E23">
+        <v>2022</v>
+      </c>
+      <c r="F23">
         <v>1337315407</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2022</v>
       </c>
     </row>
@@ -1027,9 +1098,12 @@
         </is>
       </c>
       <c r="E24">
+        <v>2021</v>
+      </c>
+      <c r="F24">
         <v>5092716381076</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2021</v>
       </c>
     </row>
@@ -1055,9 +1129,12 @@
         </is>
       </c>
       <c r="E25">
+        <v>2022</v>
+      </c>
+      <c r="F25">
         <v>5585269157910</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2022</v>
       </c>
     </row>
@@ -1083,9 +1160,12 @@
         </is>
       </c>
       <c r="E26">
+        <v>2021</v>
+      </c>
+      <c r="F26">
         <v>1508338165342</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2021</v>
       </c>
     </row>
@@ -1111,9 +1191,12 @@
         </is>
       </c>
       <c r="E27">
+        <v>2022</v>
+      </c>
+      <c r="F27">
         <v>1650202719731</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2022</v>
       </c>
     </row>
@@ -1139,9 +1222,12 @@
         </is>
       </c>
       <c r="E28">
+        <v>2021</v>
+      </c>
+      <c r="F28">
         <v>15467737933</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2021</v>
       </c>
     </row>
@@ -1167,9 +1253,12 @@
         </is>
       </c>
       <c r="E29">
+        <v>2022</v>
+      </c>
+      <c r="F29">
         <v>16668575792</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2022</v>
       </c>
     </row>
@@ -1195,9 +1284,12 @@
         </is>
       </c>
       <c r="E30">
+        <v>2021</v>
+      </c>
+      <c r="F30">
         <v>1251956007</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2021</v>
       </c>
     </row>
@@ -1223,9 +1315,12 @@
         </is>
       </c>
       <c r="E31">
+        <v>2022</v>
+      </c>
+      <c r="F31">
         <v>1370944073</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2022</v>
       </c>
     </row>
@@ -1251,9 +1346,12 @@
         </is>
       </c>
       <c r="E32">
+        <v>2021</v>
+      </c>
+      <c r="F32">
         <v>5121376250</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2021</v>
       </c>
     </row>
@@ -1279,9 +1377,12 @@
         </is>
       </c>
       <c r="E33">
+        <v>2022</v>
+      </c>
+      <c r="F33">
         <v>7347487583</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2022</v>
       </c>
     </row>
@@ -1307,9 +1408,12 @@
         </is>
       </c>
       <c r="E34">
+        <v>2021</v>
+      </c>
+      <c r="F34">
         <v>35116222451</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2021</v>
       </c>
     </row>
@@ -1335,9 +1439,12 @@
         </is>
       </c>
       <c r="E35">
+        <v>2022</v>
+      </c>
+      <c r="F35">
         <v>52707846563</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2022</v>
       </c>
     </row>
@@ -1363,9 +1470,12 @@
         </is>
       </c>
       <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="F36">
         <v>7898732029</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2021</v>
       </c>
     </row>
@@ -1391,9 +1501,12 @@
         </is>
       </c>
       <c r="E37">
+        <v>2022</v>
+      </c>
+      <c r="F37">
         <v>9509458036</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2022</v>
       </c>
     </row>
@@ -1419,9 +1532,12 @@
         </is>
       </c>
       <c r="E38">
+        <v>2021</v>
+      </c>
+      <c r="F38">
         <v>93878024713</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2021</v>
       </c>
     </row>
@@ -1447,9 +1563,12 @@
         </is>
       </c>
       <c r="E39">
+        <v>2022</v>
+      </c>
+      <c r="F39">
         <v>97489095973</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2022</v>
       </c>
     </row>
@@ -1475,9 +1594,12 @@
         </is>
       </c>
       <c r="E40">
+        <v>2021</v>
+      </c>
+      <c r="F40">
         <v>151281170</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2021</v>
       </c>
     </row>
@@ -1503,9 +1625,12 @@
         </is>
       </c>
       <c r="E41">
+        <v>2022</v>
+      </c>
+      <c r="F41">
         <v>159007612</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>2022</v>
       </c>
     </row>
@@ -1531,9 +1656,12 @@
         </is>
       </c>
       <c r="E42">
+        <v>2021</v>
+      </c>
+      <c r="F42">
         <v>22208004300</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>2021</v>
       </c>
     </row>
@@ -1559,9 +1687,12 @@
         </is>
       </c>
       <c r="E43">
+        <v>2022</v>
+      </c>
+      <c r="F43">
         <v>38146434200</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>2022</v>
       </c>
     </row>
@@ -1587,9 +1718,12 @@
         </is>
       </c>
       <c r="E44">
+        <v>2021</v>
+      </c>
+      <c r="F44">
         <v>6054132505</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2021</v>
       </c>
     </row>
@@ -1615,9 +1749,12 @@
         </is>
       </c>
       <c r="E45">
+        <v>2022</v>
+      </c>
+      <c r="F45">
         <v>7402719309</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>2022</v>
       </c>
     </row>
@@ -1643,9 +1780,12 @@
         </is>
       </c>
       <c r="E46">
+        <v>2021</v>
+      </c>
+      <c r="F46">
         <v>39986971100</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>2021</v>
       </c>
     </row>
@@ -1671,9 +1811,12 @@
         </is>
       </c>
       <c r="E47">
+        <v>2022</v>
+      </c>
+      <c r="F47">
         <v>34344776316</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>2022</v>
       </c>
     </row>
@@ -1699,9 +1842,12 @@
         </is>
       </c>
       <c r="E48">
+        <v>2021</v>
+      </c>
+      <c r="F48">
         <v>5153983808</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2021</v>
       </c>
     </row>
@@ -1727,9 +1873,12 @@
         </is>
       </c>
       <c r="E49">
+        <v>2022</v>
+      </c>
+      <c r="F49">
         <v>7380837100</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2022</v>
       </c>
     </row>
@@ -1755,9 +1904,12 @@
         </is>
       </c>
       <c r="E50">
+        <v>2021</v>
+      </c>
+      <c r="F50">
         <v>3368216972663</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>2021</v>
       </c>
     </row>
@@ -1783,9 +1935,12 @@
         </is>
       </c>
       <c r="E51">
+        <v>2022</v>
+      </c>
+      <c r="F51">
         <v>3604481490750</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>2022</v>
       </c>
     </row>
@@ -1811,9 +1966,12 @@
         </is>
       </c>
       <c r="E52">
+        <v>2021</v>
+      </c>
+      <c r="F52">
         <v>3142979849</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>2021</v>
       </c>
     </row>
@@ -1839,9 +1997,12 @@
         </is>
       </c>
       <c r="E53">
+        <v>2022</v>
+      </c>
+      <c r="F53">
         <v>4246457282</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>2022</v>
       </c>
     </row>
@@ -1867,9 +2028,12 @@
         </is>
       </c>
       <c r="E54">
+        <v>2021</v>
+      </c>
+      <c r="F54">
         <v>1704092104</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>2021</v>
       </c>
     </row>
@@ -1895,9 +2059,12 @@
         </is>
       </c>
       <c r="E55">
+        <v>2022</v>
+      </c>
+      <c r="F55">
         <v>1341554483</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>2022</v>
       </c>
     </row>
@@ -1923,9 +2090,12 @@
         </is>
       </c>
       <c r="E56">
+        <v>2021</v>
+      </c>
+      <c r="F56">
         <v>7206283135</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>2021</v>
       </c>
     </row>
@@ -1951,9 +2121,12 @@
         </is>
       </c>
       <c r="E57">
+        <v>2022</v>
+      </c>
+      <c r="F57">
         <v>9593482632</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>2022</v>
       </c>
     </row>
@@ -1979,9 +2152,12 @@
         </is>
       </c>
       <c r="E58">
+        <v>2021</v>
+      </c>
+      <c r="F58">
         <v>55738726174</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>2021</v>
       </c>
     </row>
@@ -2007,9 +2183,12 @@
         </is>
       </c>
       <c r="E59">
+        <v>2022</v>
+      </c>
+      <c r="F59">
         <v>63262479940</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2022</v>
       </c>
     </row>
@@ -2035,9 +2214,12 @@
         </is>
       </c>
       <c r="E60">
+        <v>2021</v>
+      </c>
+      <c r="F60">
         <v>3681100753</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>2021</v>
       </c>
     </row>
@@ -2063,9 +2245,12 @@
         </is>
       </c>
       <c r="E61">
+        <v>2022</v>
+      </c>
+      <c r="F61">
         <v>4310142456</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>2022</v>
       </c>
     </row>
@@ -2091,9 +2276,12 @@
         </is>
       </c>
       <c r="E62">
+        <v>2021</v>
+      </c>
+      <c r="F62">
         <v>8188220682</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2021</v>
       </c>
     </row>
@@ -2119,9 +2307,12 @@
         </is>
       </c>
       <c r="E63">
+        <v>2022</v>
+      </c>
+      <c r="F63">
         <v>8729356237</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>2022</v>
       </c>
     </row>
@@ -2147,9 +2338,12 @@
         </is>
       </c>
       <c r="E64">
+        <v>2021</v>
+      </c>
+      <c r="F64">
         <v>3294806657</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>2021</v>
       </c>
     </row>
@@ -2175,9 +2369,12 @@
         </is>
       </c>
       <c r="E65">
+        <v>2022</v>
+      </c>
+      <c r="F65">
         <v>3337647098</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>2022</v>
       </c>
     </row>
@@ -2203,9 +2400,12 @@
         </is>
       </c>
       <c r="E66">
+        <v>2021</v>
+      </c>
+      <c r="F66">
         <v>8614079101</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>2021</v>
       </c>
     </row>
@@ -2231,9 +2431,12 @@
         </is>
       </c>
       <c r="E67">
+        <v>2022</v>
+      </c>
+      <c r="F67">
         <v>9678192326</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2022</v>
       </c>
     </row>
@@ -2259,9 +2462,12 @@
         </is>
       </c>
       <c r="E68">
+        <v>2021</v>
+      </c>
+      <c r="F68">
         <v>28248919</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>2021</v>
       </c>
     </row>
@@ -2287,9 +2493,12 @@
         </is>
       </c>
       <c r="E69">
+        <v>2022</v>
+      </c>
+      <c r="F69">
         <v>42316752</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>2022</v>
       </c>
     </row>
@@ -2315,9 +2524,12 @@
         </is>
       </c>
       <c r="E70">
+        <v>2021</v>
+      </c>
+      <c r="F70">
         <v>11079788843</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>2021</v>
       </c>
     </row>
@@ -2343,9 +2555,12 @@
         </is>
       </c>
       <c r="E71">
+        <v>2022</v>
+      </c>
+      <c r="F71">
         <v>13056701268</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>2022</v>
       </c>
     </row>
@@ -2371,9 +2586,12 @@
         </is>
       </c>
       <c r="E72">
+        <v>2021</v>
+      </c>
+      <c r="F72">
         <v>112839351</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>2021</v>
       </c>
     </row>
@@ -2399,9 +2617,12 @@
         </is>
       </c>
       <c r="E73">
+        <v>2022</v>
+      </c>
+      <c r="F73">
         <v>106120859</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>2022</v>
       </c>
     </row>
@@ -2427,9 +2648,12 @@
         </is>
       </c>
       <c r="E74">
+        <v>2021</v>
+      </c>
+      <c r="F74">
         <v>459609361804</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>2021</v>
       </c>
     </row>
@@ -2455,9 +2679,12 @@
         </is>
       </c>
       <c r="E75">
+        <v>2022</v>
+      </c>
+      <c r="F75">
         <v>529129755812</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>2022</v>
       </c>
     </row>
@@ -2483,9 +2710,12 @@
         </is>
       </c>
       <c r="E76">
+        <v>2021</v>
+      </c>
+      <c r="F76">
         <v>18460488070</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>2021</v>
       </c>
     </row>
@@ -2511,9 +2741,12 @@
         </is>
       </c>
       <c r="E77">
+        <v>2022</v>
+      </c>
+      <c r="F77">
         <v>22339410831</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>2022</v>
       </c>
     </row>
@@ -2539,9 +2772,12 @@
         </is>
       </c>
       <c r="E78">
+        <v>2021</v>
+      </c>
+      <c r="F78">
         <v>720705623</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>2021</v>
       </c>
     </row>
@@ -2567,9 +2803,12 @@
         </is>
       </c>
       <c r="E79">
+        <v>2022</v>
+      </c>
+      <c r="F79">
         <v>563327899</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>2022</v>
       </c>
     </row>
@@ -2595,9 +2834,12 @@
         </is>
       </c>
       <c r="E80">
+        <v>2021</v>
+      </c>
+      <c r="F80">
         <v>1023895056</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>2021</v>
       </c>
     </row>
@@ -2623,9 +2865,12 @@
         </is>
       </c>
       <c r="E81">
+        <v>2022</v>
+      </c>
+      <c r="F81">
         <v>1007248327</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>2022</v>
       </c>
     </row>
@@ -2651,9 +2896,12 @@
         </is>
       </c>
       <c r="E82">
+        <v>2021</v>
+      </c>
+      <c r="F82">
         <v>4256702877</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>2021</v>
       </c>
     </row>
@@ -2679,9 +2927,12 @@
         </is>
       </c>
       <c r="E83">
+        <v>2022</v>
+      </c>
+      <c r="F83">
         <v>8123894360</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>2022</v>
       </c>
     </row>
@@ -2707,9 +2958,12 @@
         </is>
       </c>
       <c r="E84">
+        <v>2021</v>
+      </c>
+      <c r="F84">
         <v>579259001</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>2021</v>
       </c>
     </row>
@@ -2735,9 +2989,12 @@
         </is>
       </c>
       <c r="E85">
+        <v>2022</v>
+      </c>
+      <c r="F85">
         <v>1957741350</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>2022</v>
       </c>
     </row>
@@ -2763,9 +3020,12 @@
         </is>
       </c>
       <c r="E86">
+        <v>2021</v>
+      </c>
+      <c r="F86">
         <v>615635199934</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>2021</v>
       </c>
     </row>
@@ -2791,9 +3051,12 @@
         </is>
       </c>
       <c r="E87">
+        <v>2022</v>
+      </c>
+      <c r="F87">
         <v>657038683591</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>2022</v>
       </c>
     </row>
@@ -2819,9 +3082,12 @@
         </is>
       </c>
       <c r="E88">
+        <v>2021</v>
+      </c>
+      <c r="F88">
         <v>1562523714</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>2021</v>
       </c>
     </row>
@@ -2847,9 +3113,12 @@
         </is>
       </c>
       <c r="E89">
+        <v>2022</v>
+      </c>
+      <c r="F89">
         <v>1562504485</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>2022</v>
       </c>
     </row>
@@ -2875,9 +3144,12 @@
         </is>
       </c>
       <c r="E90">
+        <v>2021</v>
+      </c>
+      <c r="F90">
         <v>21877520555</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>2021</v>
       </c>
     </row>
@@ -2903,9 +3175,12 @@
         </is>
       </c>
       <c r="E91">
+        <v>2022</v>
+      </c>
+      <c r="F91">
         <v>25305653307</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>2022</v>
       </c>
     </row>
@@ -2931,9 +3206,12 @@
         </is>
       </c>
       <c r="E92">
+        <v>2021</v>
+      </c>
+      <c r="F92">
         <v>65826467477</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>2021</v>
       </c>
     </row>
@@ -2959,9 +3237,12 @@
         </is>
       </c>
       <c r="E93">
+        <v>2022</v>
+      </c>
+      <c r="F93">
         <v>44443200594</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>2022</v>
       </c>
     </row>
@@ -2987,9 +3268,12 @@
         </is>
       </c>
       <c r="E94">
+        <v>2021</v>
+      </c>
+      <c r="F94">
         <v>1060959270547</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>2021</v>
       </c>
     </row>
@@ -3015,9 +3299,12 @@
         </is>
       </c>
       <c r="E95">
+        <v>2022</v>
+      </c>
+      <c r="F95">
         <v>1484532858620</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>2022</v>
       </c>
     </row>
@@ -3043,9 +3330,12 @@
         </is>
       </c>
       <c r="E96">
+        <v>2021</v>
+      </c>
+      <c r="F96">
         <v>47217829186</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>2021</v>
       </c>
     </row>
@@ -3071,9 +3361,12 @@
         </is>
       </c>
       <c r="E97">
+        <v>2022</v>
+      </c>
+      <c r="F97">
         <v>57391609834</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>2022</v>
       </c>
     </row>
@@ -3099,9 +3392,12 @@
         </is>
       </c>
       <c r="E98">
+        <v>2021</v>
+      </c>
+      <c r="F98">
         <v>3591811125</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>2021</v>
       </c>
     </row>
@@ -3127,9 +3423,12 @@
         </is>
       </c>
       <c r="E99">
+        <v>2022</v>
+      </c>
+      <c r="F99">
         <v>5319629516</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>2022</v>
       </c>
     </row>
@@ -3155,9 +3454,12 @@
         </is>
       </c>
       <c r="E100">
+        <v>2021</v>
+      </c>
+      <c r="F100">
         <v>202805954177</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>2021</v>
       </c>
     </row>
@@ -3183,9 +3485,12 @@
         </is>
       </c>
       <c r="E101">
+        <v>2022</v>
+      </c>
+      <c r="F101">
         <v>211391996842</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>2022</v>
       </c>
     </row>
@@ -3211,9 +3516,12 @@
         </is>
       </c>
       <c r="E102">
+        <v>2021</v>
+      </c>
+      <c r="F102">
         <v>18095969440</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>2021</v>
       </c>
     </row>
@@ -3239,9 +3547,12 @@
         </is>
       </c>
       <c r="E103">
+        <v>2022</v>
+      </c>
+      <c r="F103">
         <v>18531443961</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>2022</v>
       </c>
     </row>
@@ -3267,9 +3578,12 @@
         </is>
       </c>
       <c r="E104">
+        <v>2021</v>
+      </c>
+      <c r="F104">
         <v>7705493530822</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>2021</v>
       </c>
     </row>
@@ -3295,9 +3609,12 @@
         </is>
       </c>
       <c r="E105">
+        <v>2022</v>
+      </c>
+      <c r="F105">
         <v>8535315364708.001</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>2022</v>
       </c>
     </row>
@@ -3323,9 +3640,12 @@
         </is>
       </c>
       <c r="E106">
+        <v>2021</v>
+      </c>
+      <c r="F106">
         <v>132703817</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>2021</v>
       </c>
     </row>
@@ -3351,9 +3671,12 @@
         </is>
       </c>
       <c r="E107">
+        <v>2022</v>
+      </c>
+      <c r="F107">
         <v>90721830</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>2022</v>
       </c>
     </row>
@@ -3379,9 +3702,12 @@
         </is>
       </c>
       <c r="E108">
+        <v>2021</v>
+      </c>
+      <c r="F108">
         <v>627010707</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>2021</v>
       </c>
     </row>
@@ -3407,9 +3733,12 @@
         </is>
       </c>
       <c r="E109">
+        <v>2022</v>
+      </c>
+      <c r="F109">
         <v>676409597</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>2022</v>
       </c>
     </row>
@@ -3435,9 +3764,12 @@
         </is>
       </c>
       <c r="E110">
+        <v>2021</v>
+      </c>
+      <c r="F110">
         <v>225214458038</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>2021</v>
       </c>
     </row>
@@ -3463,9 +3795,12 @@
         </is>
       </c>
       <c r="E111">
+        <v>2022</v>
+      </c>
+      <c r="F111">
         <v>254201009047</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>2022</v>
       </c>
     </row>
@@ -3491,9 +3826,12 @@
         </is>
       </c>
       <c r="E112">
+        <v>2021</v>
+      </c>
+      <c r="F112">
         <v>21520018099</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>2021</v>
       </c>
     </row>
@@ -3519,9 +3857,12 @@
         </is>
       </c>
       <c r="E113">
+        <v>2022</v>
+      </c>
+      <c r="F113">
         <v>22404764569</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>2022</v>
       </c>
     </row>
@@ -3547,9 +3888,12 @@
         </is>
       </c>
       <c r="E114">
+        <v>2021</v>
+      </c>
+      <c r="F114">
         <v>409778754</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>2021</v>
       </c>
     </row>
@@ -3575,9 +3919,12 @@
         </is>
       </c>
       <c r="E115">
+        <v>2022</v>
+      </c>
+      <c r="F115">
         <v>490558565</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>2022</v>
       </c>
     </row>
@@ -3603,9 +3950,12 @@
         </is>
       </c>
       <c r="E116">
+        <v>2021</v>
+      </c>
+      <c r="F116">
         <v>122354020983</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>2021</v>
       </c>
     </row>
@@ -3631,9 +3981,12 @@
         </is>
       </c>
       <c r="E117">
+        <v>2022</v>
+      </c>
+      <c r="F117">
         <v>123387268726</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>2022</v>
       </c>
     </row>
@@ -3659,9 +4012,12 @@
         </is>
       </c>
       <c r="E118">
+        <v>2021</v>
+      </c>
+      <c r="F118">
         <v>456881517599</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>2021</v>
       </c>
     </row>
@@ -3687,9 +4043,12 @@
         </is>
       </c>
       <c r="E119">
+        <v>2022</v>
+      </c>
+      <c r="F119">
         <v>516016210061</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>2022</v>
       </c>
     </row>
@@ -3715,9 +4074,12 @@
         </is>
       </c>
       <c r="E120">
+        <v>2021</v>
+      </c>
+      <c r="F120">
         <v>74619469587</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>2021</v>
       </c>
     </row>
@@ -3743,9 +4105,12 @@
         </is>
       </c>
       <c r="E121">
+        <v>2022</v>
+      </c>
+      <c r="F121">
         <v>80951915150</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>2022</v>
       </c>
     </row>
@@ -3771,9 +4136,12 @@
         </is>
       </c>
       <c r="E122">
+        <v>2021</v>
+      </c>
+      <c r="F122">
         <v>13635511756</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>2021</v>
       </c>
     </row>
@@ -3799,9 +4167,12 @@
         </is>
       </c>
       <c r="E123">
+        <v>2022</v>
+      </c>
+      <c r="F123">
         <v>15683554945</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>2022</v>
       </c>
     </row>
@@ -3827,9 +4198,12 @@
         </is>
       </c>
       <c r="E124">
+        <v>2021</v>
+      </c>
+      <c r="F124">
         <v>59817570568</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>2021</v>
       </c>
     </row>
@@ -3855,9 +4229,12 @@
         </is>
       </c>
       <c r="E125">
+        <v>2022</v>
+      </c>
+      <c r="F125">
         <v>83290272138</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>2022</v>
       </c>
     </row>
@@ -3883,9 +4260,12 @@
         </is>
       </c>
       <c r="E126">
+        <v>2021</v>
+      </c>
+      <c r="F126">
         <v>4790601254</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>2021</v>
       </c>
     </row>
@@ -3911,9 +4291,12 @@
         </is>
       </c>
       <c r="E127">
+        <v>2022</v>
+      </c>
+      <c r="F127">
         <v>7569297947</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>2022</v>
       </c>
     </row>
@@ -3939,9 +4322,12 @@
         </is>
       </c>
       <c r="E128">
+        <v>2021</v>
+      </c>
+      <c r="F128">
         <v>386245450534</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>2021</v>
       </c>
     </row>
@@ -3967,9 +4353,12 @@
         </is>
       </c>
       <c r="E129">
+        <v>2022</v>
+      </c>
+      <c r="F129">
         <v>466925664809</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>2022</v>
       </c>
     </row>
@@ -3995,9 +4384,12 @@
         </is>
       </c>
       <c r="E130">
+        <v>2021</v>
+      </c>
+      <c r="F130">
         <v>11949099437</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>2021</v>
       </c>
     </row>
@@ -4023,9 +4415,12 @@
         </is>
       </c>
       <c r="E131">
+        <v>2022</v>
+      </c>
+      <c r="F131">
         <v>21449715939</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>2022</v>
       </c>
     </row>
@@ -4051,9 +4446,12 @@
         </is>
       </c>
       <c r="E132">
+        <v>2021</v>
+      </c>
+      <c r="F132">
         <v>281645257207</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>2021</v>
       </c>
     </row>
@@ -4079,9 +4477,12 @@
         </is>
       </c>
       <c r="E133">
+        <v>2022</v>
+      </c>
+      <c r="F133">
         <v>334463079195</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>2022</v>
       </c>
     </row>
@@ -4107,9 +4508,12 @@
         </is>
       </c>
       <c r="E134">
+        <v>2021</v>
+      </c>
+      <c r="F134">
         <v>203061551</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>2021</v>
       </c>
     </row>
@@ -4135,9 +4539,12 @@
         </is>
       </c>
       <c r="E135">
+        <v>2022</v>
+      </c>
+      <c r="F135">
         <v>303490066</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>2022</v>
       </c>
     </row>
@@ -4163,9 +4570,12 @@
         </is>
       </c>
       <c r="E136">
+        <v>2021</v>
+      </c>
+      <c r="F136">
         <v>4998131851</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>2021</v>
       </c>
     </row>
@@ -4191,9 +4601,12 @@
         </is>
       </c>
       <c r="E137">
+        <v>2022</v>
+      </c>
+      <c r="F137">
         <v>5177232818</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>2022</v>
       </c>
     </row>
@@ -4219,9 +4632,12 @@
         </is>
       </c>
       <c r="E138">
+        <v>2021</v>
+      </c>
+      <c r="F138">
         <v>41157188704</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>2021</v>
       </c>
     </row>
@@ -4247,9 +4663,12 @@
         </is>
       </c>
       <c r="E139">
+        <v>2022</v>
+      </c>
+      <c r="F139">
         <v>50238784706</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>2022</v>
       </c>
     </row>
@@ -4275,9 +4694,12 @@
         </is>
       </c>
       <c r="E140">
+        <v>2021</v>
+      </c>
+      <c r="F140">
         <v>87200560581</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>2021</v>
       </c>
     </row>
@@ -4303,9 +4725,12 @@
         </is>
       </c>
       <c r="E141">
+        <v>2022</v>
+      </c>
+      <c r="F141">
         <v>137376104022</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>2022</v>
       </c>
     </row>
@@ -4331,9 +4756,12 @@
         </is>
       </c>
       <c r="E142">
+        <v>2021</v>
+      </c>
+      <c r="F142">
         <v>26345747048</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>2021</v>
       </c>
     </row>
@@ -4359,9 +4787,12 @@
         </is>
       </c>
       <c r="E143">
+        <v>2022</v>
+      </c>
+      <c r="F143">
         <v>37975978068</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>2022</v>
       </c>
     </row>
@@ -4387,9 +4818,12 @@
         </is>
       </c>
       <c r="E144">
+        <v>2021</v>
+      </c>
+      <c r="F144">
         <v>16800336263</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>2021</v>
       </c>
     </row>
@@ -4415,9 +4849,12 @@
         </is>
       </c>
       <c r="E145">
+        <v>2022</v>
+      </c>
+      <c r="F145">
         <v>17274356544</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>2022</v>
       </c>
     </row>
@@ -4443,9 +4880,12 @@
         </is>
       </c>
       <c r="E146">
+        <v>2021</v>
+      </c>
+      <c r="F146">
         <v>1646292329689</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>2021</v>
       </c>
     </row>
@@ -4471,9 +4911,12 @@
         </is>
       </c>
       <c r="E147">
+        <v>2022</v>
+      </c>
+      <c r="F147">
         <v>2218934533298</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>2022</v>
       </c>
     </row>
@@ -4499,9 +4942,12 @@
         </is>
       </c>
       <c r="E148">
+        <v>2021</v>
+      </c>
+      <c r="F148">
         <v>160306668845</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>2021</v>
       </c>
     </row>
@@ -4527,9 +4973,12 @@
         </is>
       </c>
       <c r="E149">
+        <v>2022</v>
+      </c>
+      <c r="F149">
         <v>270865654988</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>2022</v>
       </c>
     </row>
@@ -4555,9 +5004,12 @@
         </is>
       </c>
       <c r="E150">
+        <v>2021</v>
+      </c>
+      <c r="F150">
         <v>76314661</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>2021</v>
       </c>
     </row>
@@ -4583,9 +5035,12 @@
         </is>
       </c>
       <c r="E151">
+        <v>2022</v>
+      </c>
+      <c r="F151">
         <v>73978518</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>2022</v>
       </c>
     </row>
@@ -4611,9 +5066,12 @@
         </is>
       </c>
       <c r="E152">
+        <v>2021</v>
+      </c>
+      <c r="F152">
         <v>493348026793</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>2021</v>
       </c>
     </row>
@@ -4639,9 +5097,12 @@
         </is>
       </c>
       <c r="E153">
+        <v>2022</v>
+      </c>
+      <c r="F153">
         <v>619251284288</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>2022</v>
       </c>
     </row>
@@ -4667,9 +5128,12 @@
         </is>
       </c>
       <c r="E154">
+        <v>2021</v>
+      </c>
+      <c r="F154">
         <v>275527643</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>2021</v>
       </c>
     </row>
@@ -4695,9 +5159,12 @@
         </is>
       </c>
       <c r="E155">
+        <v>2022</v>
+      </c>
+      <c r="F155">
         <v>320067196</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>2022</v>
       </c>
     </row>
@@ -4723,9 +5190,12 @@
         </is>
       </c>
       <c r="E156">
+        <v>2021</v>
+      </c>
+      <c r="F156">
         <v>17594333454</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>2021</v>
       </c>
     </row>
@@ -4751,9 +5221,12 @@
         </is>
       </c>
       <c r="E157">
+        <v>2022</v>
+      </c>
+      <c r="F157">
         <v>23078465454</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>2022</v>
       </c>
     </row>
@@ -4779,9 +5252,12 @@
         </is>
       </c>
       <c r="E158">
+        <v>2021</v>
+      </c>
+      <c r="F158">
         <v>1636741953121</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>2021</v>
       </c>
     </row>
@@ -4807,9 +5283,12 @@
         </is>
       </c>
       <c r="E159">
+        <v>2022</v>
+      </c>
+      <c r="F159">
         <v>1656713639815</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>2022</v>
       </c>
     </row>
@@ -4835,9 +5314,12 @@
         </is>
       </c>
       <c r="E160">
+        <v>2021</v>
+      </c>
+      <c r="F160">
         <v>9351785860511</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>2021</v>
       </c>
     </row>
@@ -4863,9 +5345,12 @@
         </is>
       </c>
       <c r="E161">
+        <v>2022</v>
+      </c>
+      <c r="F161">
         <v>10754249898006</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>2022</v>
       </c>
     </row>
@@ -4891,9 +5376,12 @@
         </is>
       </c>
       <c r="E162">
+        <v>2021</v>
+      </c>
+      <c r="F162">
         <v>27381078426</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>2021</v>
       </c>
     </row>
@@ -4919,9 +5407,12 @@
         </is>
       </c>
       <c r="E163">
+        <v>2022</v>
+      </c>
+      <c r="F163">
         <v>41271015345</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>2022</v>
       </c>
     </row>
@@ -4947,9 +5438,12 @@
         </is>
       </c>
       <c r="E164">
+        <v>2021</v>
+      </c>
+      <c r="F164">
         <v>840031521421</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>2021</v>
       </c>
     </row>
@@ -4975,9 +5469,12 @@
         </is>
       </c>
       <c r="E165">
+        <v>2022</v>
+      </c>
+      <c r="F165">
         <v>965761906765</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>2022</v>
       </c>
     </row>
@@ -5003,9 +5500,12 @@
         </is>
       </c>
       <c r="E166">
+        <v>2021</v>
+      </c>
+      <c r="F166">
         <v>750137760</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>2021</v>
       </c>
     </row>
@@ -5031,9 +5531,12 @@
         </is>
       </c>
       <c r="E167">
+        <v>2022</v>
+      </c>
+      <c r="F167">
         <v>851475612</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>2022</v>
       </c>
     </row>
@@ -5059,9 +5562,12 @@
         </is>
       </c>
       <c r="E168">
+        <v>2021</v>
+      </c>
+      <c r="F168">
         <v>527136291</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>2021</v>
       </c>
     </row>
@@ -5087,9 +5593,12 @@
         </is>
       </c>
       <c r="E169">
+        <v>2022</v>
+      </c>
+      <c r="F169">
         <v>638995966</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>2022</v>
       </c>
     </row>
@@ -5115,9 +5624,12 @@
         </is>
       </c>
       <c r="E170">
+        <v>2021</v>
+      </c>
+      <c r="F170">
         <v>12445363332</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>2021</v>
       </c>
     </row>
@@ -5143,9 +5655,12 @@
         </is>
       </c>
       <c r="E171">
+        <v>2022</v>
+      </c>
+      <c r="F171">
         <v>13626163798</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>2022</v>
       </c>
     </row>
@@ -5171,9 +5686,12 @@
         </is>
       </c>
       <c r="E172">
+        <v>2021</v>
+      </c>
+      <c r="F172">
         <v>15159029402</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>2021</v>
       </c>
     </row>
@@ -5199,9 +5717,12 @@
         </is>
       </c>
       <c r="E173">
+        <v>2022</v>
+      </c>
+      <c r="F173">
         <v>20411979906</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>2022</v>
       </c>
     </row>
@@ -5227,9 +5748,12 @@
         </is>
       </c>
       <c r="E174">
+        <v>2021</v>
+      </c>
+      <c r="F174">
         <v>8377133986.999999</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>2021</v>
       </c>
     </row>
@@ -5255,9 +5779,12 @@
         </is>
       </c>
       <c r="E175">
+        <v>2022</v>
+      </c>
+      <c r="F175">
         <v>13286231743</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>2022</v>
       </c>
     </row>
@@ -5283,9 +5810,12 @@
         </is>
       </c>
       <c r="E176">
+        <v>2021</v>
+      </c>
+      <c r="F176">
         <v>5040406639</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>2021</v>
       </c>
     </row>
@@ -5311,9 +5841,12 @@
         </is>
       </c>
       <c r="E177">
+        <v>2022</v>
+      </c>
+      <c r="F177">
         <v>16844400758</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>2022</v>
       </c>
     </row>
@@ -5339,9 +5872,12 @@
         </is>
       </c>
       <c r="E178">
+        <v>2021</v>
+      </c>
+      <c r="F178">
         <v>3015987201</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>2021</v>
       </c>
     </row>
@@ -5367,9 +5903,12 @@
         </is>
       </c>
       <c r="E179">
+        <v>2022</v>
+      </c>
+      <c r="F179">
         <v>5360069395</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>2022</v>
       </c>
     </row>
@@ -5395,9 +5934,12 @@
         </is>
       </c>
       <c r="E180">
+        <v>2021</v>
+      </c>
+      <c r="F180">
         <v>17489763756</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>2021</v>
       </c>
     </row>
@@ -5423,9 +5965,12 @@
         </is>
       </c>
       <c r="E181">
+        <v>2022</v>
+      </c>
+      <c r="F181">
         <v>24315655908</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>2022</v>
       </c>
     </row>
@@ -5451,9 +5996,12 @@
         </is>
       </c>
       <c r="E182">
+        <v>2021</v>
+      </c>
+      <c r="F182">
         <v>362156497</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>2021</v>
       </c>
     </row>
@@ -5479,9 +6027,12 @@
         </is>
       </c>
       <c r="E183">
+        <v>2022</v>
+      </c>
+      <c r="F183">
         <v>377030249</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>2022</v>
       </c>
     </row>
@@ -5507,9 +6058,12 @@
         </is>
       </c>
       <c r="E184">
+        <v>2021</v>
+      </c>
+      <c r="F184">
         <v>13317602487</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>2021</v>
       </c>
     </row>
@@ -5535,9 +6089,12 @@
         </is>
       </c>
       <c r="E185">
+        <v>2022</v>
+      </c>
+      <c r="F185">
         <v>17054345451</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>2022</v>
       </c>
     </row>
@@ -5563,9 +6120,12 @@
         </is>
       </c>
       <c r="E186">
+        <v>2021</v>
+      </c>
+      <c r="F186">
         <v>1502012892</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>2021</v>
       </c>
     </row>
@@ -5591,9 +6151,12 @@
         </is>
       </c>
       <c r="E187">
+        <v>2022</v>
+      </c>
+      <c r="F187">
         <v>1970656623</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>2022</v>
       </c>
     </row>
@@ -5619,9 +6182,12 @@
         </is>
       </c>
       <c r="E188">
+        <v>2021</v>
+      </c>
+      <c r="F188">
         <v>216044336</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>2021</v>
       </c>
     </row>
@@ -5647,9 +6213,12 @@
         </is>
       </c>
       <c r="E189">
+        <v>2022</v>
+      </c>
+      <c r="F189">
         <v>248729987</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>2022</v>
       </c>
     </row>
@@ -5675,9 +6244,12 @@
         </is>
       </c>
       <c r="E190">
+        <v>2021</v>
+      </c>
+      <c r="F190">
         <v>77629061078</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>2021</v>
       </c>
     </row>
@@ -5703,9 +6275,12 @@
         </is>
       </c>
       <c r="E191">
+        <v>2022</v>
+      </c>
+      <c r="F191">
         <v>90072130752</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>2022</v>
       </c>
     </row>
@@ -5731,9 +6306,12 @@
         </is>
       </c>
       <c r="E192">
+        <v>2021</v>
+      </c>
+      <c r="F192">
         <v>3227683856</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>2021</v>
       </c>
     </row>
@@ -5759,9 +6337,12 @@
         </is>
       </c>
       <c r="E193">
+        <v>2022</v>
+      </c>
+      <c r="F193">
         <v>3733969703</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>2022</v>
       </c>
     </row>
@@ -5787,9 +6368,12 @@
         </is>
       </c>
       <c r="E194">
+        <v>2021</v>
+      </c>
+      <c r="F194">
         <v>26775746</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>2021</v>
       </c>
     </row>
@@ -5815,9 +6399,12 @@
         </is>
       </c>
       <c r="E195">
+        <v>2022</v>
+      </c>
+      <c r="F195">
         <v>31865260</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>2022</v>
       </c>
     </row>
@@ -5843,9 +6430,12 @@
         </is>
       </c>
       <c r="E196">
+        <v>2021</v>
+      </c>
+      <c r="F196">
         <v>548868945936</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>2021</v>
       </c>
     </row>
@@ -5871,9 +6461,12 @@
         </is>
       </c>
       <c r="E197">
+        <v>2022</v>
+      </c>
+      <c r="F197">
         <v>635514337888</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>2022</v>
       </c>
     </row>
@@ -5899,9 +6492,12 @@
         </is>
       </c>
       <c r="E198">
+        <v>2021</v>
+      </c>
+      <c r="F198">
         <v>494760559000</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>2021</v>
       </c>
     </row>
@@ -5927,9 +6523,12 @@
         </is>
       </c>
       <c r="E199">
+        <v>2022</v>
+      </c>
+      <c r="F199">
         <v>578188005000</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>2022</v>
       </c>
     </row>
@@ -5955,9 +6554,12 @@
         </is>
       </c>
       <c r="E200">
+        <v>2021</v>
+      </c>
+      <c r="F200">
         <v>266291811220</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>2021</v>
       </c>
     </row>
@@ -5983,9 +6585,12 @@
         </is>
       </c>
       <c r="E201">
+        <v>2022</v>
+      </c>
+      <c r="F201">
         <v>283504156341</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>2022</v>
       </c>
     </row>
@@ -6011,9 +6616,12 @@
         </is>
       </c>
       <c r="E202">
+        <v>2021</v>
+      </c>
+      <c r="F202">
         <v>261239072909</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>2021</v>
       </c>
     </row>
@@ -6039,9 +6647,12 @@
         </is>
       </c>
       <c r="E203">
+        <v>2022</v>
+      </c>
+      <c r="F203">
         <v>360394063832</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>2022</v>
       </c>
     </row>
@@ -6067,9 +6678,12 @@
         </is>
       </c>
       <c r="E204">
+        <v>2021</v>
+      </c>
+      <c r="F204">
         <v>81995695786</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>2021</v>
       </c>
     </row>
@@ -6095,9 +6709,12 @@
         </is>
       </c>
       <c r="E205">
+        <v>2022</v>
+      </c>
+      <c r="F205">
         <v>85907059063</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>2022</v>
       </c>
     </row>
@@ -6123,9 +6740,12 @@
         </is>
       </c>
       <c r="E206">
+        <v>2021</v>
+      </c>
+      <c r="F206">
         <v>1476349167</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>2021</v>
       </c>
     </row>
@@ -6151,9 +6771,12 @@
         </is>
       </c>
       <c r="E207">
+        <v>2022</v>
+      </c>
+      <c r="F207">
         <v>1068628895</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>2022</v>
       </c>
     </row>
@@ -6179,9 +6802,12 @@
         </is>
       </c>
       <c r="E208">
+        <v>2021</v>
+      </c>
+      <c r="F208">
         <v>74219849</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>2021</v>
       </c>
     </row>
@@ -6207,9 +6833,12 @@
         </is>
       </c>
       <c r="E209">
+        <v>2022</v>
+      </c>
+      <c r="F209">
         <v>58883704</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>2022</v>
       </c>
     </row>
@@ -6235,9 +6864,12 @@
         </is>
       </c>
       <c r="E210">
+        <v>2021</v>
+      </c>
+      <c r="F210">
         <v>190658115547</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>2021</v>
       </c>
     </row>
@@ -6263,9 +6895,12 @@
         </is>
       </c>
       <c r="E211">
+        <v>2022</v>
+      </c>
+      <c r="F211">
         <v>213991055481</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>2022</v>
       </c>
     </row>
@@ -6291,9 +6926,12 @@
         </is>
       </c>
       <c r="E212">
+        <v>2021</v>
+      </c>
+      <c r="F212">
         <v>41389989091</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>2021</v>
       </c>
     </row>
@@ -6319,9 +6957,12 @@
         </is>
       </c>
       <c r="E213">
+        <v>2022</v>
+      </c>
+      <c r="F213">
         <v>57105700449</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>2022</v>
       </c>
     </row>
@@ -6347,9 +6988,12 @@
         </is>
       </c>
       <c r="E214">
+        <v>2021</v>
+      </c>
+      <c r="F214">
         <v>16815047953</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>2021</v>
       </c>
     </row>
@@ -6375,9 +7019,12 @@
         </is>
       </c>
       <c r="E215">
+        <v>2022</v>
+      </c>
+      <c r="F215">
         <v>18558038104</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>2022</v>
       </c>
     </row>
@@ -6403,9 +7050,12 @@
         </is>
       </c>
       <c r="E216">
+        <v>2021</v>
+      </c>
+      <c r="F216">
         <v>1644269913</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>2021</v>
       </c>
     </row>
@@ -6431,9 +7081,12 @@
         </is>
       </c>
       <c r="E217">
+        <v>2022</v>
+      </c>
+      <c r="F217">
         <v>2263671795</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>2022</v>
       </c>
     </row>
@@ -6459,9 +7112,12 @@
         </is>
       </c>
       <c r="E218">
+        <v>2021</v>
+      </c>
+      <c r="F218">
         <v>394463710390</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>2021</v>
       </c>
     </row>
@@ -6487,9 +7143,12 @@
         </is>
       </c>
       <c r="E219">
+        <v>2022</v>
+      </c>
+      <c r="F219">
         <v>449535857035</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>2022</v>
       </c>
     </row>
@@ -6515,9 +7174,12 @@
         </is>
       </c>
       <c r="E220">
+        <v>2021</v>
+      </c>
+      <c r="F220">
         <v>2378175928</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>2021</v>
       </c>
     </row>
@@ -6543,9 +7205,12 @@
         </is>
       </c>
       <c r="E221">
+        <v>2022</v>
+      </c>
+      <c r="F221">
         <v>3729060611</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>2022</v>
       </c>
     </row>
@@ -6571,9 +7236,12 @@
         </is>
       </c>
       <c r="E222">
+        <v>2021</v>
+      </c>
+      <c r="F222">
         <v>10559535045</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>2021</v>
       </c>
     </row>
@@ -6599,9 +7267,12 @@
         </is>
       </c>
       <c r="E223">
+        <v>2022</v>
+      </c>
+      <c r="F223">
         <v>9957013974</v>
       </c>
-      <c r="F223">
+      <c r="G223">
         <v>2022</v>
       </c>
     </row>
@@ -6627,9 +7298,12 @@
         </is>
       </c>
       <c r="E224">
+        <v>2021</v>
+      </c>
+      <c r="F224">
         <v>28681421762</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>2021</v>
       </c>
     </row>
@@ -6655,9 +7329,12 @@
         </is>
       </c>
       <c r="E225">
+        <v>2022</v>
+      </c>
+      <c r="F225">
         <v>30019339966</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>2022</v>
       </c>
     </row>
@@ -6683,9 +7360,12 @@
         </is>
       </c>
       <c r="E226">
+        <v>2021</v>
+      </c>
+      <c r="F226">
         <v>454079837</v>
       </c>
-      <c r="F226">
+      <c r="G226">
         <v>2021</v>
       </c>
     </row>
@@ -6711,9 +7391,12 @@
         </is>
       </c>
       <c r="E227">
+        <v>2022</v>
+      </c>
+      <c r="F227">
         <v>448836637</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>2022</v>
       </c>
     </row>
@@ -6739,9 +7422,12 @@
         </is>
       </c>
       <c r="E228">
+        <v>2021</v>
+      </c>
+      <c r="F228">
         <v>1195831213</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>2021</v>
       </c>
     </row>
@@ -6767,9 +7453,12 @@
         </is>
       </c>
       <c r="E229">
+        <v>2022</v>
+      </c>
+      <c r="F229">
         <v>1317620035</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>2022</v>
       </c>
     </row>
@@ -6795,9 +7484,12 @@
         </is>
       </c>
       <c r="E230">
+        <v>2021</v>
+      </c>
+      <c r="F230">
         <v>36820212</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>2021</v>
       </c>
     </row>
@@ -6823,9 +7515,12 @@
         </is>
       </c>
       <c r="E231">
+        <v>2022</v>
+      </c>
+      <c r="F231">
         <v>37145766</v>
       </c>
-      <c r="F231">
+      <c r="G231">
         <v>2022</v>
       </c>
     </row>
@@ -6851,9 +7546,12 @@
         </is>
       </c>
       <c r="E232">
+        <v>2021</v>
+      </c>
+      <c r="F232">
         <v>2707433581</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>2021</v>
       </c>
     </row>
@@ -6879,9 +7577,12 @@
         </is>
       </c>
       <c r="E233">
+        <v>2022</v>
+      </c>
+      <c r="F233">
         <v>3546314854</v>
       </c>
-      <c r="F233">
+      <c r="G233">
         <v>2022</v>
       </c>
     </row>
@@ -6907,9 +7608,12 @@
         </is>
       </c>
       <c r="E234">
+        <v>2021</v>
+      </c>
+      <c r="F234">
         <v>9349414607</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>2021</v>
       </c>
     </row>
@@ -6935,9 +7639,12 @@
         </is>
       </c>
       <c r="E235">
+        <v>2022</v>
+      </c>
+      <c r="F235">
         <v>12820660645</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>2022</v>
       </c>
     </row>
@@ -6963,9 +7670,12 @@
         </is>
       </c>
       <c r="E236">
+        <v>2021</v>
+      </c>
+      <c r="F236">
         <v>36530850612</v>
       </c>
-      <c r="F236">
+      <c r="G236">
         <v>2021</v>
       </c>
     </row>
@@ -6991,9 +7701,12 @@
         </is>
       </c>
       <c r="E237">
+        <v>2022</v>
+      </c>
+      <c r="F237">
         <v>43383566724</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>2022</v>
       </c>
     </row>
@@ -7019,9 +7732,12 @@
         </is>
       </c>
       <c r="E238">
+        <v>2021</v>
+      </c>
+      <c r="F238">
         <v>141830131160</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>2021</v>
       </c>
     </row>
@@ -7047,9 +7763,12 @@
         </is>
       </c>
       <c r="E239">
+        <v>2022</v>
+      </c>
+      <c r="F239">
         <v>151540101075</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>2022</v>
       </c>
     </row>
@@ -7075,9 +7794,12 @@
         </is>
       </c>
       <c r="E240">
+        <v>2021</v>
+      </c>
+      <c r="F240">
         <v>52979674</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>2021</v>
       </c>
     </row>
@@ -7103,9 +7825,12 @@
         </is>
       </c>
       <c r="E241">
+        <v>2022</v>
+      </c>
+      <c r="F241">
         <v>72097467</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>2022</v>
       </c>
     </row>
@@ -7131,9 +7856,12 @@
         </is>
       </c>
       <c r="E242">
+        <v>2021</v>
+      </c>
+      <c r="F242">
         <v>52570833</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>2021</v>
       </c>
     </row>
@@ -7159,9 +7887,12 @@
         </is>
       </c>
       <c r="E243">
+        <v>2022</v>
+      </c>
+      <c r="F243">
         <v>44557967</v>
       </c>
-      <c r="F243">
+      <c r="G243">
         <v>2022</v>
       </c>
     </row>
@@ -7187,9 +7918,12 @@
         </is>
       </c>
       <c r="E244">
+        <v>2021</v>
+      </c>
+      <c r="F244">
         <v>501740476073</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>2021</v>
       </c>
     </row>
@@ -7215,9 +7949,12 @@
         </is>
       </c>
       <c r="E245">
+        <v>2022</v>
+      </c>
+      <c r="F245">
         <v>596957712230</v>
       </c>
-      <c r="F245">
+      <c r="G245">
         <v>2022</v>
       </c>
     </row>
@@ -7243,9 +7980,12 @@
         </is>
       </c>
       <c r="E246">
+        <v>2021</v>
+      </c>
+      <c r="F246">
         <v>1658948495</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>2021</v>
       </c>
     </row>
@@ -7271,9 +8011,12 @@
         </is>
       </c>
       <c r="E247">
+        <v>2022</v>
+      </c>
+      <c r="F247">
         <v>2186695034</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>2022</v>
       </c>
     </row>
@@ -7299,9 +8042,12 @@
         </is>
       </c>
       <c r="E248">
+        <v>2021</v>
+      </c>
+      <c r="F248">
         <v>4399540648</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>2021</v>
       </c>
     </row>
@@ -7327,9 +8073,12 @@
         </is>
       </c>
       <c r="E249">
+        <v>2022</v>
+      </c>
+      <c r="F249">
         <v>6171664019</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>2022</v>
       </c>
     </row>
@@ -7355,9 +8104,12 @@
         </is>
       </c>
       <c r="E250">
+        <v>2021</v>
+      </c>
+      <c r="F250">
         <v>9277283656</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>2021</v>
       </c>
     </row>
@@ -7383,9 +8135,12 @@
         </is>
       </c>
       <c r="E251">
+        <v>2022</v>
+      </c>
+      <c r="F251">
         <v>13276867150</v>
       </c>
-      <c r="F251">
+      <c r="G251">
         <v>2022</v>
       </c>
     </row>
@@ -7411,9 +8166,12 @@
         </is>
       </c>
       <c r="E252">
+        <v>2021</v>
+      </c>
+      <c r="F252">
         <v>1079792698</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>2021</v>
       </c>
     </row>
@@ -7439,9 +8197,12 @@
         </is>
       </c>
       <c r="E253">
+        <v>2022</v>
+      </c>
+      <c r="F253">
         <v>2715998013</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>2022</v>
       </c>
     </row>
@@ -7467,9 +8228,12 @@
         </is>
       </c>
       <c r="E254">
+        <v>2021</v>
+      </c>
+      <c r="F254">
         <v>218501637</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>2021</v>
       </c>
     </row>
@@ -7495,9 +8259,12 @@
         </is>
       </c>
       <c r="E255">
+        <v>2022</v>
+      </c>
+      <c r="F255">
         <v>232044366</v>
       </c>
-      <c r="F255">
+      <c r="G255">
         <v>2022</v>
       </c>
     </row>
@@ -7523,9 +8290,12 @@
         </is>
       </c>
       <c r="E256">
+        <v>2021</v>
+      </c>
+      <c r="F256">
         <v>39574133382</v>
       </c>
-      <c r="F256">
+      <c r="G256">
         <v>2021</v>
       </c>
     </row>
@@ -7551,9 +8321,12 @@
         </is>
       </c>
       <c r="E257">
+        <v>2022</v>
+      </c>
+      <c r="F257">
         <v>46319748469</v>
       </c>
-      <c r="F257">
+      <c r="G257">
         <v>2022</v>
       </c>
     </row>
@@ -7579,9 +8352,12 @@
         </is>
       </c>
       <c r="E258">
+        <v>2021</v>
+      </c>
+      <c r="F258">
         <v>3953611158</v>
       </c>
-      <c r="F258">
+      <c r="G258">
         <v>2021</v>
       </c>
     </row>
@@ -7607,9 +8383,12 @@
         </is>
       </c>
       <c r="E259">
+        <v>2022</v>
+      </c>
+      <c r="F259">
         <v>3550758994</v>
       </c>
-      <c r="F259">
+      <c r="G259">
         <v>2022</v>
       </c>
     </row>
@@ -7635,9 +8414,12 @@
         </is>
       </c>
       <c r="E260">
+        <v>2021</v>
+      </c>
+      <c r="F260">
         <v>11051924478</v>
       </c>
-      <c r="F260">
+      <c r="G260">
         <v>2021</v>
       </c>
     </row>
@@ -7663,9 +8445,12 @@
         </is>
       </c>
       <c r="E261">
+        <v>2022</v>
+      </c>
+      <c r="F261">
         <v>14362123292</v>
       </c>
-      <c r="F261">
+      <c r="G261">
         <v>2022</v>
       </c>
     </row>
@@ -7691,9 +8476,12 @@
         </is>
       </c>
       <c r="E262">
+        <v>2021</v>
+      </c>
+      <c r="F262">
         <v>56236884800</v>
       </c>
-      <c r="F262">
+      <c r="G262">
         <v>2021</v>
       </c>
     </row>
@@ -7719,9 +8507,12 @@
         </is>
       </c>
       <c r="E263">
+        <v>2022</v>
+      </c>
+      <c r="F263">
         <v>66471631148</v>
       </c>
-      <c r="F263">
+      <c r="G263">
         <v>2022</v>
       </c>
     </row>
@@ -7747,9 +8538,12 @@
         </is>
       </c>
       <c r="E264">
+        <v>2021</v>
+      </c>
+      <c r="F264">
         <v>20874447</v>
       </c>
-      <c r="F264">
+      <c r="G264">
         <v>2021</v>
       </c>
     </row>
@@ -7775,9 +8569,12 @@
         </is>
       </c>
       <c r="E265">
+        <v>2022</v>
+      </c>
+      <c r="F265">
         <v>22587972</v>
       </c>
-      <c r="F265">
+      <c r="G265">
         <v>2022</v>
       </c>
     </row>
@@ -7803,9 +8600,12 @@
         </is>
       </c>
       <c r="E266">
+        <v>2021</v>
+      </c>
+      <c r="F266">
         <v>3513117968</v>
       </c>
-      <c r="F266">
+      <c r="G266">
         <v>2021</v>
       </c>
     </row>
@@ -7831,9 +8631,12 @@
         </is>
       </c>
       <c r="E267">
+        <v>2022</v>
+      </c>
+      <c r="F267">
         <v>3878440278</v>
       </c>
-      <c r="F267">
+      <c r="G267">
         <v>2022</v>
       </c>
     </row>
@@ -7859,9 +8662,12 @@
         </is>
       </c>
       <c r="E268">
+        <v>2021</v>
+      </c>
+      <c r="F268">
         <v>340633516883</v>
       </c>
-      <c r="F268">
+      <c r="G268">
         <v>2021</v>
       </c>
     </row>
@@ -7887,9 +8693,12 @@
         </is>
       </c>
       <c r="E269">
+        <v>2022</v>
+      </c>
+      <c r="F269">
         <v>360541931833</v>
       </c>
-      <c r="F269">
+      <c r="G269">
         <v>2022</v>
       </c>
     </row>
@@ -7915,9 +8724,12 @@
         </is>
       </c>
       <c r="E270">
+        <v>2021</v>
+      </c>
+      <c r="F270">
         <v>344138637936</v>
       </c>
-      <c r="F270">
+      <c r="G270">
         <v>2021</v>
       </c>
     </row>
@@ -7943,9 +8755,12 @@
         </is>
       </c>
       <c r="E271">
+        <v>2022</v>
+      </c>
+      <c r="F271">
         <v>412540265911</v>
       </c>
-      <c r="F271">
+      <c r="G271">
         <v>2022</v>
       </c>
     </row>
@@ -7971,9 +8786,12 @@
         </is>
       </c>
       <c r="E272">
+        <v>2021</v>
+      </c>
+      <c r="F272">
         <v>278924567991</v>
       </c>
-      <c r="F272">
+      <c r="G272">
         <v>2021</v>
       </c>
     </row>
@@ -7999,9 +8817,12 @@
         </is>
       </c>
       <c r="E273">
+        <v>2022</v>
+      </c>
+      <c r="F273">
         <v>408348703780</v>
       </c>
-      <c r="F273">
+      <c r="G273">
         <v>2022</v>
       </c>
     </row>
@@ -8027,9 +8848,12 @@
         </is>
       </c>
       <c r="E274">
+        <v>2021</v>
+      </c>
+      <c r="F274">
         <v>125944806080</v>
       </c>
-      <c r="F274">
+      <c r="G274">
         <v>2021</v>
       </c>
     </row>
@@ -8055,9 +8879,12 @@
         </is>
       </c>
       <c r="E275">
+        <v>2022</v>
+      </c>
+      <c r="F275">
         <v>128861557225</v>
       </c>
-      <c r="F275">
+      <c r="G275">
         <v>2022</v>
       </c>
     </row>
@@ -8083,9 +8910,12 @@
         </is>
       </c>
       <c r="E276">
+        <v>2021</v>
+      </c>
+      <c r="F276">
         <v>22050195261171</v>
       </c>
-      <c r="F276">
+      <c r="G276">
         <v>2021</v>
       </c>
     </row>
@@ -8111,9 +8941,12 @@
         </is>
       </c>
       <c r="E277">
+        <v>2022</v>
+      </c>
+      <c r="F277">
         <v>24655529674494</v>
       </c>
-      <c r="F277">
+      <c r="G277">
         <v>2022</v>
       </c>
     </row>
@@ -8139,9 +8972,12 @@
         </is>
       </c>
       <c r="E278">
+        <v>2021</v>
+      </c>
+      <c r="F278">
         <v>330431996952</v>
       </c>
-      <c r="F278">
+      <c r="G278">
         <v>2021</v>
       </c>
     </row>
@@ -8167,9 +9003,12 @@
         </is>
       </c>
       <c r="E279">
+        <v>2022</v>
+      </c>
+      <c r="F279">
         <v>360341121878</v>
       </c>
-      <c r="F279">
+      <c r="G279">
         <v>2022</v>
       </c>
     </row>
@@ -8195,9 +9034,12 @@
         </is>
       </c>
       <c r="E280">
+        <v>2021</v>
+      </c>
+      <c r="F280">
         <v>3063586579</v>
       </c>
-      <c r="F280">
+      <c r="G280">
         <v>2021</v>
       </c>
     </row>
@@ -8223,9 +9065,12 @@
         </is>
       </c>
       <c r="E281">
+        <v>2022</v>
+      </c>
+      <c r="F281">
         <v>3207059252</v>
       </c>
-      <c r="F281">
+      <c r="G281">
         <v>2022</v>
       </c>
     </row>
@@ -8251,9 +9096,12 @@
         </is>
       </c>
       <c r="E282">
+        <v>2021</v>
+      </c>
+      <c r="F282">
         <v>231522458148</v>
       </c>
-      <c r="F282">
+      <c r="G282">
         <v>2021</v>
       </c>
     </row>
@@ -8279,9 +9127,12 @@
         </is>
       </c>
       <c r="E283">
+        <v>2022</v>
+      </c>
+      <c r="F283">
         <v>292305268543</v>
       </c>
-      <c r="F283">
+      <c r="G283">
         <v>2022</v>
       </c>
     </row>
@@ -8307,9 +9158,12 @@
         </is>
       </c>
       <c r="E284">
+        <v>2021</v>
+      </c>
+      <c r="F284">
         <v>16657228</v>
       </c>
-      <c r="F284">
+      <c r="G284">
         <v>2021</v>
       </c>
     </row>
@@ -8335,9 +9189,12 @@
         </is>
       </c>
       <c r="E285">
+        <v>2022</v>
+      </c>
+      <c r="F285">
         <v>17787532</v>
       </c>
-      <c r="F285">
+      <c r="G285">
         <v>2022</v>
       </c>
     </row>
@@ -8363,9 +9220,12 @@
         </is>
       </c>
       <c r="E286">
+        <v>2021</v>
+      </c>
+      <c r="F286">
         <v>59075000000</v>
       </c>
-      <c r="F286">
+      <c r="G286">
         <v>2021</v>
       </c>
     </row>
@@ -8391,9 +9251,12 @@
         </is>
       </c>
       <c r="E287">
+        <v>2022</v>
+      </c>
+      <c r="F287">
         <v>72538300000</v>
       </c>
-      <c r="F287">
+      <c r="G287">
         <v>2022</v>
       </c>
     </row>
@@ -8419,9 +9282,12 @@
         </is>
       </c>
       <c r="E288">
+        <v>2021</v>
+      </c>
+      <c r="F288">
         <v>1276838056</v>
       </c>
-      <c r="F288">
+      <c r="G288">
         <v>2021</v>
       </c>
     </row>
@@ -8447,9 +9313,12 @@
         </is>
       </c>
       <c r="E289">
+        <v>2022</v>
+      </c>
+      <c r="F289">
         <v>1204616173</v>
       </c>
-      <c r="F289">
+      <c r="G289">
         <v>2022</v>
       </c>
     </row>
@@ -8475,9 +9344,12 @@
         </is>
       </c>
       <c r="E290">
+        <v>2021</v>
+      </c>
+      <c r="F290">
         <v>87492818</v>
       </c>
-      <c r="F290">
+      <c r="G290">
         <v>2021</v>
       </c>
     </row>
@@ -8503,9 +9375,12 @@
         </is>
       </c>
       <c r="E291">
+        <v>2022</v>
+      </c>
+      <c r="F291">
         <v>103841099</v>
       </c>
-      <c r="F291">
+      <c r="G291">
         <v>2022</v>
       </c>
     </row>
@@ -8531,9 +9406,12 @@
         </is>
       </c>
       <c r="E292">
+        <v>2021</v>
+      </c>
+      <c r="F292">
         <v>57351903433</v>
       </c>
-      <c r="F292">
+      <c r="G292">
         <v>2021</v>
       </c>
     </row>
@@ -8559,9 +9437,12 @@
         </is>
       </c>
       <c r="E293">
+        <v>2022</v>
+      </c>
+      <c r="F293">
         <v>69700974155</v>
       </c>
-      <c r="F293">
+      <c r="G293">
         <v>2022</v>
       </c>
     </row>
@@ -8587,9 +9468,12 @@
         </is>
       </c>
       <c r="E294">
+        <v>2021</v>
+      </c>
+      <c r="F294">
         <v>6647148171318</v>
       </c>
-      <c r="F294">
+      <c r="G294">
         <v>2021</v>
       </c>
     </row>
@@ -8615,9 +9499,12 @@
         </is>
       </c>
       <c r="E295">
+        <v>2022</v>
+      </c>
+      <c r="F295">
         <v>7150111746903</v>
       </c>
-      <c r="F295">
+      <c r="G295">
         <v>2022</v>
       </c>
     </row>
@@ -8643,9 +9530,12 @@
         </is>
       </c>
       <c r="E296">
+        <v>2021</v>
+      </c>
+      <c r="F296">
         <v>2452655301</v>
       </c>
-      <c r="F296">
+      <c r="G296">
         <v>2021</v>
       </c>
     </row>
@@ -8671,9 +9561,12 @@
         </is>
       </c>
       <c r="E297">
+        <v>2022</v>
+      </c>
+      <c r="F297">
         <v>4193722161</v>
       </c>
-      <c r="F297">
+      <c r="G297">
         <v>2022</v>
       </c>
     </row>
@@ -8699,9 +9592,12 @@
         </is>
       </c>
       <c r="E298">
+        <v>2021</v>
+      </c>
+      <c r="F298">
         <v>38434843397</v>
       </c>
-      <c r="F298">
+      <c r="G298">
         <v>2021</v>
       </c>
     </row>
@@ -8727,9 +9623,12 @@
         </is>
       </c>
       <c r="E299">
+        <v>2022</v>
+      </c>
+      <c r="F299">
         <v>65102212578</v>
       </c>
-      <c r="F299">
+      <c r="G299">
         <v>2022</v>
       </c>
     </row>
@@ -8755,9 +9654,12 @@
         </is>
       </c>
       <c r="E300">
+        <v>2021</v>
+      </c>
+      <c r="F300">
         <v>4695751872</v>
       </c>
-      <c r="F300">
+      <c r="G300">
         <v>2021</v>
       </c>
     </row>
@@ -8783,9 +9685,12 @@
         </is>
       </c>
       <c r="E301">
+        <v>2022</v>
+      </c>
+      <c r="F301">
         <v>7673276422</v>
       </c>
-      <c r="F301">
+      <c r="G301">
         <v>2022</v>
       </c>
     </row>
@@ -8811,9 +9716,12 @@
         </is>
       </c>
       <c r="E302">
+        <v>2021</v>
+      </c>
+      <c r="F302">
         <v>756166163384</v>
       </c>
-      <c r="F302">
+      <c r="G302">
         <v>2021</v>
       </c>
     </row>
@@ -8839,9 +9747,12 @@
         </is>
       </c>
       <c r="E303">
+        <v>2022</v>
+      </c>
+      <c r="F303">
         <v>746720431187</v>
       </c>
-      <c r="F303">
+      <c r="G303">
         <v>2022</v>
       </c>
     </row>
@@ -8867,9 +9778,12 @@
         </is>
       </c>
       <c r="E304">
+        <v>2021</v>
+      </c>
+      <c r="F304">
         <v>11141099670</v>
       </c>
-      <c r="F304">
+      <c r="G304">
         <v>2021</v>
       </c>
     </row>
@@ -8895,9 +9809,12 @@
         </is>
       </c>
       <c r="E305">
+        <v>2022</v>
+      </c>
+      <c r="F305">
         <v>17614334709</v>
       </c>
-      <c r="F305">
+      <c r="G305">
         <v>2022</v>
       </c>
     </row>
@@ -8923,9 +9840,12 @@
         </is>
       </c>
       <c r="E306">
+        <v>2021</v>
+      </c>
+      <c r="F306">
         <v>6621385982</v>
       </c>
-      <c r="F306">
+      <c r="G306">
         <v>2021</v>
       </c>
     </row>
@@ -8951,9 +9871,12 @@
         </is>
       </c>
       <c r="E307">
+        <v>2022</v>
+      </c>
+      <c r="F307">
         <v>7115101783</v>
       </c>
-      <c r="F307">
+      <c r="G307">
         <v>2022</v>
       </c>
     </row>
@@ -8979,9 +9902,12 @@
         </is>
       </c>
       <c r="E308">
+        <v>2021</v>
+      </c>
+      <c r="F308">
         <v>777035183</v>
       </c>
-      <c r="F308">
+      <c r="G308">
         <v>2021</v>
       </c>
     </row>
@@ -9007,9 +9933,12 @@
         </is>
       </c>
       <c r="E309">
+        <v>2022</v>
+      </c>
+      <c r="F309">
         <v>449403799</v>
       </c>
-      <c r="F309">
+      <c r="G309">
         <v>2022</v>
       </c>
     </row>
@@ -9035,9 +9964,12 @@
         </is>
       </c>
       <c r="E310">
+        <v>2021</v>
+      </c>
+      <c r="F310">
         <v>40705673741</v>
       </c>
-      <c r="F310">
+      <c r="G310">
         <v>2021</v>
       </c>
     </row>
@@ -9063,9 +9995,12 @@
         </is>
       </c>
       <c r="E311">
+        <v>2022</v>
+      </c>
+      <c r="F311">
         <v>46339780884</v>
       </c>
-      <c r="F311">
+      <c r="G311">
         <v>2022</v>
       </c>
     </row>
@@ -9091,9 +10026,12 @@
         </is>
       </c>
       <c r="E312">
+        <v>2021</v>
+      </c>
+      <c r="F312">
         <v>6391040503</v>
       </c>
-      <c r="F312">
+      <c r="G312">
         <v>2021</v>
       </c>
     </row>
@@ -9119,9 +10057,12 @@
         </is>
       </c>
       <c r="E313">
+        <v>2022</v>
+      </c>
+      <c r="F313">
         <v>9824773113</v>
       </c>
-      <c r="F313">
+      <c r="G313">
         <v>2022</v>
       </c>
     </row>
@@ -9147,9 +10088,12 @@
         </is>
       </c>
       <c r="E314">
+        <v>2021</v>
+      </c>
+      <c r="F314">
         <v>1649978155</v>
       </c>
-      <c r="F314">
+      <c r="G314">
         <v>2021</v>
       </c>
     </row>
@@ -9175,9 +10119,12 @@
         </is>
       </c>
       <c r="E315">
+        <v>2022</v>
+      </c>
+      <c r="F315">
         <v>1646519465</v>
       </c>
-      <c r="F315">
+      <c r="G315">
         <v>2022</v>
       </c>
     </row>
@@ -9203,9 +10150,12 @@
         </is>
       </c>
       <c r="E316">
+        <v>2021</v>
+      </c>
+      <c r="F316">
         <v>75229280076</v>
       </c>
-      <c r="F316">
+      <c r="G316">
         <v>2021</v>
       </c>
     </row>
@@ -9231,9 +10181,12 @@
         </is>
       </c>
       <c r="E317">
+        <v>2022</v>
+      </c>
+      <c r="F317">
         <v>82354805503</v>
       </c>
-      <c r="F317">
+      <c r="G317">
         <v>2022</v>
       </c>
     </row>
@@ -9259,9 +10212,12 @@
         </is>
       </c>
       <c r="E318">
+        <v>2021</v>
+      </c>
+      <c r="F318">
         <v>20833171465</v>
       </c>
-      <c r="F318">
+      <c r="G318">
         <v>2021</v>
       </c>
     </row>
@@ -9287,9 +10243,12 @@
         </is>
       </c>
       <c r="E319">
+        <v>2022</v>
+      </c>
+      <c r="F319">
         <v>24011049604</v>
       </c>
-      <c r="F319">
+      <c r="G319">
         <v>2022</v>
       </c>
     </row>
@@ -9315,9 +10274,12 @@
         </is>
       </c>
       <c r="E320">
+        <v>2021</v>
+      </c>
+      <c r="F320">
         <v>5176358630</v>
       </c>
-      <c r="F320">
+      <c r="G320">
         <v>2021</v>
       </c>
     </row>
@@ -9343,9 +10305,12 @@
         </is>
       </c>
       <c r="E321">
+        <v>2022</v>
+      </c>
+      <c r="F321">
         <v>5208977799</v>
       </c>
-      <c r="F321">
+      <c r="G321">
         <v>2022</v>
       </c>
     </row>
@@ -9371,9 +10336,12 @@
         </is>
       </c>
       <c r="E322">
+        <v>2021</v>
+      </c>
+      <c r="F322">
         <v>1337931087</v>
       </c>
-      <c r="F322">
+      <c r="G322">
         <v>2021</v>
       </c>
     </row>
@@ -9399,9 +10367,12 @@
         </is>
       </c>
       <c r="E323">
+        <v>2022</v>
+      </c>
+      <c r="F323">
         <v>1594022952</v>
       </c>
-      <c r="F323">
+      <c r="G323">
         <v>2022</v>
       </c>
     </row>
@@ -9427,9 +10398,12 @@
         </is>
       </c>
       <c r="E324">
+        <v>2021</v>
+      </c>
+      <c r="F324">
         <v>4242323767</v>
       </c>
-      <c r="F324">
+      <c r="G324">
         <v>2021</v>
       </c>
     </row>
@@ -9455,9 +10429,12 @@
         </is>
       </c>
       <c r="E325">
+        <v>2022</v>
+      </c>
+      <c r="F325">
         <v>5592764969</v>
       </c>
-      <c r="F325">
+      <c r="G325">
         <v>2022</v>
       </c>
     </row>
@@ -9483,9 +10460,12 @@
         </is>
       </c>
       <c r="E326">
+        <v>2021</v>
+      </c>
+      <c r="F326">
         <v>492048058908</v>
       </c>
-      <c r="F326">
+      <c r="G326">
         <v>2021</v>
       </c>
     </row>
@@ -9511,9 +10491,12 @@
         </is>
       </c>
       <c r="E327">
+        <v>2022</v>
+      </c>
+      <c r="F327">
         <v>572471050832</v>
       </c>
-      <c r="F327">
+      <c r="G327">
         <v>2022</v>
       </c>
     </row>
@@ -9539,9 +10522,12 @@
         </is>
       </c>
       <c r="E328">
+        <v>2021</v>
+      </c>
+      <c r="F328">
         <v>716833758955</v>
       </c>
-      <c r="F328">
+      <c r="G328">
         <v>2021</v>
       </c>
     </row>
@@ -9567,9 +10553,12 @@
         </is>
       </c>
       <c r="E329">
+        <v>2022</v>
+      </c>
+      <c r="F329">
         <v>818732854883</v>
       </c>
-      <c r="F329">
+      <c r="G329">
         <v>2022</v>
       </c>
     </row>
@@ -9595,9 +10584,12 @@
         </is>
       </c>
       <c r="E330">
+        <v>2021</v>
+      </c>
+      <c r="F330">
         <v>31309030</v>
       </c>
-      <c r="F330">
+      <c r="G330">
         <v>2021</v>
       </c>
     </row>
@@ -9623,9 +10615,12 @@
         </is>
       </c>
       <c r="E331">
+        <v>2022</v>
+      </c>
+      <c r="F331">
         <v>28277421</v>
       </c>
-      <c r="F331">
+      <c r="G331">
         <v>2022</v>
       </c>
     </row>
@@ -9651,9 +10646,12 @@
         </is>
       </c>
       <c r="E332">
+        <v>2021</v>
+      </c>
+      <c r="F332">
         <v>18109303001</v>
       </c>
-      <c r="F332">
+      <c r="G332">
         <v>2021</v>
       </c>
     </row>
@@ -9679,9 +10677,12 @@
         </is>
       </c>
       <c r="E333">
+        <v>2022</v>
+      </c>
+      <c r="F333">
         <v>18564496772</v>
       </c>
-      <c r="F333">
+      <c r="G333">
         <v>2022</v>
       </c>
     </row>
@@ -9707,9 +10708,12 @@
         </is>
       </c>
       <c r="E334">
+        <v>2021</v>
+      </c>
+      <c r="F334">
         <v>12696997525111</v>
       </c>
-      <c r="F334">
+      <c r="G334">
         <v>2021</v>
       </c>
     </row>
@@ -9735,9 +10739,12 @@
         </is>
       </c>
       <c r="E335">
+        <v>2022</v>
+      </c>
+      <c r="F335">
         <v>13899713426466</v>
       </c>
-      <c r="F335">
+      <c r="G335">
         <v>2022</v>
       </c>
     </row>
@@ -9763,9 +10770,12 @@
         </is>
       </c>
       <c r="E336">
+        <v>2021</v>
+      </c>
+      <c r="F336">
         <v>957862157</v>
       </c>
-      <c r="F336">
+      <c r="G336">
         <v>2021</v>
       </c>
     </row>
@@ -9791,9 +10801,12 @@
         </is>
       </c>
       <c r="E337">
+        <v>2022</v>
+      </c>
+      <c r="F337">
         <v>997924369</v>
       </c>
-      <c r="F337">
+      <c r="G337">
         <v>2022</v>
       </c>
     </row>
@@ -9819,9 +10832,12 @@
         </is>
       </c>
       <c r="E338">
+        <v>2021</v>
+      </c>
+      <c r="F338">
         <v>3887900803</v>
       </c>
-      <c r="F338">
+      <c r="G338">
         <v>2021</v>
       </c>
     </row>
@@ -9847,9 +10863,12 @@
         </is>
       </c>
       <c r="E339">
+        <v>2022</v>
+      </c>
+      <c r="F339">
         <v>4342448272</v>
       </c>
-      <c r="F339">
+      <c r="G339">
         <v>2022</v>
       </c>
     </row>
@@ -9875,9 +10894,12 @@
         </is>
       </c>
       <c r="E340">
+        <v>2021</v>
+      </c>
+      <c r="F340">
         <v>356063393</v>
       </c>
-      <c r="F340">
+      <c r="G340">
         <v>2021</v>
       </c>
     </row>
@@ -9903,9 +10925,12 @@
         </is>
       </c>
       <c r="E341">
+        <v>2022</v>
+      </c>
+      <c r="F341">
         <v>378598104</v>
       </c>
-      <c r="F341">
+      <c r="G341">
         <v>2022</v>
       </c>
     </row>
@@ -9931,9 +10956,12 @@
         </is>
       </c>
       <c r="E342">
+        <v>2021</v>
+      </c>
+      <c r="F342">
         <v>299037704561</v>
       </c>
-      <c r="F342">
+      <c r="G342">
         <v>2021</v>
       </c>
     </row>
@@ -9959,9 +10987,12 @@
         </is>
       </c>
       <c r="E343">
+        <v>2022</v>
+      </c>
+      <c r="F343">
         <v>352337923095</v>
       </c>
-      <c r="F343">
+      <c r="G343">
         <v>2022</v>
       </c>
     </row>
@@ -9987,9 +11018,12 @@
         </is>
       </c>
       <c r="E344">
+        <v>2021</v>
+      </c>
+      <c r="F344">
         <v>379969120569</v>
       </c>
-      <c r="F344">
+      <c r="G344">
         <v>2021</v>
       </c>
     </row>
@@ -10015,9 +11049,12 @@
         </is>
       </c>
       <c r="E345">
+        <v>2022</v>
+      </c>
+      <c r="F345">
         <v>418364066638</v>
       </c>
-      <c r="F345">
+      <c r="G345">
         <v>2022</v>
       </c>
     </row>
@@ -10043,9 +11080,12 @@
         </is>
       </c>
       <c r="E346">
+        <v>2021</v>
+      </c>
+      <c r="F346">
         <v>644399390000</v>
       </c>
-      <c r="F346">
+      <c r="G346">
         <v>2021</v>
       </c>
     </row>
@@ -10071,9 +11111,12 @@
         </is>
       </c>
       <c r="E347">
+        <v>2022</v>
+      </c>
+      <c r="F347">
         <v>683583612000</v>
       </c>
-      <c r="F347">
+      <c r="G347">
         <v>2022</v>
       </c>
     </row>
@@ -10099,9 +11142,12 @@
         </is>
       </c>
       <c r="E348">
+        <v>2021</v>
+      </c>
+      <c r="F348">
         <v>379401552404</v>
       </c>
-      <c r="F348">
+      <c r="G348">
         <v>2021</v>
       </c>
     </row>
@@ -10127,9 +11173,12 @@
         </is>
       </c>
       <c r="E349">
+        <v>2022</v>
+      </c>
+      <c r="F349">
         <v>401706622689</v>
       </c>
-      <c r="F349">
+      <c r="G349">
         <v>2022</v>
       </c>
     </row>
@@ -10155,9 +11204,12 @@
         </is>
       </c>
       <c r="E350">
+        <v>2021</v>
+      </c>
+      <c r="F350">
         <v>36344059715</v>
       </c>
-      <c r="F350">
+      <c r="G350">
         <v>2021</v>
       </c>
     </row>
@@ -10183,9 +11235,12 @@
         </is>
       </c>
       <c r="E351">
+        <v>2022</v>
+      </c>
+      <c r="F351">
         <v>46483050628</v>
       </c>
-      <c r="F351">
+      <c r="G351">
         <v>2022</v>
       </c>
     </row>
@@ -10211,9 +11266,12 @@
         </is>
       </c>
       <c r="E352">
+        <v>2021</v>
+      </c>
+      <c r="F352">
         <v>1754300367662</v>
       </c>
-      <c r="F352">
+      <c r="G352">
         <v>2021</v>
       </c>
     </row>
@@ -10239,9 +11297,12 @@
         </is>
       </c>
       <c r="E353">
+        <v>2022</v>
+      </c>
+      <c r="F353">
         <v>2064056389455</v>
       </c>
-      <c r="F353">
+      <c r="G353">
         <v>2022</v>
       </c>
     </row>
@@ -10267,9 +11328,12 @@
         </is>
       </c>
       <c r="E354">
+        <v>2021</v>
+      </c>
+      <c r="F354">
         <v>103891285834</v>
       </c>
-      <c r="F354">
+      <c r="G354">
         <v>2021</v>
       </c>
     </row>
@@ -10295,9 +11359,12 @@
         </is>
       </c>
       <c r="E355">
+        <v>2022</v>
+      </c>
+      <c r="F355">
         <v>107770858037</v>
       </c>
-      <c r="F355">
+      <c r="G355">
         <v>2022</v>
       </c>
     </row>
@@ -10323,9 +11390,12 @@
         </is>
       </c>
       <c r="E356">
+        <v>2021</v>
+      </c>
+      <c r="F356">
         <v>9537248058</v>
       </c>
-      <c r="F356">
+      <c r="G356">
         <v>2021</v>
       </c>
     </row>
@@ -10351,9 +11421,12 @@
         </is>
       </c>
       <c r="E357">
+        <v>2022</v>
+      </c>
+      <c r="F357">
         <v>11187261351</v>
       </c>
-      <c r="F357">
+      <c r="G357">
         <v>2022</v>
       </c>
     </row>
@@ -10379,9 +11452,12 @@
         </is>
       </c>
       <c r="E358">
+        <v>2021</v>
+      </c>
+      <c r="F358">
         <v>25559357631</v>
       </c>
-      <c r="F358">
+      <c r="G358">
         <v>2021</v>
       </c>
     </row>
@@ -10407,9 +11483,12 @@
         </is>
       </c>
       <c r="E359">
+        <v>2022</v>
+      </c>
+      <c r="F359">
         <v>29056978647</v>
       </c>
-      <c r="F359">
+      <c r="G359">
         <v>2022</v>
       </c>
     </row>
@@ -10435,9 +11514,12 @@
         </is>
       </c>
       <c r="E360">
+        <v>2021</v>
+      </c>
+      <c r="F360">
         <v>1069721028</v>
       </c>
-      <c r="F360">
+      <c r="G360">
         <v>2021</v>
       </c>
     </row>
@@ -10463,9 +11545,12 @@
         </is>
       </c>
       <c r="E361">
+        <v>2022</v>
+      </c>
+      <c r="F361">
         <v>1053607800</v>
       </c>
-      <c r="F361">
+      <c r="G361">
         <v>2022</v>
       </c>
     </row>
@@ -10491,9 +11576,12 @@
         </is>
       </c>
       <c r="E362">
+        <v>2021</v>
+      </c>
+      <c r="F362">
         <v>1187697311391</v>
       </c>
-      <c r="F362">
+      <c r="G362">
         <v>2021</v>
       </c>
     </row>
@@ -10519,9 +11607,12 @@
         </is>
       </c>
       <c r="E363">
+        <v>2022</v>
+      </c>
+      <c r="F363">
         <v>1404092127077</v>
       </c>
-      <c r="F363">
+      <c r="G363">
         <v>2022</v>
       </c>
     </row>
@@ -10547,9 +11638,12 @@
         </is>
       </c>
       <c r="E364">
+        <v>2021</v>
+      </c>
+      <c r="F364">
         <v>95674498</v>
       </c>
-      <c r="F364">
+      <c r="G364">
         <v>2021</v>
       </c>
     </row>
@@ -10575,9 +11669,12 @@
         </is>
       </c>
       <c r="E365">
+        <v>2022</v>
+      </c>
+      <c r="F365">
         <v>79364778</v>
       </c>
-      <c r="F365">
+      <c r="G365">
         <v>2022</v>
       </c>
     </row>
@@ -10603,9 +11700,12 @@
         </is>
       </c>
       <c r="E366">
+        <v>2021</v>
+      </c>
+      <c r="F366">
         <v>68303554694.00001</v>
       </c>
-      <c r="F366">
+      <c r="G366">
         <v>2021</v>
       </c>
     </row>
@@ -10631,9 +11731,12 @@
         </is>
       </c>
       <c r="E367">
+        <v>2022</v>
+      </c>
+      <c r="F367">
         <v>94062283605</v>
       </c>
-      <c r="F367">
+      <c r="G367">
         <v>2022</v>
       </c>
     </row>
@@ -10659,9 +11762,12 @@
         </is>
       </c>
       <c r="E368">
+        <v>2021</v>
+      </c>
+      <c r="F368">
         <v>14063261482</v>
       </c>
-      <c r="F368">
+      <c r="G368">
         <v>2021</v>
       </c>
     </row>
@@ -10687,9 +11793,12 @@
         </is>
       </c>
       <c r="E369">
+        <v>2022</v>
+      </c>
+      <c r="F369">
         <v>14253365581</v>
       </c>
-      <c r="F369">
+      <c r="G369">
         <v>2022</v>
       </c>
     </row>
@@ -10715,9 +11824,12 @@
         </is>
       </c>
       <c r="E370">
+        <v>2021</v>
+      </c>
+      <c r="F370">
         <v>1508338165342</v>
       </c>
-      <c r="F370">
+      <c r="G370">
         <v>2021</v>
       </c>
     </row>
@@ -10743,9 +11855,12 @@
         </is>
       </c>
       <c r="E371">
+        <v>2022</v>
+      </c>
+      <c r="F371">
         <v>1650202719731</v>
       </c>
-      <c r="F371">
+      <c r="G371">
         <v>2022</v>
       </c>
     </row>
@@ -10771,9 +11886,12 @@
         </is>
       </c>
       <c r="E372">
+        <v>2021</v>
+      </c>
+      <c r="F372">
         <v>4575932080</v>
       </c>
-      <c r="F372">
+      <c r="G372">
         <v>2021</v>
       </c>
     </row>
@@ -10799,9 +11917,12 @@
         </is>
       </c>
       <c r="E373">
+        <v>2022</v>
+      </c>
+      <c r="F373">
         <v>4308951000</v>
       </c>
-      <c r="F373">
+      <c r="G373">
         <v>2022</v>
       </c>
     </row>
@@ -10827,9 +11948,12 @@
         </is>
       </c>
       <c r="E374">
+        <v>2021</v>
+      </c>
+      <c r="F374">
         <v>6730576026</v>
       </c>
-      <c r="F374">
+      <c r="G374">
         <v>2021</v>
       </c>
     </row>
@@ -10855,9 +11979,12 @@
         </is>
       </c>
       <c r="E375">
+        <v>2022</v>
+      </c>
+      <c r="F375">
         <v>7219712818</v>
       </c>
-      <c r="F375">
+      <c r="G375">
         <v>2022</v>
       </c>
     </row>
@@ -10883,9 +12010,12 @@
         </is>
       </c>
       <c r="E376">
+        <v>2021</v>
+      </c>
+      <c r="F376">
         <v>37848891219</v>
       </c>
-      <c r="F376">
+      <c r="G376">
         <v>2021</v>
       </c>
     </row>
@@ -10911,9 +12041,12 @@
         </is>
       </c>
       <c r="E377">
+        <v>2022</v>
+      </c>
+      <c r="F377">
         <v>46851063751</v>
       </c>
-      <c r="F377">
+      <c r="G377">
         <v>2022</v>
       </c>
     </row>
@@ -10939,9 +12072,12 @@
         </is>
       </c>
       <c r="E378">
+        <v>2021</v>
+      </c>
+      <c r="F378">
         <v>46288059</v>
       </c>
-      <c r="F378">
+      <c r="G378">
         <v>2021</v>
       </c>
     </row>
@@ -10967,9 +12103,12 @@
         </is>
       </c>
       <c r="E379">
+        <v>2022</v>
+      </c>
+      <c r="F379">
         <v>47546631</v>
       </c>
-      <c r="F379">
+      <c r="G379">
         <v>2022</v>
       </c>
     </row>
@@ -10995,9 +12134,12 @@
         </is>
       </c>
       <c r="E380">
+        <v>2021</v>
+      </c>
+      <c r="F380">
         <v>3686245702</v>
       </c>
-      <c r="F380">
+      <c r="G380">
         <v>2021</v>
       </c>
     </row>
@@ -11023,9 +12165,12 @@
         </is>
       </c>
       <c r="E381">
+        <v>2022</v>
+      </c>
+      <c r="F381">
         <v>4661918529</v>
       </c>
-      <c r="F381">
+      <c r="G381">
         <v>2022</v>
       </c>
     </row>
@@ -11051,9 +12196,12 @@
         </is>
       </c>
       <c r="E382">
+        <v>2021</v>
+      </c>
+      <c r="F382">
         <v>226563752375</v>
       </c>
-      <c r="F382">
+      <c r="G382">
         <v>2021</v>
       </c>
     </row>
@@ -11079,9 +12227,12 @@
         </is>
       </c>
       <c r="E383">
+        <v>2022</v>
+      </c>
+      <c r="F383">
         <v>241457659239</v>
       </c>
-      <c r="F383">
+      <c r="G383">
         <v>2022</v>
       </c>
     </row>
@@ -11107,9 +12258,12 @@
         </is>
       </c>
       <c r="E384">
+        <v>2021</v>
+      </c>
+      <c r="F384">
         <v>1473771201</v>
       </c>
-      <c r="F384">
+      <c r="G384">
         <v>2021</v>
       </c>
     </row>
@@ -11135,9 +12289,12 @@
         </is>
       </c>
       <c r="E385">
+        <v>2022</v>
+      </c>
+      <c r="F385">
         <v>1577107897</v>
       </c>
-      <c r="F385">
+      <c r="G385">
         <v>2022</v>
       </c>
     </row>
@@ -11163,9 +12320,12 @@
         </is>
       </c>
       <c r="E386">
+        <v>2021</v>
+      </c>
+      <c r="F386">
         <v>8899187039</v>
       </c>
-      <c r="F386">
+      <c r="G386">
         <v>2021</v>
       </c>
     </row>
@@ -11191,9 +12351,12 @@
         </is>
       </c>
       <c r="E387">
+        <v>2022</v>
+      </c>
+      <c r="F387">
         <v>10177581712</v>
       </c>
-      <c r="F387">
+      <c r="G387">
         <v>2022</v>
       </c>
     </row>
@@ -11219,9 +12382,12 @@
         </is>
       </c>
       <c r="E388">
+        <v>2021</v>
+      </c>
+      <c r="F388">
         <v>31468320</v>
       </c>
-      <c r="F388">
+      <c r="G388">
         <v>2021</v>
       </c>
     </row>
@@ -11247,9 +12413,12 @@
         </is>
       </c>
       <c r="E389">
+        <v>2022</v>
+      </c>
+      <c r="F389">
         <v>26592982</v>
       </c>
-      <c r="F389">
+      <c r="G389">
         <v>2022</v>
       </c>
     </row>
@@ -11275,9 +12444,12 @@
         </is>
       </c>
       <c r="E390">
+        <v>2021</v>
+      </c>
+      <c r="F390">
         <v>42962642</v>
       </c>
-      <c r="F390">
+      <c r="G390">
         <v>2021</v>
       </c>
     </row>
@@ -11303,9 +12475,12 @@
         </is>
       </c>
       <c r="E391">
+        <v>2022</v>
+      </c>
+      <c r="F391">
         <v>25901066</v>
       </c>
-      <c r="F391">
+      <c r="G391">
         <v>2022</v>
       </c>
     </row>
@@ -11331,9 +12506,12 @@
         </is>
       </c>
       <c r="E392">
+        <v>2021</v>
+      </c>
+      <c r="F392">
         <v>671992604167</v>
       </c>
-      <c r="F392">
+      <c r="G392">
         <v>2021</v>
       </c>
     </row>
@@ -11359,9 +12537,12 @@
         </is>
       </c>
       <c r="E393">
+        <v>2022</v>
+      </c>
+      <c r="F393">
         <v>611365563695</v>
       </c>
-      <c r="F393">
+      <c r="G393">
         <v>2022</v>
       </c>
     </row>
@@ -11387,9 +12568,12 @@
         </is>
       </c>
       <c r="E394">
+        <v>2021</v>
+      </c>
+      <c r="F394">
         <v>40696756050</v>
       </c>
-      <c r="F394">
+      <c r="G394">
         <v>2021</v>
       </c>
     </row>
@@ -11415,9 +12599,12 @@
         </is>
       </c>
       <c r="E395">
+        <v>2022</v>
+      </c>
+      <c r="F395">
         <v>48361226990</v>
       </c>
-      <c r="F395">
+      <c r="G395">
         <v>2022</v>
       </c>
     </row>
@@ -11443,9 +12630,12 @@
         </is>
       </c>
       <c r="E396">
+        <v>2021</v>
+      </c>
+      <c r="F396">
         <v>7114200093</v>
       </c>
-      <c r="F396">
+      <c r="G396">
         <v>2021</v>
       </c>
     </row>
@@ -11471,9 +12661,12 @@
         </is>
       </c>
       <c r="E397">
+        <v>2022</v>
+      </c>
+      <c r="F397">
         <v>8463614334</v>
       </c>
-      <c r="F397">
+      <c r="G397">
         <v>2022</v>
       </c>
     </row>
@@ -11499,9 +12692,12 @@
         </is>
       </c>
       <c r="E398">
+        <v>2021</v>
+      </c>
+      <c r="F398">
         <v>18887541</v>
       </c>
-      <c r="F398">
+      <c r="G398">
         <v>2021</v>
       </c>
     </row>
@@ -11527,9 +12723,12 @@
         </is>
       </c>
       <c r="E399">
+        <v>2022</v>
+      </c>
+      <c r="F399">
         <v>16832931</v>
       </c>
-      <c r="F399">
+      <c r="G399">
         <v>2022</v>
       </c>
     </row>
@@ -11555,9 +12754,12 @@
         </is>
       </c>
       <c r="E400">
+        <v>2021</v>
+      </c>
+      <c r="F400">
         <v>36817249</v>
       </c>
-      <c r="F400">
+      <c r="G400">
         <v>2021</v>
       </c>
     </row>
@@ -11583,9 +12785,12 @@
         </is>
       </c>
       <c r="E401">
+        <v>2022</v>
+      </c>
+      <c r="F401">
         <v>185207141</v>
       </c>
-      <c r="F401">
+      <c r="G401">
         <v>2022</v>
       </c>
     </row>
@@ -11606,9 +12811,12 @@
         </is>
       </c>
       <c r="E402">
+        <v>2021</v>
+      </c>
+      <c r="F402">
         <v>6429529563</v>
       </c>
-      <c r="F402">
+      <c r="G402">
         <v>2021</v>
       </c>
     </row>
@@ -11629,9 +12837,12 @@
         </is>
       </c>
       <c r="E403">
+        <v>2022</v>
+      </c>
+      <c r="F403">
         <v>6342538396</v>
       </c>
-      <c r="F403">
+      <c r="G403">
         <v>2022</v>
       </c>
     </row>
@@ -11657,9 +12868,12 @@
         </is>
       </c>
       <c r="E404">
+        <v>2021</v>
+      </c>
+      <c r="F404">
         <v>1657689626</v>
       </c>
-      <c r="F404">
+      <c r="G404">
         <v>2021</v>
       </c>
     </row>
@@ -11685,9 +12899,12 @@
         </is>
       </c>
       <c r="E405">
+        <v>2022</v>
+      </c>
+      <c r="F405">
         <v>2085033975</v>
       </c>
-      <c r="F405">
+      <c r="G405">
         <v>2022</v>
       </c>
     </row>
@@ -11713,9 +12930,12 @@
         </is>
       </c>
       <c r="E406">
+        <v>2021</v>
+      </c>
+      <c r="F406">
         <v>220977580</v>
       </c>
-      <c r="F406">
+      <c r="G406">
         <v>2021</v>
       </c>
     </row>
@@ -11741,9 +12961,12 @@
         </is>
       </c>
       <c r="E407">
+        <v>2022</v>
+      </c>
+      <c r="F407">
         <v>236877267</v>
       </c>
-      <c r="F407">
+      <c r="G407">
         <v>2022</v>
       </c>
     </row>
@@ -11769,9 +12992,12 @@
         </is>
       </c>
       <c r="E408">
+        <v>2021</v>
+      </c>
+      <c r="F408">
         <v>154429266</v>
       </c>
-      <c r="F408">
+      <c r="G408">
         <v>2021</v>
       </c>
     </row>
@@ -11797,9 +13023,12 @@
         </is>
       </c>
       <c r="E409">
+        <v>2022</v>
+      </c>
+      <c r="F409">
         <v>414293536</v>
       </c>
-      <c r="F409">
+      <c r="G409">
         <v>2022</v>
       </c>
     </row>
@@ -11825,9 +13054,12 @@
         </is>
       </c>
       <c r="E410">
+        <v>2021</v>
+      </c>
+      <c r="F410">
         <v>668865211</v>
       </c>
-      <c r="F410">
+      <c r="G410">
         <v>2021</v>
       </c>
     </row>
@@ -11853,9 +13085,12 @@
         </is>
       </c>
       <c r="E411">
+        <v>2022</v>
+      </c>
+      <c r="F411">
         <v>631106440</v>
       </c>
-      <c r="F411">
+      <c r="G411">
         <v>2022</v>
       </c>
     </row>
@@ -11881,9 +13116,12 @@
         </is>
       </c>
       <c r="E412">
+        <v>2021</v>
+      </c>
+      <c r="F412">
         <v>232102189</v>
       </c>
-      <c r="F412">
+      <c r="G412">
         <v>2021</v>
       </c>
     </row>
@@ -11909,9 +13147,12 @@
         </is>
       </c>
       <c r="E413">
+        <v>2022</v>
+      </c>
+      <c r="F413">
         <v>226642043</v>
       </c>
-      <c r="F413">
+      <c r="G413">
         <v>2022</v>
       </c>
     </row>
@@ -11937,9 +13178,12 @@
         </is>
       </c>
       <c r="E414">
+        <v>2021</v>
+      </c>
+      <c r="F414">
         <v>164153485</v>
       </c>
-      <c r="F414">
+      <c r="G414">
         <v>2021</v>
       </c>
     </row>
@@ -11965,9 +13209,12 @@
         </is>
       </c>
       <c r="E415">
+        <v>2022</v>
+      </c>
+      <c r="F415">
         <v>196033175</v>
       </c>
-      <c r="F415">
+      <c r="G415">
         <v>2022</v>
       </c>
     </row>
@@ -11993,9 +13240,12 @@
         </is>
       </c>
       <c r="E416">
+        <v>2021</v>
+      </c>
+      <c r="F416">
         <v>201004649</v>
       </c>
-      <c r="F416">
+      <c r="G416">
         <v>2021</v>
       </c>
     </row>
@@ -12021,9 +13271,12 @@
         </is>
       </c>
       <c r="E417">
+        <v>2022</v>
+      </c>
+      <c r="F417">
         <v>197131168</v>
       </c>
-      <c r="F417">
+      <c r="G417">
         <v>2022</v>
       </c>
     </row>
@@ -12049,9 +13302,12 @@
         </is>
       </c>
       <c r="E418">
+        <v>2021</v>
+      </c>
+      <c r="F418">
         <v>35294202</v>
       </c>
-      <c r="F418">
+      <c r="G418">
         <v>2021</v>
       </c>
     </row>
@@ -12077,9 +13333,12 @@
         </is>
       </c>
       <c r="E419">
+        <v>2022</v>
+      </c>
+      <c r="F419">
         <v>36597436</v>
       </c>
-      <c r="F419">
+      <c r="G419">
         <v>2022</v>
       </c>
     </row>
@@ -12105,9 +13364,12 @@
         </is>
       </c>
       <c r="E420">
+        <v>2021</v>
+      </c>
+      <c r="F420">
         <v>811364585</v>
       </c>
-      <c r="F420">
+      <c r="G420">
         <v>2021</v>
       </c>
     </row>
@@ -12133,9 +13395,12 @@
         </is>
       </c>
       <c r="E421">
+        <v>2022</v>
+      </c>
+      <c r="F421">
         <v>521587179</v>
       </c>
-      <c r="F421">
+      <c r="G421">
         <v>2022</v>
       </c>
     </row>
@@ -12161,9 +13426,12 @@
         </is>
       </c>
       <c r="E422">
+        <v>2021</v>
+      </c>
+      <c r="F422">
         <v>266037717</v>
       </c>
-      <c r="F422">
+      <c r="G422">
         <v>2021</v>
       </c>
     </row>
@@ -12189,9 +13457,12 @@
         </is>
       </c>
       <c r="E423">
+        <v>2022</v>
+      </c>
+      <c r="F423">
         <v>131533274</v>
       </c>
-      <c r="F423">
+      <c r="G423">
         <v>2022</v>
       </c>
     </row>
@@ -12217,9 +13488,12 @@
         </is>
       </c>
       <c r="E424">
+        <v>2021</v>
+      </c>
+      <c r="F424">
         <v>1364317559</v>
       </c>
-      <c r="F424">
+      <c r="G424">
         <v>2021</v>
       </c>
     </row>
@@ -12245,9 +13519,12 @@
         </is>
       </c>
       <c r="E425">
+        <v>2022</v>
+      </c>
+      <c r="F425">
         <v>1232706446</v>
       </c>
-      <c r="F425">
+      <c r="G425">
         <v>2022</v>
       </c>
     </row>
@@ -12273,9 +13550,12 @@
         </is>
       </c>
       <c r="E426">
+        <v>2021</v>
+      </c>
+      <c r="F426">
         <v>1070253305</v>
       </c>
-      <c r="F426">
+      <c r="G426">
         <v>2021</v>
       </c>
     </row>
@@ -12301,9 +13581,12 @@
         </is>
       </c>
       <c r="E427">
+        <v>2022</v>
+      </c>
+      <c r="F427">
         <v>1841833323</v>
       </c>
-      <c r="F427">
+      <c r="G427">
         <v>2022</v>
       </c>
     </row>
@@ -12329,9 +13612,12 @@
         </is>
       </c>
       <c r="E428">
+        <v>2021</v>
+      </c>
+      <c r="F428">
         <v>1357640076</v>
       </c>
-      <c r="F428">
+      <c r="G428">
         <v>2021</v>
       </c>
     </row>
@@ -12357,9 +13643,12 @@
         </is>
       </c>
       <c r="E429">
+        <v>2022</v>
+      </c>
+      <c r="F429">
         <v>1323455250</v>
       </c>
-      <c r="F429">
+      <c r="G429">
         <v>2022</v>
       </c>
     </row>
@@ -12385,9 +13674,12 @@
         </is>
       </c>
       <c r="E430">
+        <v>2021</v>
+      </c>
+      <c r="F430">
         <v>71567146</v>
       </c>
-      <c r="F430">
+      <c r="G430">
         <v>2021</v>
       </c>
     </row>
@@ -12413,9 +13705,12 @@
         </is>
       </c>
       <c r="E431">
+        <v>2022</v>
+      </c>
+      <c r="F431">
         <v>26678052</v>
       </c>
-      <c r="F431">
+      <c r="G431">
         <v>2022</v>
       </c>
     </row>
@@ -12441,9 +13736,12 @@
         </is>
       </c>
       <c r="E432">
+        <v>2021</v>
+      </c>
+      <c r="F432">
         <v>26868337</v>
       </c>
-      <c r="F432">
+      <c r="G432">
         <v>2021</v>
       </c>
     </row>
@@ -12469,9 +13767,12 @@
         </is>
       </c>
       <c r="E433">
+        <v>2022</v>
+      </c>
+      <c r="F433">
         <v>23466011</v>
       </c>
-      <c r="F433">
+      <c r="G433">
         <v>2022</v>
       </c>
     </row>
@@ -12497,9 +13798,12 @@
         </is>
       </c>
       <c r="E434">
+        <v>2021</v>
+      </c>
+      <c r="F434">
         <v>215358911</v>
       </c>
-      <c r="F434">
+      <c r="G434">
         <v>2021</v>
       </c>
     </row>
@@ -12525,9 +13829,12 @@
         </is>
       </c>
       <c r="E435">
+        <v>2022</v>
+      </c>
+      <c r="F435">
         <v>206336810</v>
       </c>
-      <c r="F435">
+      <c r="G435">
         <v>2022</v>
       </c>
     </row>
@@ -12553,9 +13860,12 @@
         </is>
       </c>
       <c r="E436">
+        <v>2021</v>
+      </c>
+      <c r="F436">
         <v>488822568</v>
       </c>
-      <c r="F436">
+      <c r="G436">
         <v>2021</v>
       </c>
     </row>
@@ -12581,9 +13891,12 @@
         </is>
       </c>
       <c r="E437">
+        <v>2022</v>
+      </c>
+      <c r="F437">
         <v>578176840</v>
       </c>
-      <c r="F437">
+      <c r="G437">
         <v>2022</v>
       </c>
     </row>
@@ -12609,9 +13922,12 @@
         </is>
       </c>
       <c r="E438">
+        <v>2021</v>
+      </c>
+      <c r="F438">
         <v>885544653</v>
       </c>
-      <c r="F438">
+      <c r="G438">
         <v>2021</v>
       </c>
     </row>
@@ -12637,9 +13953,12 @@
         </is>
       </c>
       <c r="E439">
+        <v>2022</v>
+      </c>
+      <c r="F439">
         <v>967840058</v>
       </c>
-      <c r="F439">
+      <c r="G439">
         <v>2022</v>
       </c>
     </row>
@@ -12665,9 +13984,12 @@
         </is>
       </c>
       <c r="E440">
+        <v>2021</v>
+      </c>
+      <c r="F440">
         <v>8515752</v>
       </c>
-      <c r="F440">
+      <c r="G440">
         <v>2021</v>
       </c>
     </row>
@@ -12693,9 +14015,12 @@
         </is>
       </c>
       <c r="E441">
+        <v>2022</v>
+      </c>
+      <c r="F441">
         <v>4043388</v>
       </c>
-      <c r="F441">
+      <c r="G441">
         <v>2022</v>
       </c>
     </row>
@@ -12721,9 +14046,12 @@
         </is>
       </c>
       <c r="E442">
+        <v>2021</v>
+      </c>
+      <c r="F442">
         <v>1812635</v>
       </c>
-      <c r="F442">
+      <c r="G442">
         <v>2021</v>
       </c>
     </row>
@@ -12749,9 +14077,12 @@
         </is>
       </c>
       <c r="E443">
+        <v>2022</v>
+      </c>
+      <c r="F443">
         <v>4447412</v>
       </c>
-      <c r="F443">
+      <c r="G443">
         <v>2022</v>
       </c>
     </row>
@@ -12777,9 +14108,12 @@
         </is>
       </c>
       <c r="E444">
+        <v>2021</v>
+      </c>
+      <c r="F444">
         <v>87463380</v>
       </c>
-      <c r="F444">
+      <c r="G444">
         <v>2021</v>
       </c>
     </row>
@@ -12805,9 +14139,12 @@
         </is>
       </c>
       <c r="E445">
+        <v>2022</v>
+      </c>
+      <c r="F445">
         <v>100967869</v>
       </c>
-      <c r="F445">
+      <c r="G445">
         <v>2022</v>
       </c>
     </row>
@@ -12833,9 +14170,12 @@
         </is>
       </c>
       <c r="E446">
+        <v>2021</v>
+      </c>
+      <c r="F446">
         <v>2063257732</v>
       </c>
-      <c r="F446">
+      <c r="G446">
         <v>2021</v>
       </c>
     </row>
@@ -12861,9 +14201,12 @@
         </is>
       </c>
       <c r="E447">
+        <v>2022</v>
+      </c>
+      <c r="F447">
         <v>2006222264</v>
       </c>
-      <c r="F447">
+      <c r="G447">
         <v>2022</v>
       </c>
     </row>
@@ -12889,9 +14232,12 @@
         </is>
       </c>
       <c r="E448">
+        <v>2021</v>
+      </c>
+      <c r="F448">
         <v>1290594346</v>
       </c>
-      <c r="F448">
+      <c r="G448">
         <v>2021</v>
       </c>
     </row>
@@ -12917,9 +14263,12 @@
         </is>
       </c>
       <c r="E449">
+        <v>2022</v>
+      </c>
+      <c r="F449">
         <v>321846662</v>
       </c>
-      <c r="F449">
+      <c r="G449">
         <v>2022</v>
       </c>
     </row>
@@ -12945,9 +14294,12 @@
         </is>
       </c>
       <c r="E450">
+        <v>2021</v>
+      </c>
+      <c r="F450">
         <v>313831177</v>
       </c>
-      <c r="F450">
+      <c r="G450">
         <v>2021</v>
       </c>
     </row>
@@ -12973,9 +14325,12 @@
         </is>
       </c>
       <c r="E451">
+        <v>2022</v>
+      </c>
+      <c r="F451">
         <v>366168757</v>
       </c>
-      <c r="F451">
+      <c r="G451">
         <v>2022</v>
       </c>
     </row>
@@ -13001,9 +14356,12 @@
         </is>
       </c>
       <c r="E452">
+        <v>2021</v>
+      </c>
+      <c r="F452">
         <v>5472228346131</v>
       </c>
-      <c r="F452">
+      <c r="G452">
         <v>2021</v>
       </c>
     </row>
@@ -13029,9 +14387,12 @@
         </is>
       </c>
       <c r="E453">
+        <v>2022</v>
+      </c>
+      <c r="F453">
         <v>5897633137848</v>
       </c>
-      <c r="F453">
+      <c r="G453">
         <v>2022</v>
       </c>
     </row>
@@ -13057,9 +14418,12 @@
         </is>
       </c>
       <c r="E454">
+        <v>2021</v>
+      </c>
+      <c r="F454">
         <v>1176788552168</v>
       </c>
-      <c r="F454">
+      <c r="G454">
         <v>2021</v>
       </c>
     </row>
@@ -13085,9 +14449,12 @@
         </is>
       </c>
       <c r="E455">
+        <v>2022</v>
+      </c>
+      <c r="F455">
         <v>1647760228479</v>
       </c>
-      <c r="F455">
+      <c r="G455">
         <v>2022</v>
       </c>
     </row>

--- a/data/imf_total_exports_2021A.xlsx
+++ b/data/imf_total_exports_2021A.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +360,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -415,8 +422,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E2">
-        <v>2021</v>
+      <c r="E2" s="2">
+        <v>44197</v>
       </c>
       <c r="F2">
         <v>923586872758</v>
@@ -446,8 +453,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E3">
-        <v>2022</v>
+      <c r="E3" s="2">
+        <v>44562</v>
       </c>
       <c r="F3">
         <v>1301216908197</v>
@@ -477,8 +484,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E4">
-        <v>2021</v>
+      <c r="E4" s="2">
+        <v>44197</v>
       </c>
       <c r="F4">
         <v>81239605833</v>
@@ -508,8 +515,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E5">
-        <v>2022</v>
+      <c r="E5" s="2">
+        <v>44562</v>
       </c>
       <c r="F5">
         <v>124427845251</v>
@@ -539,8 +546,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E6">
-        <v>2021</v>
+      <c r="E6" s="2">
+        <v>44197</v>
       </c>
       <c r="F6">
         <v>87388114977</v>
@@ -570,8 +577,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E7">
-        <v>2022</v>
+      <c r="E7" s="2">
+        <v>44562</v>
       </c>
       <c r="F7">
         <v>96706966763</v>
@@ -601,8 +608,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E8">
-        <v>2021</v>
+      <c r="E8" s="2">
+        <v>44197</v>
       </c>
       <c r="F8">
         <v>1411875549</v>
@@ -632,8 +639,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E9">
-        <v>2022</v>
+      <c r="E9" s="2">
+        <v>44562</v>
       </c>
       <c r="F9">
         <v>1566350022</v>
@@ -663,8 +670,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E10">
-        <v>2021</v>
+      <c r="E10" s="2">
+        <v>44197</v>
       </c>
       <c r="F10">
         <v>585020854161</v>
@@ -694,8 +701,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E11">
-        <v>2022</v>
+      <c r="E11" s="2">
+        <v>44562</v>
       </c>
       <c r="F11">
         <v>618152685111</v>
@@ -725,8 +732,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E12">
-        <v>2021</v>
+      <c r="E12" s="2">
+        <v>44197</v>
       </c>
       <c r="F12">
         <v>189524794453</v>
@@ -756,8 +763,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E13">
-        <v>2022</v>
+      <c r="E13" s="2">
+        <v>44562</v>
       </c>
       <c r="F13">
         <v>197825954907</v>
@@ -787,8 +794,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E14">
-        <v>2021</v>
+      <c r="E14" s="2">
+        <v>44197</v>
       </c>
       <c r="F14">
         <v>14747546463</v>
@@ -818,8 +825,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E15">
-        <v>2022</v>
+      <c r="E15" s="2">
+        <v>44562</v>
       </c>
       <c r="F15">
         <v>17947848105</v>
@@ -849,8 +856,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E16">
-        <v>2021</v>
+      <c r="E16" s="2">
+        <v>44197</v>
       </c>
       <c r="F16">
         <v>5821624149</v>
@@ -880,8 +887,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E17">
-        <v>2022</v>
+      <c r="E17" s="2">
+        <v>44562</v>
       </c>
       <c r="F17">
         <v>5745176767</v>
@@ -911,8 +918,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E18">
-        <v>2021</v>
+      <c r="E18" s="2">
+        <v>44197</v>
       </c>
       <c r="F18">
         <v>505755692</v>
@@ -942,8 +949,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E19">
-        <v>2022</v>
+      <c r="E19" s="2">
+        <v>44562</v>
       </c>
       <c r="F19">
         <v>742312921</v>
@@ -973,8 +980,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E20">
-        <v>2021</v>
+      <c r="E20" s="2">
+        <v>44197</v>
       </c>
       <c r="F20">
         <v>5194857137</v>
@@ -1004,8 +1011,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E21">
-        <v>2022</v>
+      <c r="E21" s="2">
+        <v>44562</v>
       </c>
       <c r="F21">
         <v>4904300758</v>
@@ -1035,8 +1042,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E22">
-        <v>2021</v>
+      <c r="E22" s="2">
+        <v>44197</v>
       </c>
       <c r="F22">
         <v>1023799460</v>
@@ -1066,8 +1073,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E23">
-        <v>2022</v>
+      <c r="E23" s="2">
+        <v>44562</v>
       </c>
       <c r="F23">
         <v>1337315407</v>
@@ -1097,8 +1104,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E24">
-        <v>2021</v>
+      <c r="E24" s="2">
+        <v>44197</v>
       </c>
       <c r="F24">
         <v>5092716381076</v>
@@ -1128,8 +1135,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E25">
-        <v>2022</v>
+      <c r="E25" s="2">
+        <v>44562</v>
       </c>
       <c r="F25">
         <v>5585269157910</v>
@@ -1159,8 +1166,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E26">
-        <v>2021</v>
+      <c r="E26" s="2">
+        <v>44197</v>
       </c>
       <c r="F26">
         <v>1508338165342</v>
@@ -1190,8 +1197,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E27">
-        <v>2022</v>
+      <c r="E27" s="2">
+        <v>44562</v>
       </c>
       <c r="F27">
         <v>1650202719731</v>
@@ -1221,8 +1228,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E28">
-        <v>2021</v>
+      <c r="E28" s="2">
+        <v>44197</v>
       </c>
       <c r="F28">
         <v>15467737933</v>
@@ -1252,8 +1259,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E29">
-        <v>2022</v>
+      <c r="E29" s="2">
+        <v>44562</v>
       </c>
       <c r="F29">
         <v>16668575792</v>
@@ -1283,8 +1290,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E30">
-        <v>2021</v>
+      <c r="E30" s="2">
+        <v>44197</v>
       </c>
       <c r="F30">
         <v>1251956007</v>
@@ -1314,8 +1321,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E31">
-        <v>2022</v>
+      <c r="E31" s="2">
+        <v>44562</v>
       </c>
       <c r="F31">
         <v>1370944073</v>
@@ -1345,8 +1352,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E32">
-        <v>2021</v>
+      <c r="E32" s="2">
+        <v>44197</v>
       </c>
       <c r="F32">
         <v>5121376250</v>
@@ -1376,8 +1383,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E33">
-        <v>2022</v>
+      <c r="E33" s="2">
+        <v>44562</v>
       </c>
       <c r="F33">
         <v>7347487583</v>
@@ -1407,8 +1414,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E34">
-        <v>2021</v>
+      <c r="E34" s="2">
+        <v>44197</v>
       </c>
       <c r="F34">
         <v>35116222451</v>
@@ -1438,8 +1445,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E35">
-        <v>2022</v>
+      <c r="E35" s="2">
+        <v>44562</v>
       </c>
       <c r="F35">
         <v>52707846563</v>
@@ -1469,8 +1476,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E36">
-        <v>2021</v>
+      <c r="E36" s="2">
+        <v>44197</v>
       </c>
       <c r="F36">
         <v>7898732029</v>
@@ -1500,8 +1507,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E37">
-        <v>2022</v>
+      <c r="E37" s="2">
+        <v>44562</v>
       </c>
       <c r="F37">
         <v>9509458036</v>
@@ -1531,8 +1538,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E38">
-        <v>2021</v>
+      <c r="E38" s="2">
+        <v>44197</v>
       </c>
       <c r="F38">
         <v>93878024713</v>
@@ -1562,8 +1569,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E39">
-        <v>2022</v>
+      <c r="E39" s="2">
+        <v>44562</v>
       </c>
       <c r="F39">
         <v>97489095973</v>
@@ -1593,8 +1600,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E40">
-        <v>2021</v>
+      <c r="E40" s="2">
+        <v>44197</v>
       </c>
       <c r="F40">
         <v>151281170</v>
@@ -1624,8 +1631,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E41">
-        <v>2022</v>
+      <c r="E41" s="2">
+        <v>44562</v>
       </c>
       <c r="F41">
         <v>159007612</v>
@@ -1655,8 +1662,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E42">
-        <v>2021</v>
+      <c r="E42" s="2">
+        <v>44197</v>
       </c>
       <c r="F42">
         <v>22208004300</v>
@@ -1686,8 +1693,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E43">
-        <v>2022</v>
+      <c r="E43" s="2">
+        <v>44562</v>
       </c>
       <c r="F43">
         <v>38146434200</v>
@@ -1717,8 +1724,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E44">
-        <v>2021</v>
+      <c r="E44" s="2">
+        <v>44197</v>
       </c>
       <c r="F44">
         <v>6054132505</v>
@@ -1748,8 +1755,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E45">
-        <v>2022</v>
+      <c r="E45" s="2">
+        <v>44562</v>
       </c>
       <c r="F45">
         <v>7402719309</v>
@@ -1779,8 +1786,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E46">
-        <v>2021</v>
+      <c r="E46" s="2">
+        <v>44197</v>
       </c>
       <c r="F46">
         <v>39986971100</v>
@@ -1810,8 +1817,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E47">
-        <v>2022</v>
+      <c r="E47" s="2">
+        <v>44562</v>
       </c>
       <c r="F47">
         <v>34344776316</v>
@@ -1841,8 +1848,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E48">
-        <v>2021</v>
+      <c r="E48" s="2">
+        <v>44197</v>
       </c>
       <c r="F48">
         <v>5153983808</v>
@@ -1872,8 +1879,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E49">
-        <v>2022</v>
+      <c r="E49" s="2">
+        <v>44562</v>
       </c>
       <c r="F49">
         <v>7380837100</v>
@@ -1903,8 +1910,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E50">
-        <v>2021</v>
+      <c r="E50" s="2">
+        <v>44197</v>
       </c>
       <c r="F50">
         <v>3368216972663</v>
@@ -1934,8 +1941,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E51">
-        <v>2022</v>
+      <c r="E51" s="2">
+        <v>44562</v>
       </c>
       <c r="F51">
         <v>3604481490750</v>
@@ -1965,8 +1972,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E52">
-        <v>2021</v>
+      <c r="E52" s="2">
+        <v>44197</v>
       </c>
       <c r="F52">
         <v>3142979849</v>
@@ -1996,8 +2003,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E53">
-        <v>2022</v>
+      <c r="E53" s="2">
+        <v>44562</v>
       </c>
       <c r="F53">
         <v>4246457282</v>
@@ -2027,8 +2034,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E54">
-        <v>2021</v>
+      <c r="E54" s="2">
+        <v>44197</v>
       </c>
       <c r="F54">
         <v>1704092104</v>
@@ -2058,8 +2065,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E55">
-        <v>2022</v>
+      <c r="E55" s="2">
+        <v>44562</v>
       </c>
       <c r="F55">
         <v>1341554483</v>
@@ -2089,8 +2096,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E56">
-        <v>2021</v>
+      <c r="E56" s="2">
+        <v>44197</v>
       </c>
       <c r="F56">
         <v>7206283135</v>
@@ -2120,8 +2127,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E57">
-        <v>2022</v>
+      <c r="E57" s="2">
+        <v>44562</v>
       </c>
       <c r="F57">
         <v>9593482632</v>
@@ -2151,8 +2158,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E58">
-        <v>2021</v>
+      <c r="E58" s="2">
+        <v>44197</v>
       </c>
       <c r="F58">
         <v>55738726174</v>
@@ -2182,8 +2189,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E59">
-        <v>2022</v>
+      <c r="E59" s="2">
+        <v>44562</v>
       </c>
       <c r="F59">
         <v>63262479940</v>
@@ -2213,8 +2220,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E60">
-        <v>2021</v>
+      <c r="E60" s="2">
+        <v>44197</v>
       </c>
       <c r="F60">
         <v>3681100753</v>
@@ -2244,8 +2251,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E61">
-        <v>2022</v>
+      <c r="E61" s="2">
+        <v>44562</v>
       </c>
       <c r="F61">
         <v>4310142456</v>
@@ -2275,8 +2282,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E62">
-        <v>2021</v>
+      <c r="E62" s="2">
+        <v>44197</v>
       </c>
       <c r="F62">
         <v>8188220682</v>
@@ -2306,8 +2313,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E63">
-        <v>2022</v>
+      <c r="E63" s="2">
+        <v>44562</v>
       </c>
       <c r="F63">
         <v>8729356237</v>
@@ -2337,8 +2344,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E64">
-        <v>2021</v>
+      <c r="E64" s="2">
+        <v>44197</v>
       </c>
       <c r="F64">
         <v>3294806657</v>
@@ -2368,8 +2375,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E65">
-        <v>2022</v>
+      <c r="E65" s="2">
+        <v>44562</v>
       </c>
       <c r="F65">
         <v>3337647098</v>
@@ -2399,8 +2406,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E66">
-        <v>2021</v>
+      <c r="E66" s="2">
+        <v>44197</v>
       </c>
       <c r="F66">
         <v>8614079101</v>
@@ -2430,8 +2437,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E67">
-        <v>2022</v>
+      <c r="E67" s="2">
+        <v>44562</v>
       </c>
       <c r="F67">
         <v>9678192326</v>
@@ -2461,8 +2468,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E68">
-        <v>2021</v>
+      <c r="E68" s="2">
+        <v>44197</v>
       </c>
       <c r="F68">
         <v>28248919</v>
@@ -2492,8 +2499,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E69">
-        <v>2022</v>
+      <c r="E69" s="2">
+        <v>44562</v>
       </c>
       <c r="F69">
         <v>42316752</v>
@@ -2523,8 +2530,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E70">
-        <v>2021</v>
+      <c r="E70" s="2">
+        <v>44197</v>
       </c>
       <c r="F70">
         <v>11079788843</v>
@@ -2554,8 +2561,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E71">
-        <v>2022</v>
+      <c r="E71" s="2">
+        <v>44562</v>
       </c>
       <c r="F71">
         <v>13056701268</v>
@@ -2585,8 +2592,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E72">
-        <v>2021</v>
+      <c r="E72" s="2">
+        <v>44197</v>
       </c>
       <c r="F72">
         <v>112839351</v>
@@ -2616,8 +2623,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E73">
-        <v>2022</v>
+      <c r="E73" s="2">
+        <v>44562</v>
       </c>
       <c r="F73">
         <v>106120859</v>
@@ -2647,8 +2654,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E74">
-        <v>2021</v>
+      <c r="E74" s="2">
+        <v>44197</v>
       </c>
       <c r="F74">
         <v>459609361804</v>
@@ -2678,8 +2685,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E75">
-        <v>2022</v>
+      <c r="E75" s="2">
+        <v>44562</v>
       </c>
       <c r="F75">
         <v>529129755812</v>
@@ -2709,8 +2716,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E76">
-        <v>2021</v>
+      <c r="E76" s="2">
+        <v>44197</v>
       </c>
       <c r="F76">
         <v>18460488070</v>
@@ -2740,8 +2747,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E77">
-        <v>2022</v>
+      <c r="E77" s="2">
+        <v>44562</v>
       </c>
       <c r="F77">
         <v>22339410831</v>
@@ -2771,8 +2778,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E78">
-        <v>2021</v>
+      <c r="E78" s="2">
+        <v>44197</v>
       </c>
       <c r="F78">
         <v>720705623</v>
@@ -2802,8 +2809,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E79">
-        <v>2022</v>
+      <c r="E79" s="2">
+        <v>44562</v>
       </c>
       <c r="F79">
         <v>563327899</v>
@@ -2833,8 +2840,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E80">
-        <v>2021</v>
+      <c r="E80" s="2">
+        <v>44197</v>
       </c>
       <c r="F80">
         <v>1023895056</v>
@@ -2864,8 +2871,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E81">
-        <v>2022</v>
+      <c r="E81" s="2">
+        <v>44562</v>
       </c>
       <c r="F81">
         <v>1007248327</v>
@@ -2895,8 +2902,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E82">
-        <v>2021</v>
+      <c r="E82" s="2">
+        <v>44197</v>
       </c>
       <c r="F82">
         <v>4256702877</v>
@@ -2926,8 +2933,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E83">
-        <v>2022</v>
+      <c r="E83" s="2">
+        <v>44562</v>
       </c>
       <c r="F83">
         <v>8123894360</v>
@@ -2957,8 +2964,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E84">
-        <v>2021</v>
+      <c r="E84" s="2">
+        <v>44197</v>
       </c>
       <c r="F84">
         <v>579259001</v>
@@ -2988,8 +2995,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E85">
-        <v>2022</v>
+      <c r="E85" s="2">
+        <v>44562</v>
       </c>
       <c r="F85">
         <v>1957741350</v>
@@ -3019,8 +3026,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E86">
-        <v>2021</v>
+      <c r="E86" s="2">
+        <v>44197</v>
       </c>
       <c r="F86">
         <v>615635199934</v>
@@ -3050,8 +3057,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E87">
-        <v>2022</v>
+      <c r="E87" s="2">
+        <v>44562</v>
       </c>
       <c r="F87">
         <v>657038683591</v>
@@ -3081,8 +3088,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E88">
-        <v>2021</v>
+      <c r="E88" s="2">
+        <v>44197</v>
       </c>
       <c r="F88">
         <v>1562523714</v>
@@ -3112,8 +3119,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E89">
-        <v>2022</v>
+      <c r="E89" s="2">
+        <v>44562</v>
       </c>
       <c r="F89">
         <v>1562504485</v>
@@ -3143,8 +3150,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E90">
-        <v>2021</v>
+      <c r="E90" s="2">
+        <v>44197</v>
       </c>
       <c r="F90">
         <v>21877520555</v>
@@ -3174,8 +3181,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E91">
-        <v>2022</v>
+      <c r="E91" s="2">
+        <v>44562</v>
       </c>
       <c r="F91">
         <v>25305653307</v>
@@ -3205,8 +3212,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E92">
-        <v>2021</v>
+      <c r="E92" s="2">
+        <v>44197</v>
       </c>
       <c r="F92">
         <v>65826467477</v>
@@ -3236,8 +3243,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E93">
-        <v>2022</v>
+      <c r="E93" s="2">
+        <v>44562</v>
       </c>
       <c r="F93">
         <v>44443200594</v>
@@ -3267,8 +3274,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E94">
-        <v>2021</v>
+      <c r="E94" s="2">
+        <v>44197</v>
       </c>
       <c r="F94">
         <v>1060959270547</v>
@@ -3298,8 +3305,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E95">
-        <v>2022</v>
+      <c r="E95" s="2">
+        <v>44562</v>
       </c>
       <c r="F95">
         <v>1484532858620</v>
@@ -3329,8 +3336,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E96">
-        <v>2021</v>
+      <c r="E96" s="2">
+        <v>44197</v>
       </c>
       <c r="F96">
         <v>47217829186</v>
@@ -3360,8 +3367,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E97">
-        <v>2022</v>
+      <c r="E97" s="2">
+        <v>44562</v>
       </c>
       <c r="F97">
         <v>57391609834</v>
@@ -3391,8 +3398,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E98">
-        <v>2021</v>
+      <c r="E98" s="2">
+        <v>44197</v>
       </c>
       <c r="F98">
         <v>3591811125</v>
@@ -3422,8 +3429,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E99">
-        <v>2022</v>
+      <c r="E99" s="2">
+        <v>44562</v>
       </c>
       <c r="F99">
         <v>5319629516</v>
@@ -3453,8 +3460,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E100">
-        <v>2021</v>
+      <c r="E100" s="2">
+        <v>44197</v>
       </c>
       <c r="F100">
         <v>202805954177</v>
@@ -3484,8 +3491,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E101">
-        <v>2022</v>
+      <c r="E101" s="2">
+        <v>44562</v>
       </c>
       <c r="F101">
         <v>211391996842</v>
@@ -3515,8 +3522,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E102">
-        <v>2021</v>
+      <c r="E102" s="2">
+        <v>44197</v>
       </c>
       <c r="F102">
         <v>18095969440</v>
@@ -3546,8 +3553,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E103">
-        <v>2022</v>
+      <c r="E103" s="2">
+        <v>44562</v>
       </c>
       <c r="F103">
         <v>18531443961</v>
@@ -3577,8 +3584,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E104">
-        <v>2021</v>
+      <c r="E104" s="2">
+        <v>44197</v>
       </c>
       <c r="F104">
         <v>7705493530822</v>
@@ -3608,8 +3615,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E105">
-        <v>2022</v>
+      <c r="E105" s="2">
+        <v>44562</v>
       </c>
       <c r="F105">
         <v>8535315364708.001</v>
@@ -3639,8 +3646,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E106">
-        <v>2021</v>
+      <c r="E106" s="2">
+        <v>44197</v>
       </c>
       <c r="F106">
         <v>132703817</v>
@@ -3670,8 +3677,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E107">
-        <v>2022</v>
+      <c r="E107" s="2">
+        <v>44562</v>
       </c>
       <c r="F107">
         <v>90721830</v>
@@ -3701,8 +3708,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E108">
-        <v>2021</v>
+      <c r="E108" s="2">
+        <v>44197</v>
       </c>
       <c r="F108">
         <v>627010707</v>
@@ -3732,8 +3739,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E109">
-        <v>2022</v>
+      <c r="E109" s="2">
+        <v>44562</v>
       </c>
       <c r="F109">
         <v>676409597</v>
@@ -3763,8 +3770,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E110">
-        <v>2021</v>
+      <c r="E110" s="2">
+        <v>44197</v>
       </c>
       <c r="F110">
         <v>225214458038</v>
@@ -3794,8 +3801,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E111">
-        <v>2022</v>
+      <c r="E111" s="2">
+        <v>44562</v>
       </c>
       <c r="F111">
         <v>254201009047</v>
@@ -3825,8 +3832,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E112">
-        <v>2021</v>
+      <c r="E112" s="2">
+        <v>44197</v>
       </c>
       <c r="F112">
         <v>21520018099</v>
@@ -3856,8 +3863,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E113">
-        <v>2022</v>
+      <c r="E113" s="2">
+        <v>44562</v>
       </c>
       <c r="F113">
         <v>22404764569</v>
@@ -3887,8 +3894,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E114">
-        <v>2021</v>
+      <c r="E114" s="2">
+        <v>44197</v>
       </c>
       <c r="F114">
         <v>409778754</v>
@@ -3918,8 +3925,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E115">
-        <v>2022</v>
+      <c r="E115" s="2">
+        <v>44562</v>
       </c>
       <c r="F115">
         <v>490558565</v>
@@ -3949,8 +3956,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E116">
-        <v>2021</v>
+      <c r="E116" s="2">
+        <v>44197</v>
       </c>
       <c r="F116">
         <v>122354020983</v>
@@ -3980,8 +3987,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E117">
-        <v>2022</v>
+      <c r="E117" s="2">
+        <v>44562</v>
       </c>
       <c r="F117">
         <v>123387268726</v>
@@ -4011,8 +4018,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E118">
-        <v>2021</v>
+      <c r="E118" s="2">
+        <v>44197</v>
       </c>
       <c r="F118">
         <v>456881517599</v>
@@ -4042,8 +4049,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E119">
-        <v>2022</v>
+      <c r="E119" s="2">
+        <v>44562</v>
       </c>
       <c r="F119">
         <v>516016210061</v>
@@ -4073,8 +4080,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E120">
-        <v>2021</v>
+      <c r="E120" s="2">
+        <v>44197</v>
       </c>
       <c r="F120">
         <v>74619469587</v>
@@ -4104,8 +4111,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E121">
-        <v>2022</v>
+      <c r="E121" s="2">
+        <v>44562</v>
       </c>
       <c r="F121">
         <v>80951915150</v>
@@ -4135,8 +4142,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E122">
-        <v>2021</v>
+      <c r="E122" s="2">
+        <v>44197</v>
       </c>
       <c r="F122">
         <v>13635511756</v>
@@ -4166,8 +4173,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E123">
-        <v>2022</v>
+      <c r="E123" s="2">
+        <v>44562</v>
       </c>
       <c r="F123">
         <v>15683554945</v>
@@ -4197,8 +4204,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E124">
-        <v>2021</v>
+      <c r="E124" s="2">
+        <v>44197</v>
       </c>
       <c r="F124">
         <v>59817570568</v>
@@ -4228,8 +4235,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E125">
-        <v>2022</v>
+      <c r="E125" s="2">
+        <v>44562</v>
       </c>
       <c r="F125">
         <v>83290272138</v>
@@ -4259,8 +4266,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E126">
-        <v>2021</v>
+      <c r="E126" s="2">
+        <v>44197</v>
       </c>
       <c r="F126">
         <v>4790601254</v>
@@ -4290,8 +4297,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E127">
-        <v>2022</v>
+      <c r="E127" s="2">
+        <v>44562</v>
       </c>
       <c r="F127">
         <v>7569297947</v>
@@ -4321,8 +4328,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E128">
-        <v>2021</v>
+      <c r="E128" s="2">
+        <v>44197</v>
       </c>
       <c r="F128">
         <v>386245450534</v>
@@ -4352,8 +4359,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E129">
-        <v>2022</v>
+      <c r="E129" s="2">
+        <v>44562</v>
       </c>
       <c r="F129">
         <v>466925664809</v>
@@ -4383,8 +4390,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E130">
-        <v>2021</v>
+      <c r="E130" s="2">
+        <v>44197</v>
       </c>
       <c r="F130">
         <v>11949099437</v>
@@ -4414,8 +4421,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E131">
-        <v>2022</v>
+      <c r="E131" s="2">
+        <v>44562</v>
       </c>
       <c r="F131">
         <v>21449715939</v>
@@ -4445,8 +4452,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E132">
-        <v>2021</v>
+      <c r="E132" s="2">
+        <v>44197</v>
       </c>
       <c r="F132">
         <v>281645257207</v>
@@ -4476,8 +4483,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E133">
-        <v>2022</v>
+      <c r="E133" s="2">
+        <v>44562</v>
       </c>
       <c r="F133">
         <v>334463079195</v>
@@ -4507,8 +4514,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E134">
-        <v>2021</v>
+      <c r="E134" s="2">
+        <v>44197</v>
       </c>
       <c r="F134">
         <v>203061551</v>
@@ -4538,8 +4545,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E135">
-        <v>2022</v>
+      <c r="E135" s="2">
+        <v>44562</v>
       </c>
       <c r="F135">
         <v>303490066</v>
@@ -4569,8 +4576,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E136">
-        <v>2021</v>
+      <c r="E136" s="2">
+        <v>44197</v>
       </c>
       <c r="F136">
         <v>4998131851</v>
@@ -4600,8 +4607,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E137">
-        <v>2022</v>
+      <c r="E137" s="2">
+        <v>44562</v>
       </c>
       <c r="F137">
         <v>5177232818</v>
@@ -4631,8 +4638,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E138">
-        <v>2021</v>
+      <c r="E138" s="2">
+        <v>44197</v>
       </c>
       <c r="F138">
         <v>41157188704</v>
@@ -4662,8 +4669,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E139">
-        <v>2022</v>
+      <c r="E139" s="2">
+        <v>44562</v>
       </c>
       <c r="F139">
         <v>50238784706</v>
@@ -4693,8 +4700,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E140">
-        <v>2021</v>
+      <c r="E140" s="2">
+        <v>44197</v>
       </c>
       <c r="F140">
         <v>87200560581</v>
@@ -4724,8 +4731,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E141">
-        <v>2022</v>
+      <c r="E141" s="2">
+        <v>44562</v>
       </c>
       <c r="F141">
         <v>137376104022</v>
@@ -4755,8 +4762,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E142">
-        <v>2021</v>
+      <c r="E142" s="2">
+        <v>44197</v>
       </c>
       <c r="F142">
         <v>26345747048</v>
@@ -4786,8 +4793,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E143">
-        <v>2022</v>
+      <c r="E143" s="2">
+        <v>44562</v>
       </c>
       <c r="F143">
         <v>37975978068</v>
@@ -4817,8 +4824,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E144">
-        <v>2021</v>
+      <c r="E144" s="2">
+        <v>44197</v>
       </c>
       <c r="F144">
         <v>16800336263</v>
@@ -4848,8 +4855,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E145">
-        <v>2022</v>
+      <c r="E145" s="2">
+        <v>44562</v>
       </c>
       <c r="F145">
         <v>17274356544</v>
@@ -4879,8 +4886,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E146">
-        <v>2021</v>
+      <c r="E146" s="2">
+        <v>44197</v>
       </c>
       <c r="F146">
         <v>1646292329689</v>
@@ -4910,8 +4917,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E147">
-        <v>2022</v>
+      <c r="E147" s="2">
+        <v>44562</v>
       </c>
       <c r="F147">
         <v>2218934533298</v>
@@ -4941,8 +4948,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E148">
-        <v>2021</v>
+      <c r="E148" s="2">
+        <v>44197</v>
       </c>
       <c r="F148">
         <v>160306668845</v>
@@ -4972,8 +4979,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E149">
-        <v>2022</v>
+      <c r="E149" s="2">
+        <v>44562</v>
       </c>
       <c r="F149">
         <v>270865654988</v>
@@ -5003,8 +5010,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E150">
-        <v>2021</v>
+      <c r="E150" s="2">
+        <v>44197</v>
       </c>
       <c r="F150">
         <v>76314661</v>
@@ -5034,8 +5041,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E151">
-        <v>2022</v>
+      <c r="E151" s="2">
+        <v>44562</v>
       </c>
       <c r="F151">
         <v>73978518</v>
@@ -5065,8 +5072,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E152">
-        <v>2021</v>
+      <c r="E152" s="2">
+        <v>44197</v>
       </c>
       <c r="F152">
         <v>493348026793</v>
@@ -5096,8 +5103,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E153">
-        <v>2022</v>
+      <c r="E153" s="2">
+        <v>44562</v>
       </c>
       <c r="F153">
         <v>619251284288</v>
@@ -5127,8 +5134,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E154">
-        <v>2021</v>
+      <c r="E154" s="2">
+        <v>44197</v>
       </c>
       <c r="F154">
         <v>275527643</v>
@@ -5158,8 +5165,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E155">
-        <v>2022</v>
+      <c r="E155" s="2">
+        <v>44562</v>
       </c>
       <c r="F155">
         <v>320067196</v>
@@ -5189,8 +5196,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E156">
-        <v>2021</v>
+      <c r="E156" s="2">
+        <v>44197</v>
       </c>
       <c r="F156">
         <v>17594333454</v>
@@ -5220,8 +5227,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E157">
-        <v>2022</v>
+      <c r="E157" s="2">
+        <v>44562</v>
       </c>
       <c r="F157">
         <v>23078465454</v>
@@ -5251,8 +5258,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E158">
-        <v>2021</v>
+      <c r="E158" s="2">
+        <v>44197</v>
       </c>
       <c r="F158">
         <v>1636741953121</v>
@@ -5282,8 +5289,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E159">
-        <v>2022</v>
+      <c r="E159" s="2">
+        <v>44562</v>
       </c>
       <c r="F159">
         <v>1656713639815</v>
@@ -5313,8 +5320,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E160">
-        <v>2021</v>
+      <c r="E160" s="2">
+        <v>44197</v>
       </c>
       <c r="F160">
         <v>9351785860511</v>
@@ -5344,8 +5351,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E161">
-        <v>2022</v>
+      <c r="E161" s="2">
+        <v>44562</v>
       </c>
       <c r="F161">
         <v>10754249898006</v>
@@ -5375,8 +5382,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E162">
-        <v>2021</v>
+      <c r="E162" s="2">
+        <v>44197</v>
       </c>
       <c r="F162">
         <v>27381078426</v>
@@ -5406,8 +5413,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E163">
-        <v>2022</v>
+      <c r="E163" s="2">
+        <v>44562</v>
       </c>
       <c r="F163">
         <v>41271015345</v>
@@ -5437,8 +5444,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E164">
-        <v>2021</v>
+      <c r="E164" s="2">
+        <v>44197</v>
       </c>
       <c r="F164">
         <v>840031521421</v>
@@ -5468,8 +5475,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E165">
-        <v>2022</v>
+      <c r="E165" s="2">
+        <v>44562</v>
       </c>
       <c r="F165">
         <v>965761906765</v>
@@ -5499,8 +5506,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E166">
-        <v>2021</v>
+      <c r="E166" s="2">
+        <v>44197</v>
       </c>
       <c r="F166">
         <v>750137760</v>
@@ -5530,8 +5537,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E167">
-        <v>2022</v>
+      <c r="E167" s="2">
+        <v>44562</v>
       </c>
       <c r="F167">
         <v>851475612</v>
@@ -5561,8 +5568,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E168">
-        <v>2021</v>
+      <c r="E168" s="2">
+        <v>44197</v>
       </c>
       <c r="F168">
         <v>527136291</v>
@@ -5592,8 +5599,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E169">
-        <v>2022</v>
+      <c r="E169" s="2">
+        <v>44562</v>
       </c>
       <c r="F169">
         <v>638995966</v>
@@ -5623,8 +5630,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E170">
-        <v>2021</v>
+      <c r="E170" s="2">
+        <v>44197</v>
       </c>
       <c r="F170">
         <v>12445363332</v>
@@ -5654,8 +5661,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E171">
-        <v>2022</v>
+      <c r="E171" s="2">
+        <v>44562</v>
       </c>
       <c r="F171">
         <v>13626163798</v>
@@ -5685,8 +5692,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E172">
-        <v>2021</v>
+      <c r="E172" s="2">
+        <v>44197</v>
       </c>
       <c r="F172">
         <v>15159029402</v>
@@ -5716,8 +5723,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E173">
-        <v>2022</v>
+      <c r="E173" s="2">
+        <v>44562</v>
       </c>
       <c r="F173">
         <v>20411979906</v>
@@ -5747,8 +5754,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E174">
-        <v>2021</v>
+      <c r="E174" s="2">
+        <v>44197</v>
       </c>
       <c r="F174">
         <v>8377133986.999999</v>
@@ -5778,8 +5785,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E175">
-        <v>2022</v>
+      <c r="E175" s="2">
+        <v>44562</v>
       </c>
       <c r="F175">
         <v>13286231743</v>
@@ -5809,8 +5816,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E176">
-        <v>2021</v>
+      <c r="E176" s="2">
+        <v>44197</v>
       </c>
       <c r="F176">
         <v>5040406639</v>
@@ -5840,8 +5847,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E177">
-        <v>2022</v>
+      <c r="E177" s="2">
+        <v>44562</v>
       </c>
       <c r="F177">
         <v>16844400758</v>
@@ -5871,8 +5878,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E178">
-        <v>2021</v>
+      <c r="E178" s="2">
+        <v>44197</v>
       </c>
       <c r="F178">
         <v>3015987201</v>
@@ -5902,8 +5909,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E179">
-        <v>2022</v>
+      <c r="E179" s="2">
+        <v>44562</v>
       </c>
       <c r="F179">
         <v>5360069395</v>
@@ -5933,8 +5940,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E180">
-        <v>2021</v>
+      <c r="E180" s="2">
+        <v>44197</v>
       </c>
       <c r="F180">
         <v>17489763756</v>
@@ -5964,8 +5971,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E181">
-        <v>2022</v>
+      <c r="E181" s="2">
+        <v>44562</v>
       </c>
       <c r="F181">
         <v>24315655908</v>
@@ -5995,8 +6002,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E182">
-        <v>2021</v>
+      <c r="E182" s="2">
+        <v>44197</v>
       </c>
       <c r="F182">
         <v>362156497</v>
@@ -6026,8 +6033,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E183">
-        <v>2022</v>
+      <c r="E183" s="2">
+        <v>44562</v>
       </c>
       <c r="F183">
         <v>377030249</v>
@@ -6057,8 +6064,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E184">
-        <v>2021</v>
+      <c r="E184" s="2">
+        <v>44197</v>
       </c>
       <c r="F184">
         <v>13317602487</v>
@@ -6088,8 +6095,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E185">
-        <v>2022</v>
+      <c r="E185" s="2">
+        <v>44562</v>
       </c>
       <c r="F185">
         <v>17054345451</v>
@@ -6119,8 +6126,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E186">
-        <v>2021</v>
+      <c r="E186" s="2">
+        <v>44197</v>
       </c>
       <c r="F186">
         <v>1502012892</v>
@@ -6150,8 +6157,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E187">
-        <v>2022</v>
+      <c r="E187" s="2">
+        <v>44562</v>
       </c>
       <c r="F187">
         <v>1970656623</v>
@@ -6181,8 +6188,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E188">
-        <v>2021</v>
+      <c r="E188" s="2">
+        <v>44197</v>
       </c>
       <c r="F188">
         <v>216044336</v>
@@ -6212,8 +6219,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E189">
-        <v>2022</v>
+      <c r="E189" s="2">
+        <v>44562</v>
       </c>
       <c r="F189">
         <v>248729987</v>
@@ -6243,8 +6250,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E190">
-        <v>2021</v>
+      <c r="E190" s="2">
+        <v>44197</v>
       </c>
       <c r="F190">
         <v>77629061078</v>
@@ -6274,8 +6281,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E191">
-        <v>2022</v>
+      <c r="E191" s="2">
+        <v>44562</v>
       </c>
       <c r="F191">
         <v>90072130752</v>
@@ -6305,8 +6312,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E192">
-        <v>2021</v>
+      <c r="E192" s="2">
+        <v>44197</v>
       </c>
       <c r="F192">
         <v>3227683856</v>
@@ -6336,8 +6343,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E193">
-        <v>2022</v>
+      <c r="E193" s="2">
+        <v>44562</v>
       </c>
       <c r="F193">
         <v>3733969703</v>
@@ -6367,8 +6374,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E194">
-        <v>2021</v>
+      <c r="E194" s="2">
+        <v>44197</v>
       </c>
       <c r="F194">
         <v>26775746</v>
@@ -6398,8 +6405,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E195">
-        <v>2022</v>
+      <c r="E195" s="2">
+        <v>44562</v>
       </c>
       <c r="F195">
         <v>31865260</v>
@@ -6429,8 +6436,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E196">
-        <v>2021</v>
+      <c r="E196" s="2">
+        <v>44197</v>
       </c>
       <c r="F196">
         <v>548868945936</v>
@@ -6460,8 +6467,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E197">
-        <v>2022</v>
+      <c r="E197" s="2">
+        <v>44562</v>
       </c>
       <c r="F197">
         <v>635514337888</v>
@@ -6491,8 +6498,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E198">
-        <v>2021</v>
+      <c r="E198" s="2">
+        <v>44197</v>
       </c>
       <c r="F198">
         <v>494760559000</v>
@@ -6522,8 +6529,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E199">
-        <v>2022</v>
+      <c r="E199" s="2">
+        <v>44562</v>
       </c>
       <c r="F199">
         <v>578188005000</v>
@@ -6553,8 +6560,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E200">
-        <v>2021</v>
+      <c r="E200" s="2">
+        <v>44197</v>
       </c>
       <c r="F200">
         <v>266291811220</v>
@@ -6584,8 +6591,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E201">
-        <v>2022</v>
+      <c r="E201" s="2">
+        <v>44562</v>
       </c>
       <c r="F201">
         <v>283504156341</v>
@@ -6615,8 +6622,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E202">
-        <v>2021</v>
+      <c r="E202" s="2">
+        <v>44197</v>
       </c>
       <c r="F202">
         <v>261239072909</v>
@@ -6646,8 +6653,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E203">
-        <v>2022</v>
+      <c r="E203" s="2">
+        <v>44562</v>
       </c>
       <c r="F203">
         <v>360394063832</v>
@@ -6677,8 +6684,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E204">
-        <v>2021</v>
+      <c r="E204" s="2">
+        <v>44197</v>
       </c>
       <c r="F204">
         <v>81995695786</v>
@@ -6708,8 +6715,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E205">
-        <v>2022</v>
+      <c r="E205" s="2">
+        <v>44562</v>
       </c>
       <c r="F205">
         <v>85907059063</v>
@@ -6739,8 +6746,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E206">
-        <v>2021</v>
+      <c r="E206" s="2">
+        <v>44197</v>
       </c>
       <c r="F206">
         <v>1476349167</v>
@@ -6770,8 +6777,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E207">
-        <v>2022</v>
+      <c r="E207" s="2">
+        <v>44562</v>
       </c>
       <c r="F207">
         <v>1068628895</v>
@@ -6801,8 +6808,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E208">
-        <v>2021</v>
+      <c r="E208" s="2">
+        <v>44197</v>
       </c>
       <c r="F208">
         <v>74219849</v>
@@ -6832,8 +6839,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E209">
-        <v>2022</v>
+      <c r="E209" s="2">
+        <v>44562</v>
       </c>
       <c r="F209">
         <v>58883704</v>
@@ -6863,8 +6870,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E210">
-        <v>2021</v>
+      <c r="E210" s="2">
+        <v>44197</v>
       </c>
       <c r="F210">
         <v>190658115547</v>
@@ -6894,8 +6901,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E211">
-        <v>2022</v>
+      <c r="E211" s="2">
+        <v>44562</v>
       </c>
       <c r="F211">
         <v>213991055481</v>
@@ -6925,8 +6932,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E212">
-        <v>2021</v>
+      <c r="E212" s="2">
+        <v>44197</v>
       </c>
       <c r="F212">
         <v>41389989091</v>
@@ -6956,8 +6963,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E213">
-        <v>2022</v>
+      <c r="E213" s="2">
+        <v>44562</v>
       </c>
       <c r="F213">
         <v>57105700449</v>
@@ -6987,8 +6994,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E214">
-        <v>2021</v>
+      <c r="E214" s="2">
+        <v>44197</v>
       </c>
       <c r="F214">
         <v>16815047953</v>
@@ -7018,8 +7025,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E215">
-        <v>2022</v>
+      <c r="E215" s="2">
+        <v>44562</v>
       </c>
       <c r="F215">
         <v>18558038104</v>
@@ -7049,8 +7056,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E216">
-        <v>2021</v>
+      <c r="E216" s="2">
+        <v>44197</v>
       </c>
       <c r="F216">
         <v>1644269913</v>
@@ -7080,8 +7087,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E217">
-        <v>2022</v>
+      <c r="E217" s="2">
+        <v>44562</v>
       </c>
       <c r="F217">
         <v>2263671795</v>
@@ -7111,8 +7118,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E218">
-        <v>2021</v>
+      <c r="E218" s="2">
+        <v>44197</v>
       </c>
       <c r="F218">
         <v>394463710390</v>
@@ -7142,8 +7149,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E219">
-        <v>2022</v>
+      <c r="E219" s="2">
+        <v>44562</v>
       </c>
       <c r="F219">
         <v>449535857035</v>
@@ -7173,8 +7180,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E220">
-        <v>2021</v>
+      <c r="E220" s="2">
+        <v>44197</v>
       </c>
       <c r="F220">
         <v>2378175928</v>
@@ -7204,8 +7211,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E221">
-        <v>2022</v>
+      <c r="E221" s="2">
+        <v>44562</v>
       </c>
       <c r="F221">
         <v>3729060611</v>
@@ -7235,8 +7242,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E222">
-        <v>2021</v>
+      <c r="E222" s="2">
+        <v>44197</v>
       </c>
       <c r="F222">
         <v>10559535045</v>
@@ -7266,8 +7273,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E223">
-        <v>2022</v>
+      <c r="E223" s="2">
+        <v>44562</v>
       </c>
       <c r="F223">
         <v>9957013974</v>
@@ -7297,8 +7304,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E224">
-        <v>2021</v>
+      <c r="E224" s="2">
+        <v>44197</v>
       </c>
       <c r="F224">
         <v>28681421762</v>
@@ -7328,8 +7335,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E225">
-        <v>2022</v>
+      <c r="E225" s="2">
+        <v>44562</v>
       </c>
       <c r="F225">
         <v>30019339966</v>
@@ -7359,8 +7366,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E226">
-        <v>2021</v>
+      <c r="E226" s="2">
+        <v>44197</v>
       </c>
       <c r="F226">
         <v>454079837</v>
@@ -7390,8 +7397,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E227">
-        <v>2022</v>
+      <c r="E227" s="2">
+        <v>44562</v>
       </c>
       <c r="F227">
         <v>448836637</v>
@@ -7421,8 +7428,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E228">
-        <v>2021</v>
+      <c r="E228" s="2">
+        <v>44197</v>
       </c>
       <c r="F228">
         <v>1195831213</v>
@@ -7452,8 +7459,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E229">
-        <v>2022</v>
+      <c r="E229" s="2">
+        <v>44562</v>
       </c>
       <c r="F229">
         <v>1317620035</v>
@@ -7483,8 +7490,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E230">
-        <v>2021</v>
+      <c r="E230" s="2">
+        <v>44197</v>
       </c>
       <c r="F230">
         <v>36820212</v>
@@ -7514,8 +7521,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E231">
-        <v>2022</v>
+      <c r="E231" s="2">
+        <v>44562</v>
       </c>
       <c r="F231">
         <v>37145766</v>
@@ -7545,8 +7552,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E232">
-        <v>2021</v>
+      <c r="E232" s="2">
+        <v>44197</v>
       </c>
       <c r="F232">
         <v>2707433581</v>
@@ -7576,8 +7583,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E233">
-        <v>2022</v>
+      <c r="E233" s="2">
+        <v>44562</v>
       </c>
       <c r="F233">
         <v>3546314854</v>
@@ -7607,8 +7614,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E234">
-        <v>2021</v>
+      <c r="E234" s="2">
+        <v>44197</v>
       </c>
       <c r="F234">
         <v>9349414607</v>
@@ -7638,8 +7645,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E235">
-        <v>2022</v>
+      <c r="E235" s="2">
+        <v>44562</v>
       </c>
       <c r="F235">
         <v>12820660645</v>
@@ -7669,8 +7676,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E236">
-        <v>2021</v>
+      <c r="E236" s="2">
+        <v>44197</v>
       </c>
       <c r="F236">
         <v>36530850612</v>
@@ -7700,8 +7707,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E237">
-        <v>2022</v>
+      <c r="E237" s="2">
+        <v>44562</v>
       </c>
       <c r="F237">
         <v>43383566724</v>
@@ -7731,8 +7738,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E238">
-        <v>2021</v>
+      <c r="E238" s="2">
+        <v>44197</v>
       </c>
       <c r="F238">
         <v>141830131160</v>
@@ -7762,8 +7769,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E239">
-        <v>2022</v>
+      <c r="E239" s="2">
+        <v>44562</v>
       </c>
       <c r="F239">
         <v>151540101075</v>
@@ -7793,8 +7800,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E240">
-        <v>2021</v>
+      <c r="E240" s="2">
+        <v>44197</v>
       </c>
       <c r="F240">
         <v>52979674</v>
@@ -7824,8 +7831,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E241">
-        <v>2022</v>
+      <c r="E241" s="2">
+        <v>44562</v>
       </c>
       <c r="F241">
         <v>72097467</v>
@@ -7855,8 +7862,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E242">
-        <v>2021</v>
+      <c r="E242" s="2">
+        <v>44197</v>
       </c>
       <c r="F242">
         <v>52570833</v>
@@ -7886,8 +7893,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E243">
-        <v>2022</v>
+      <c r="E243" s="2">
+        <v>44562</v>
       </c>
       <c r="F243">
         <v>44557967</v>
@@ -7917,8 +7924,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E244">
-        <v>2021</v>
+      <c r="E244" s="2">
+        <v>44197</v>
       </c>
       <c r="F244">
         <v>501740476073</v>
@@ -7948,8 +7955,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E245">
-        <v>2022</v>
+      <c r="E245" s="2">
+        <v>44562</v>
       </c>
       <c r="F245">
         <v>596957712230</v>
@@ -7979,8 +7986,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E246">
-        <v>2021</v>
+      <c r="E246" s="2">
+        <v>44197</v>
       </c>
       <c r="F246">
         <v>1658948495</v>
@@ -8010,8 +8017,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E247">
-        <v>2022</v>
+      <c r="E247" s="2">
+        <v>44562</v>
       </c>
       <c r="F247">
         <v>2186695034</v>
@@ -8041,8 +8048,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E248">
-        <v>2021</v>
+      <c r="E248" s="2">
+        <v>44197</v>
       </c>
       <c r="F248">
         <v>4399540648</v>
@@ -8072,8 +8079,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E249">
-        <v>2022</v>
+      <c r="E249" s="2">
+        <v>44562</v>
       </c>
       <c r="F249">
         <v>6171664019</v>
@@ -8103,8 +8110,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E250">
-        <v>2021</v>
+      <c r="E250" s="2">
+        <v>44197</v>
       </c>
       <c r="F250">
         <v>9277283656</v>
@@ -8134,8 +8141,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E251">
-        <v>2022</v>
+      <c r="E251" s="2">
+        <v>44562</v>
       </c>
       <c r="F251">
         <v>13276867150</v>
@@ -8165,8 +8172,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E252">
-        <v>2021</v>
+      <c r="E252" s="2">
+        <v>44197</v>
       </c>
       <c r="F252">
         <v>1079792698</v>
@@ -8196,8 +8203,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E253">
-        <v>2022</v>
+      <c r="E253" s="2">
+        <v>44562</v>
       </c>
       <c r="F253">
         <v>2715998013</v>
@@ -8227,8 +8234,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E254">
-        <v>2021</v>
+      <c r="E254" s="2">
+        <v>44197</v>
       </c>
       <c r="F254">
         <v>218501637</v>
@@ -8258,8 +8265,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E255">
-        <v>2022</v>
+      <c r="E255" s="2">
+        <v>44562</v>
       </c>
       <c r="F255">
         <v>232044366</v>
@@ -8289,8 +8296,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E256">
-        <v>2021</v>
+      <c r="E256" s="2">
+        <v>44197</v>
       </c>
       <c r="F256">
         <v>39574133382</v>
@@ -8320,8 +8327,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E257">
-        <v>2022</v>
+      <c r="E257" s="2">
+        <v>44562</v>
       </c>
       <c r="F257">
         <v>46319748469</v>
@@ -8351,8 +8358,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E258">
-        <v>2021</v>
+      <c r="E258" s="2">
+        <v>44197</v>
       </c>
       <c r="F258">
         <v>3953611158</v>
@@ -8382,8 +8389,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E259">
-        <v>2022</v>
+      <c r="E259" s="2">
+        <v>44562</v>
       </c>
       <c r="F259">
         <v>3550758994</v>
@@ -8413,8 +8420,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E260">
-        <v>2021</v>
+      <c r="E260" s="2">
+        <v>44197</v>
       </c>
       <c r="F260">
         <v>11051924478</v>
@@ -8444,8 +8451,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E261">
-        <v>2022</v>
+      <c r="E261" s="2">
+        <v>44562</v>
       </c>
       <c r="F261">
         <v>14362123292</v>
@@ -8475,8 +8482,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E262">
-        <v>2021</v>
+      <c r="E262" s="2">
+        <v>44197</v>
       </c>
       <c r="F262">
         <v>56236884800</v>
@@ -8506,8 +8513,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E263">
-        <v>2022</v>
+      <c r="E263" s="2">
+        <v>44562</v>
       </c>
       <c r="F263">
         <v>66471631148</v>
@@ -8537,8 +8544,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E264">
-        <v>2021</v>
+      <c r="E264" s="2">
+        <v>44197</v>
       </c>
       <c r="F264">
         <v>20874447</v>
@@ -8568,8 +8575,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E265">
-        <v>2022</v>
+      <c r="E265" s="2">
+        <v>44562</v>
       </c>
       <c r="F265">
         <v>22587972</v>
@@ -8599,8 +8606,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E266">
-        <v>2021</v>
+      <c r="E266" s="2">
+        <v>44197</v>
       </c>
       <c r="F266">
         <v>3513117968</v>
@@ -8630,8 +8637,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E267">
-        <v>2022</v>
+      <c r="E267" s="2">
+        <v>44562</v>
       </c>
       <c r="F267">
         <v>3878440278</v>
@@ -8661,8 +8668,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E268">
-        <v>2021</v>
+      <c r="E268" s="2">
+        <v>44197</v>
       </c>
       <c r="F268">
         <v>340633516883</v>
@@ -8692,8 +8699,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E269">
-        <v>2022</v>
+      <c r="E269" s="2">
+        <v>44562</v>
       </c>
       <c r="F269">
         <v>360541931833</v>
@@ -8723,8 +8730,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E270">
-        <v>2021</v>
+      <c r="E270" s="2">
+        <v>44197</v>
       </c>
       <c r="F270">
         <v>344138637936</v>
@@ -8754,8 +8761,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E271">
-        <v>2022</v>
+      <c r="E271" s="2">
+        <v>44562</v>
       </c>
       <c r="F271">
         <v>412540265911</v>
@@ -8785,8 +8792,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E272">
-        <v>2021</v>
+      <c r="E272" s="2">
+        <v>44197</v>
       </c>
       <c r="F272">
         <v>278924567991</v>
@@ -8816,8 +8823,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E273">
-        <v>2022</v>
+      <c r="E273" s="2">
+        <v>44562</v>
       </c>
       <c r="F273">
         <v>408348703780</v>
@@ -8847,8 +8854,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E274">
-        <v>2021</v>
+      <c r="E274" s="2">
+        <v>44197</v>
       </c>
       <c r="F274">
         <v>125944806080</v>
@@ -8878,8 +8885,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E275">
-        <v>2022</v>
+      <c r="E275" s="2">
+        <v>44562</v>
       </c>
       <c r="F275">
         <v>128861557225</v>
@@ -8909,8 +8916,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E276">
-        <v>2021</v>
+      <c r="E276" s="2">
+        <v>44197</v>
       </c>
       <c r="F276">
         <v>22050195261171</v>
@@ -8940,8 +8947,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E277">
-        <v>2022</v>
+      <c r="E277" s="2">
+        <v>44562</v>
       </c>
       <c r="F277">
         <v>24655529674494</v>
@@ -8971,8 +8978,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E278">
-        <v>2021</v>
+      <c r="E278" s="2">
+        <v>44197</v>
       </c>
       <c r="F278">
         <v>330431996952</v>
@@ -9002,8 +9009,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E279">
-        <v>2022</v>
+      <c r="E279" s="2">
+        <v>44562</v>
       </c>
       <c r="F279">
         <v>360341121878</v>
@@ -9033,8 +9040,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E280">
-        <v>2021</v>
+      <c r="E280" s="2">
+        <v>44197</v>
       </c>
       <c r="F280">
         <v>3063586579</v>
@@ -9064,8 +9071,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E281">
-        <v>2022</v>
+      <c r="E281" s="2">
+        <v>44562</v>
       </c>
       <c r="F281">
         <v>3207059252</v>
@@ -9095,8 +9102,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E282">
-        <v>2021</v>
+      <c r="E282" s="2">
+        <v>44197</v>
       </c>
       <c r="F282">
         <v>231522458148</v>
@@ -9126,8 +9133,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E283">
-        <v>2022</v>
+      <c r="E283" s="2">
+        <v>44562</v>
       </c>
       <c r="F283">
         <v>292305268543</v>
@@ -9157,8 +9164,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E284">
-        <v>2021</v>
+      <c r="E284" s="2">
+        <v>44197</v>
       </c>
       <c r="F284">
         <v>16657228</v>
@@ -9188,8 +9195,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E285">
-        <v>2022</v>
+      <c r="E285" s="2">
+        <v>44562</v>
       </c>
       <c r="F285">
         <v>17787532</v>
@@ -9219,8 +9226,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E286">
-        <v>2021</v>
+      <c r="E286" s="2">
+        <v>44197</v>
       </c>
       <c r="F286">
         <v>59075000000</v>
@@ -9250,8 +9257,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E287">
-        <v>2022</v>
+      <c r="E287" s="2">
+        <v>44562</v>
       </c>
       <c r="F287">
         <v>72538300000</v>
@@ -9281,8 +9288,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E288">
-        <v>2021</v>
+      <c r="E288" s="2">
+        <v>44197</v>
       </c>
       <c r="F288">
         <v>1276838056</v>
@@ -9312,8 +9319,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E289">
-        <v>2022</v>
+      <c r="E289" s="2">
+        <v>44562</v>
       </c>
       <c r="F289">
         <v>1204616173</v>
@@ -9343,8 +9350,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E290">
-        <v>2021</v>
+      <c r="E290" s="2">
+        <v>44197</v>
       </c>
       <c r="F290">
         <v>87492818</v>
@@ -9374,8 +9381,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E291">
-        <v>2022</v>
+      <c r="E291" s="2">
+        <v>44562</v>
       </c>
       <c r="F291">
         <v>103841099</v>
@@ -9405,8 +9412,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E292">
-        <v>2021</v>
+      <c r="E292" s="2">
+        <v>44197</v>
       </c>
       <c r="F292">
         <v>57351903433</v>
@@ -9436,8 +9443,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E293">
-        <v>2022</v>
+      <c r="E293" s="2">
+        <v>44562</v>
       </c>
       <c r="F293">
         <v>69700974155</v>
@@ -9467,8 +9474,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E294">
-        <v>2021</v>
+      <c r="E294" s="2">
+        <v>44197</v>
       </c>
       <c r="F294">
         <v>6647148171318</v>
@@ -9498,8 +9505,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E295">
-        <v>2022</v>
+      <c r="E295" s="2">
+        <v>44562</v>
       </c>
       <c r="F295">
         <v>7150111746903</v>
@@ -9529,8 +9536,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E296">
-        <v>2021</v>
+      <c r="E296" s="2">
+        <v>44197</v>
       </c>
       <c r="F296">
         <v>2452655301</v>
@@ -9560,8 +9567,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E297">
-        <v>2022</v>
+      <c r="E297" s="2">
+        <v>44562</v>
       </c>
       <c r="F297">
         <v>4193722161</v>
@@ -9591,8 +9598,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E298">
-        <v>2021</v>
+      <c r="E298" s="2">
+        <v>44197</v>
       </c>
       <c r="F298">
         <v>38434843397</v>
@@ -9622,8 +9629,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E299">
-        <v>2022</v>
+      <c r="E299" s="2">
+        <v>44562</v>
       </c>
       <c r="F299">
         <v>65102212578</v>
@@ -9653,8 +9660,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E300">
-        <v>2021</v>
+      <c r="E300" s="2">
+        <v>44197</v>
       </c>
       <c r="F300">
         <v>4695751872</v>
@@ -9684,8 +9691,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E301">
-        <v>2022</v>
+      <c r="E301" s="2">
+        <v>44562</v>
       </c>
       <c r="F301">
         <v>7673276422</v>
@@ -9715,8 +9722,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E302">
-        <v>2021</v>
+      <c r="E302" s="2">
+        <v>44197</v>
       </c>
       <c r="F302">
         <v>756166163384</v>
@@ -9746,8 +9753,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E303">
-        <v>2022</v>
+      <c r="E303" s="2">
+        <v>44562</v>
       </c>
       <c r="F303">
         <v>746720431187</v>
@@ -9777,8 +9784,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E304">
-        <v>2021</v>
+      <c r="E304" s="2">
+        <v>44197</v>
       </c>
       <c r="F304">
         <v>11141099670</v>
@@ -9808,8 +9815,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E305">
-        <v>2022</v>
+      <c r="E305" s="2">
+        <v>44562</v>
       </c>
       <c r="F305">
         <v>17614334709</v>
@@ -9839,8 +9846,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E306">
-        <v>2021</v>
+      <c r="E306" s="2">
+        <v>44197</v>
       </c>
       <c r="F306">
         <v>6621385982</v>
@@ -9870,8 +9877,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E307">
-        <v>2022</v>
+      <c r="E307" s="2">
+        <v>44562</v>
       </c>
       <c r="F307">
         <v>7115101783</v>
@@ -9901,8 +9908,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E308">
-        <v>2021</v>
+      <c r="E308" s="2">
+        <v>44197</v>
       </c>
       <c r="F308">
         <v>777035183</v>
@@ -9932,8 +9939,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E309">
-        <v>2022</v>
+      <c r="E309" s="2">
+        <v>44562</v>
       </c>
       <c r="F309">
         <v>449403799</v>
@@ -9963,8 +9970,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E310">
-        <v>2021</v>
+      <c r="E310" s="2">
+        <v>44197</v>
       </c>
       <c r="F310">
         <v>40705673741</v>
@@ -9994,8 +10001,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E311">
-        <v>2022</v>
+      <c r="E311" s="2">
+        <v>44562</v>
       </c>
       <c r="F311">
         <v>46339780884</v>
@@ -10025,8 +10032,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E312">
-        <v>2021</v>
+      <c r="E312" s="2">
+        <v>44197</v>
       </c>
       <c r="F312">
         <v>6391040503</v>
@@ -10056,8 +10063,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E313">
-        <v>2022</v>
+      <c r="E313" s="2">
+        <v>44562</v>
       </c>
       <c r="F313">
         <v>9824773113</v>
@@ -10087,8 +10094,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E314">
-        <v>2021</v>
+      <c r="E314" s="2">
+        <v>44197</v>
       </c>
       <c r="F314">
         <v>1649978155</v>
@@ -10118,8 +10125,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E315">
-        <v>2022</v>
+      <c r="E315" s="2">
+        <v>44562</v>
       </c>
       <c r="F315">
         <v>1646519465</v>
@@ -10149,8 +10156,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E316">
-        <v>2021</v>
+      <c r="E316" s="2">
+        <v>44197</v>
       </c>
       <c r="F316">
         <v>75229280076</v>
@@ -10180,8 +10187,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E317">
-        <v>2022</v>
+      <c r="E317" s="2">
+        <v>44562</v>
       </c>
       <c r="F317">
         <v>82354805503</v>
@@ -10211,8 +10218,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E318">
-        <v>2021</v>
+      <c r="E318" s="2">
+        <v>44197</v>
       </c>
       <c r="F318">
         <v>20833171465</v>
@@ -10242,8 +10249,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E319">
-        <v>2022</v>
+      <c r="E319" s="2">
+        <v>44562</v>
       </c>
       <c r="F319">
         <v>24011049604</v>
@@ -10273,8 +10280,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E320">
-        <v>2021</v>
+      <c r="E320" s="2">
+        <v>44197</v>
       </c>
       <c r="F320">
         <v>5176358630</v>
@@ -10304,8 +10311,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E321">
-        <v>2022</v>
+      <c r="E321" s="2">
+        <v>44562</v>
       </c>
       <c r="F321">
         <v>5208977799</v>
@@ -10335,8 +10342,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E322">
-        <v>2021</v>
+      <c r="E322" s="2">
+        <v>44197</v>
       </c>
       <c r="F322">
         <v>1337931087</v>
@@ -10366,8 +10373,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E323">
-        <v>2022</v>
+      <c r="E323" s="2">
+        <v>44562</v>
       </c>
       <c r="F323">
         <v>1594022952</v>
@@ -10397,8 +10404,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E324">
-        <v>2021</v>
+      <c r="E324" s="2">
+        <v>44197</v>
       </c>
       <c r="F324">
         <v>4242323767</v>
@@ -10428,8 +10435,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E325">
-        <v>2022</v>
+      <c r="E325" s="2">
+        <v>44562</v>
       </c>
       <c r="F325">
         <v>5592764969</v>
@@ -10459,8 +10466,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E326">
-        <v>2021</v>
+      <c r="E326" s="2">
+        <v>44197</v>
       </c>
       <c r="F326">
         <v>492048058908</v>
@@ -10490,8 +10497,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E327">
-        <v>2022</v>
+      <c r="E327" s="2">
+        <v>44562</v>
       </c>
       <c r="F327">
         <v>572471050832</v>
@@ -10521,8 +10528,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E328">
-        <v>2021</v>
+      <c r="E328" s="2">
+        <v>44197</v>
       </c>
       <c r="F328">
         <v>716833758955</v>
@@ -10552,8 +10559,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E329">
-        <v>2022</v>
+      <c r="E329" s="2">
+        <v>44562</v>
       </c>
       <c r="F329">
         <v>818732854883</v>
@@ -10583,8 +10590,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E330">
-        <v>2021</v>
+      <c r="E330" s="2">
+        <v>44197</v>
       </c>
       <c r="F330">
         <v>31309030</v>
@@ -10614,8 +10621,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E331">
-        <v>2022</v>
+      <c r="E331" s="2">
+        <v>44562</v>
       </c>
       <c r="F331">
         <v>28277421</v>
@@ -10645,8 +10652,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E332">
-        <v>2021</v>
+      <c r="E332" s="2">
+        <v>44197</v>
       </c>
       <c r="F332">
         <v>18109303001</v>
@@ -10676,8 +10683,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E333">
-        <v>2022</v>
+      <c r="E333" s="2">
+        <v>44562</v>
       </c>
       <c r="F333">
         <v>18564496772</v>
@@ -10707,8 +10714,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E334">
-        <v>2021</v>
+      <c r="E334" s="2">
+        <v>44197</v>
       </c>
       <c r="F334">
         <v>12696997525111</v>
@@ -10738,8 +10745,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E335">
-        <v>2022</v>
+      <c r="E335" s="2">
+        <v>44562</v>
       </c>
       <c r="F335">
         <v>13899713426466</v>
@@ -10769,8 +10776,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E336">
-        <v>2021</v>
+      <c r="E336" s="2">
+        <v>44197</v>
       </c>
       <c r="F336">
         <v>957862157</v>
@@ -10800,8 +10807,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E337">
-        <v>2022</v>
+      <c r="E337" s="2">
+        <v>44562</v>
       </c>
       <c r="F337">
         <v>997924369</v>
@@ -10831,8 +10838,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E338">
-        <v>2021</v>
+      <c r="E338" s="2">
+        <v>44197</v>
       </c>
       <c r="F338">
         <v>3887900803</v>
@@ -10862,8 +10869,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E339">
-        <v>2022</v>
+      <c r="E339" s="2">
+        <v>44562</v>
       </c>
       <c r="F339">
         <v>4342448272</v>
@@ -10893,8 +10900,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E340">
-        <v>2021</v>
+      <c r="E340" s="2">
+        <v>44197</v>
       </c>
       <c r="F340">
         <v>356063393</v>
@@ -10924,8 +10931,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E341">
-        <v>2022</v>
+      <c r="E341" s="2">
+        <v>44562</v>
       </c>
       <c r="F341">
         <v>378598104</v>
@@ -10955,8 +10962,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E342">
-        <v>2021</v>
+      <c r="E342" s="2">
+        <v>44197</v>
       </c>
       <c r="F342">
         <v>299037704561</v>
@@ -10986,8 +10993,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E343">
-        <v>2022</v>
+      <c r="E343" s="2">
+        <v>44562</v>
       </c>
       <c r="F343">
         <v>352337923095</v>
@@ -11017,8 +11024,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E344">
-        <v>2021</v>
+      <c r="E344" s="2">
+        <v>44197</v>
       </c>
       <c r="F344">
         <v>379969120569</v>
@@ -11048,8 +11055,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E345">
-        <v>2022</v>
+      <c r="E345" s="2">
+        <v>44562</v>
       </c>
       <c r="F345">
         <v>418364066638</v>
@@ -11079,8 +11086,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E346">
-        <v>2021</v>
+      <c r="E346" s="2">
+        <v>44197</v>
       </c>
       <c r="F346">
         <v>644399390000</v>
@@ -11110,8 +11117,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E347">
-        <v>2022</v>
+      <c r="E347" s="2">
+        <v>44562</v>
       </c>
       <c r="F347">
         <v>683583612000</v>
@@ -11141,8 +11148,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E348">
-        <v>2021</v>
+      <c r="E348" s="2">
+        <v>44197</v>
       </c>
       <c r="F348">
         <v>379401552404</v>
@@ -11172,8 +11179,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E349">
-        <v>2022</v>
+      <c r="E349" s="2">
+        <v>44562</v>
       </c>
       <c r="F349">
         <v>401706622689</v>
@@ -11203,8 +11210,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E350">
-        <v>2021</v>
+      <c r="E350" s="2">
+        <v>44197</v>
       </c>
       <c r="F350">
         <v>36344059715</v>
@@ -11234,8 +11241,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E351">
-        <v>2022</v>
+      <c r="E351" s="2">
+        <v>44562</v>
       </c>
       <c r="F351">
         <v>46483050628</v>
@@ -11265,8 +11272,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E352">
-        <v>2021</v>
+      <c r="E352" s="2">
+        <v>44197</v>
       </c>
       <c r="F352">
         <v>1754300367662</v>
@@ -11296,8 +11303,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E353">
-        <v>2022</v>
+      <c r="E353" s="2">
+        <v>44562</v>
       </c>
       <c r="F353">
         <v>2064056389455</v>
@@ -11327,8 +11334,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E354">
-        <v>2021</v>
+      <c r="E354" s="2">
+        <v>44197</v>
       </c>
       <c r="F354">
         <v>103891285834</v>
@@ -11358,8 +11365,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E355">
-        <v>2022</v>
+      <c r="E355" s="2">
+        <v>44562</v>
       </c>
       <c r="F355">
         <v>107770858037</v>
@@ -11389,8 +11396,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E356">
-        <v>2021</v>
+      <c r="E356" s="2">
+        <v>44197</v>
       </c>
       <c r="F356">
         <v>9537248058</v>
@@ -11420,8 +11427,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E357">
-        <v>2022</v>
+      <c r="E357" s="2">
+        <v>44562</v>
       </c>
       <c r="F357">
         <v>11187261351</v>
@@ -11451,8 +11458,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E358">
-        <v>2021</v>
+      <c r="E358" s="2">
+        <v>44197</v>
       </c>
       <c r="F358">
         <v>25559357631</v>
@@ -11482,8 +11489,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E359">
-        <v>2022</v>
+      <c r="E359" s="2">
+        <v>44562</v>
       </c>
       <c r="F359">
         <v>29056978647</v>
@@ -11513,8 +11520,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E360">
-        <v>2021</v>
+      <c r="E360" s="2">
+        <v>44197</v>
       </c>
       <c r="F360">
         <v>1069721028</v>
@@ -11544,8 +11551,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E361">
-        <v>2022</v>
+      <c r="E361" s="2">
+        <v>44562</v>
       </c>
       <c r="F361">
         <v>1053607800</v>
@@ -11575,8 +11582,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E362">
-        <v>2021</v>
+      <c r="E362" s="2">
+        <v>44197</v>
       </c>
       <c r="F362">
         <v>1187697311391</v>
@@ -11606,8 +11613,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E363">
-        <v>2022</v>
+      <c r="E363" s="2">
+        <v>44562</v>
       </c>
       <c r="F363">
         <v>1404092127077</v>
@@ -11637,8 +11644,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E364">
-        <v>2021</v>
+      <c r="E364" s="2">
+        <v>44197</v>
       </c>
       <c r="F364">
         <v>95674498</v>
@@ -11668,8 +11675,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E365">
-        <v>2022</v>
+      <c r="E365" s="2">
+        <v>44562</v>
       </c>
       <c r="F365">
         <v>79364778</v>
@@ -11699,8 +11706,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E366">
-        <v>2021</v>
+      <c r="E366" s="2">
+        <v>44197</v>
       </c>
       <c r="F366">
         <v>68303554694.00001</v>
@@ -11730,8 +11737,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E367">
-        <v>2022</v>
+      <c r="E367" s="2">
+        <v>44562</v>
       </c>
       <c r="F367">
         <v>94062283605</v>
@@ -11761,8 +11768,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E368">
-        <v>2021</v>
+      <c r="E368" s="2">
+        <v>44197</v>
       </c>
       <c r="F368">
         <v>14063261482</v>
@@ -11792,8 +11799,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E369">
-        <v>2022</v>
+      <c r="E369" s="2">
+        <v>44562</v>
       </c>
       <c r="F369">
         <v>14253365581</v>
@@ -11823,8 +11830,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E370">
-        <v>2021</v>
+      <c r="E370" s="2">
+        <v>44197</v>
       </c>
       <c r="F370">
         <v>1508338165342</v>
@@ -11854,8 +11861,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E371">
-        <v>2022</v>
+      <c r="E371" s="2">
+        <v>44562</v>
       </c>
       <c r="F371">
         <v>1650202719731</v>
@@ -11885,8 +11892,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E372">
-        <v>2021</v>
+      <c r="E372" s="2">
+        <v>44197</v>
       </c>
       <c r="F372">
         <v>4575932080</v>
@@ -11916,8 +11923,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E373">
-        <v>2022</v>
+      <c r="E373" s="2">
+        <v>44562</v>
       </c>
       <c r="F373">
         <v>4308951000</v>
@@ -11947,8 +11954,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E374">
-        <v>2021</v>
+      <c r="E374" s="2">
+        <v>44197</v>
       </c>
       <c r="F374">
         <v>6730576026</v>
@@ -11978,8 +11985,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E375">
-        <v>2022</v>
+      <c r="E375" s="2">
+        <v>44562</v>
       </c>
       <c r="F375">
         <v>7219712818</v>
@@ -12009,8 +12016,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E376">
-        <v>2021</v>
+      <c r="E376" s="2">
+        <v>44197</v>
       </c>
       <c r="F376">
         <v>37848891219</v>
@@ -12040,8 +12047,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E377">
-        <v>2022</v>
+      <c r="E377" s="2">
+        <v>44562</v>
       </c>
       <c r="F377">
         <v>46851063751</v>
@@ -12071,8 +12078,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E378">
-        <v>2021</v>
+      <c r="E378" s="2">
+        <v>44197</v>
       </c>
       <c r="F378">
         <v>46288059</v>
@@ -12102,8 +12109,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E379">
-        <v>2022</v>
+      <c r="E379" s="2">
+        <v>44562</v>
       </c>
       <c r="F379">
         <v>47546631</v>
@@ -12133,8 +12140,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E380">
-        <v>2021</v>
+      <c r="E380" s="2">
+        <v>44197</v>
       </c>
       <c r="F380">
         <v>3686245702</v>
@@ -12164,8 +12171,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E381">
-        <v>2022</v>
+      <c r="E381" s="2">
+        <v>44562</v>
       </c>
       <c r="F381">
         <v>4661918529</v>
@@ -12195,8 +12202,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E382">
-        <v>2021</v>
+      <c r="E382" s="2">
+        <v>44197</v>
       </c>
       <c r="F382">
         <v>226563752375</v>
@@ -12226,8 +12233,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E383">
-        <v>2022</v>
+      <c r="E383" s="2">
+        <v>44562</v>
       </c>
       <c r="F383">
         <v>241457659239</v>
@@ -12257,8 +12264,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E384">
-        <v>2021</v>
+      <c r="E384" s="2">
+        <v>44197</v>
       </c>
       <c r="F384">
         <v>1473771201</v>
@@ -12288,8 +12295,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E385">
-        <v>2022</v>
+      <c r="E385" s="2">
+        <v>44562</v>
       </c>
       <c r="F385">
         <v>1577107897</v>
@@ -12319,8 +12326,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E386">
-        <v>2021</v>
+      <c r="E386" s="2">
+        <v>44197</v>
       </c>
       <c r="F386">
         <v>8899187039</v>
@@ -12350,8 +12357,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E387">
-        <v>2022</v>
+      <c r="E387" s="2">
+        <v>44562</v>
       </c>
       <c r="F387">
         <v>10177581712</v>
@@ -12381,8 +12388,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E388">
-        <v>2021</v>
+      <c r="E388" s="2">
+        <v>44197</v>
       </c>
       <c r="F388">
         <v>31468320</v>
@@ -12412,8 +12419,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E389">
-        <v>2022</v>
+      <c r="E389" s="2">
+        <v>44562</v>
       </c>
       <c r="F389">
         <v>26592982</v>
@@ -12443,8 +12450,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E390">
-        <v>2021</v>
+      <c r="E390" s="2">
+        <v>44197</v>
       </c>
       <c r="F390">
         <v>42962642</v>
@@ -12474,8 +12481,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E391">
-        <v>2022</v>
+      <c r="E391" s="2">
+        <v>44562</v>
       </c>
       <c r="F391">
         <v>25901066</v>
@@ -12505,8 +12512,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E392">
-        <v>2021</v>
+      <c r="E392" s="2">
+        <v>44197</v>
       </c>
       <c r="F392">
         <v>671992604167</v>
@@ -12536,8 +12543,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E393">
-        <v>2022</v>
+      <c r="E393" s="2">
+        <v>44562</v>
       </c>
       <c r="F393">
         <v>611365563695</v>
@@ -12567,8 +12574,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E394">
-        <v>2021</v>
+      <c r="E394" s="2">
+        <v>44197</v>
       </c>
       <c r="F394">
         <v>40696756050</v>
@@ -12598,8 +12605,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E395">
-        <v>2022</v>
+      <c r="E395" s="2">
+        <v>44562</v>
       </c>
       <c r="F395">
         <v>48361226990</v>
@@ -12629,8 +12636,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E396">
-        <v>2021</v>
+      <c r="E396" s="2">
+        <v>44197</v>
       </c>
       <c r="F396">
         <v>7114200093</v>
@@ -12660,8 +12667,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E397">
-        <v>2022</v>
+      <c r="E397" s="2">
+        <v>44562</v>
       </c>
       <c r="F397">
         <v>8463614334</v>
@@ -12691,8 +12698,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E398">
-        <v>2021</v>
+      <c r="E398" s="2">
+        <v>44197</v>
       </c>
       <c r="F398">
         <v>18887541</v>
@@ -12722,8 +12729,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E399">
-        <v>2022</v>
+      <c r="E399" s="2">
+        <v>44562</v>
       </c>
       <c r="F399">
         <v>16832931</v>
@@ -12753,8 +12760,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E400">
-        <v>2021</v>
+      <c r="E400" s="2">
+        <v>44197</v>
       </c>
       <c r="F400">
         <v>36817249</v>
@@ -12784,8 +12791,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E401">
-        <v>2022</v>
+      <c r="E401" s="2">
+        <v>44562</v>
       </c>
       <c r="F401">
         <v>185207141</v>
@@ -12810,8 +12817,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E402">
-        <v>2021</v>
+      <c r="E402" s="2">
+        <v>44197</v>
       </c>
       <c r="F402">
         <v>6429529563</v>
@@ -12836,8 +12843,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E403">
-        <v>2022</v>
+      <c r="E403" s="2">
+        <v>44562</v>
       </c>
       <c r="F403">
         <v>6342538396</v>
@@ -12867,8 +12874,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E404">
-        <v>2021</v>
+      <c r="E404" s="2">
+        <v>44197</v>
       </c>
       <c r="F404">
         <v>1657689626</v>
@@ -12898,8 +12905,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E405">
-        <v>2022</v>
+      <c r="E405" s="2">
+        <v>44562</v>
       </c>
       <c r="F405">
         <v>2085033975</v>
@@ -12929,8 +12936,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E406">
-        <v>2021</v>
+      <c r="E406" s="2">
+        <v>44197</v>
       </c>
       <c r="F406">
         <v>220977580</v>
@@ -12960,8 +12967,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E407">
-        <v>2022</v>
+      <c r="E407" s="2">
+        <v>44562</v>
       </c>
       <c r="F407">
         <v>236877267</v>
@@ -12991,8 +12998,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E408">
-        <v>2021</v>
+      <c r="E408" s="2">
+        <v>44197</v>
       </c>
       <c r="F408">
         <v>154429266</v>
@@ -13022,8 +13029,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E409">
-        <v>2022</v>
+      <c r="E409" s="2">
+        <v>44562</v>
       </c>
       <c r="F409">
         <v>414293536</v>
@@ -13053,8 +13060,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E410">
-        <v>2021</v>
+      <c r="E410" s="2">
+        <v>44197</v>
       </c>
       <c r="F410">
         <v>668865211</v>
@@ -13084,8 +13091,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E411">
-        <v>2022</v>
+      <c r="E411" s="2">
+        <v>44562</v>
       </c>
       <c r="F411">
         <v>631106440</v>
@@ -13115,8 +13122,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E412">
-        <v>2021</v>
+      <c r="E412" s="2">
+        <v>44197</v>
       </c>
       <c r="F412">
         <v>232102189</v>
@@ -13146,8 +13153,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E413">
-        <v>2022</v>
+      <c r="E413" s="2">
+        <v>44562</v>
       </c>
       <c r="F413">
         <v>226642043</v>
@@ -13177,8 +13184,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E414">
-        <v>2021</v>
+      <c r="E414" s="2">
+        <v>44197</v>
       </c>
       <c r="F414">
         <v>164153485</v>
@@ -13208,8 +13215,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E415">
-        <v>2022</v>
+      <c r="E415" s="2">
+        <v>44562</v>
       </c>
       <c r="F415">
         <v>196033175</v>
@@ -13239,8 +13246,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E416">
-        <v>2021</v>
+      <c r="E416" s="2">
+        <v>44197</v>
       </c>
       <c r="F416">
         <v>201004649</v>
@@ -13270,8 +13277,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E417">
-        <v>2022</v>
+      <c r="E417" s="2">
+        <v>44562</v>
       </c>
       <c r="F417">
         <v>197131168</v>
@@ -13301,8 +13308,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E418">
-        <v>2021</v>
+      <c r="E418" s="2">
+        <v>44197</v>
       </c>
       <c r="F418">
         <v>35294202</v>
@@ -13332,8 +13339,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E419">
-        <v>2022</v>
+      <c r="E419" s="2">
+        <v>44562</v>
       </c>
       <c r="F419">
         <v>36597436</v>
@@ -13363,8 +13370,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E420">
-        <v>2021</v>
+      <c r="E420" s="2">
+        <v>44197</v>
       </c>
       <c r="F420">
         <v>811364585</v>
@@ -13394,8 +13401,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E421">
-        <v>2022</v>
+      <c r="E421" s="2">
+        <v>44562</v>
       </c>
       <c r="F421">
         <v>521587179</v>
@@ -13425,8 +13432,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E422">
-        <v>2021</v>
+      <c r="E422" s="2">
+        <v>44197</v>
       </c>
       <c r="F422">
         <v>266037717</v>
@@ -13456,8 +13463,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E423">
-        <v>2022</v>
+      <c r="E423" s="2">
+        <v>44562</v>
       </c>
       <c r="F423">
         <v>131533274</v>
@@ -13487,8 +13494,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E424">
-        <v>2021</v>
+      <c r="E424" s="2">
+        <v>44197</v>
       </c>
       <c r="F424">
         <v>1364317559</v>
@@ -13518,8 +13525,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E425">
-        <v>2022</v>
+      <c r="E425" s="2">
+        <v>44562</v>
       </c>
       <c r="F425">
         <v>1232706446</v>
@@ -13549,8 +13556,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E426">
-        <v>2021</v>
+      <c r="E426" s="2">
+        <v>44197</v>
       </c>
       <c r="F426">
         <v>1070253305</v>
@@ -13580,8 +13587,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E427">
-        <v>2022</v>
+      <c r="E427" s="2">
+        <v>44562</v>
       </c>
       <c r="F427">
         <v>1841833323</v>
@@ -13611,8 +13618,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E428">
-        <v>2021</v>
+      <c r="E428" s="2">
+        <v>44197</v>
       </c>
       <c r="F428">
         <v>1357640076</v>
@@ -13642,8 +13649,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E429">
-        <v>2022</v>
+      <c r="E429" s="2">
+        <v>44562</v>
       </c>
       <c r="F429">
         <v>1323455250</v>
@@ -13673,8 +13680,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E430">
-        <v>2021</v>
+      <c r="E430" s="2">
+        <v>44197</v>
       </c>
       <c r="F430">
         <v>71567146</v>
@@ -13704,8 +13711,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E431">
-        <v>2022</v>
+      <c r="E431" s="2">
+        <v>44562</v>
       </c>
       <c r="F431">
         <v>26678052</v>
@@ -13735,8 +13742,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E432">
-        <v>2021</v>
+      <c r="E432" s="2">
+        <v>44197</v>
       </c>
       <c r="F432">
         <v>26868337</v>
@@ -13766,8 +13773,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E433">
-        <v>2022</v>
+      <c r="E433" s="2">
+        <v>44562</v>
       </c>
       <c r="F433">
         <v>23466011</v>
@@ -13797,8 +13804,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E434">
-        <v>2021</v>
+      <c r="E434" s="2">
+        <v>44197</v>
       </c>
       <c r="F434">
         <v>215358911</v>
@@ -13828,8 +13835,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E435">
-        <v>2022</v>
+      <c r="E435" s="2">
+        <v>44562</v>
       </c>
       <c r="F435">
         <v>206336810</v>
@@ -13859,8 +13866,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E436">
-        <v>2021</v>
+      <c r="E436" s="2">
+        <v>44197</v>
       </c>
       <c r="F436">
         <v>488822568</v>
@@ -13890,8 +13897,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E437">
-        <v>2022</v>
+      <c r="E437" s="2">
+        <v>44562</v>
       </c>
       <c r="F437">
         <v>578176840</v>
@@ -13921,8 +13928,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E438">
-        <v>2021</v>
+      <c r="E438" s="2">
+        <v>44197</v>
       </c>
       <c r="F438">
         <v>885544653</v>
@@ -13952,8 +13959,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E439">
-        <v>2022</v>
+      <c r="E439" s="2">
+        <v>44562</v>
       </c>
       <c r="F439">
         <v>967840058</v>
@@ -13983,8 +13990,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E440">
-        <v>2021</v>
+      <c r="E440" s="2">
+        <v>44197</v>
       </c>
       <c r="F440">
         <v>8515752</v>
@@ -14014,8 +14021,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E441">
-        <v>2022</v>
+      <c r="E441" s="2">
+        <v>44562</v>
       </c>
       <c r="F441">
         <v>4043388</v>
@@ -14045,8 +14052,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E442">
-        <v>2021</v>
+      <c r="E442" s="2">
+        <v>44197</v>
       </c>
       <c r="F442">
         <v>1812635</v>
@@ -14076,8 +14083,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E443">
-        <v>2022</v>
+      <c r="E443" s="2">
+        <v>44562</v>
       </c>
       <c r="F443">
         <v>4447412</v>
@@ -14107,8 +14114,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E444">
-        <v>2021</v>
+      <c r="E444" s="2">
+        <v>44197</v>
       </c>
       <c r="F444">
         <v>87463380</v>
@@ -14138,8 +14145,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E445">
-        <v>2022</v>
+      <c r="E445" s="2">
+        <v>44562</v>
       </c>
       <c r="F445">
         <v>100967869</v>
@@ -14169,8 +14176,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E446">
-        <v>2021</v>
+      <c r="E446" s="2">
+        <v>44197</v>
       </c>
       <c r="F446">
         <v>2063257732</v>
@@ -14200,8 +14207,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E447">
-        <v>2022</v>
+      <c r="E447" s="2">
+        <v>44562</v>
       </c>
       <c r="F447">
         <v>2006222264</v>
@@ -14231,8 +14238,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E448">
-        <v>2021</v>
+      <c r="E448" s="2">
+        <v>44197</v>
       </c>
       <c r="F448">
         <v>1290594346</v>
@@ -14262,8 +14269,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E449">
-        <v>2022</v>
+      <c r="E449" s="2">
+        <v>44562</v>
       </c>
       <c r="F449">
         <v>321846662</v>
@@ -14293,8 +14300,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E450">
-        <v>2021</v>
+      <c r="E450" s="2">
+        <v>44197</v>
       </c>
       <c r="F450">
         <v>313831177</v>
@@ -14324,8 +14331,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E451">
-        <v>2022</v>
+      <c r="E451" s="2">
+        <v>44562</v>
       </c>
       <c r="F451">
         <v>366168757</v>
@@ -14355,8 +14362,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E452">
-        <v>2021</v>
+      <c r="E452" s="2">
+        <v>44197</v>
       </c>
       <c r="F452">
         <v>5472228346131</v>
@@ -14386,8 +14393,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E453">
-        <v>2022</v>
+      <c r="E453" s="2">
+        <v>44562</v>
       </c>
       <c r="F453">
         <v>5897633137848</v>
@@ -14417,8 +14424,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E454">
-        <v>2021</v>
+      <c r="E454" s="2">
+        <v>44197</v>
       </c>
       <c r="F454">
         <v>1176788552168</v>
@@ -14448,8 +14455,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E455">
-        <v>2022</v>
+      <c r="E455" s="2">
+        <v>44562</v>
       </c>
       <c r="F455">
         <v>1647760228479</v>

--- a/data/imf_total_exports_2021A.xlsx
+++ b/data/imf_total_exports_2021A.xlsx
@@ -391,7 +391,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>923586872758</v>
+        <v>925287501808</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -409,7 +409,7 @@
         <v>44562</v>
       </c>
       <c r="B3">
-        <v>1301216908197</v>
+        <v>1295755140061</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -427,7 +427,7 @@
         <v>44197</v>
       </c>
       <c r="B4">
-        <v>81239605833</v>
+        <v>81241197463</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         <v>44562</v>
       </c>
       <c r="B5">
-        <v>124427845251</v>
+        <v>124529084679</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -463,7 +463,7 @@
         <v>44197</v>
       </c>
       <c r="B6">
-        <v>87388114977</v>
+        <v>87388114896</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>44562</v>
       </c>
       <c r="B7">
-        <v>96706966763</v>
+        <v>96437281520</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         <v>44197</v>
       </c>
       <c r="B8">
-        <v>1411875549</v>
+        <v>1622313210</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         <v>44562</v>
       </c>
       <c r="B9">
-        <v>1566350022</v>
+        <v>1813305005</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         <v>44197</v>
       </c>
       <c r="B12">
-        <v>189524794453</v>
+        <v>189515440204</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         <v>44562</v>
       </c>
       <c r="B13">
-        <v>197825954907</v>
+        <v>196138529713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         <v>44562</v>
       </c>
       <c r="B15">
-        <v>17947848105</v>
+        <v>18185594331</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>44197</v>
       </c>
       <c r="B16">
-        <v>5821624149</v>
+        <v>5821625019</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44562</v>
       </c>
       <c r="B17">
-        <v>5745176767</v>
+        <v>6061193108</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44197</v>
       </c>
       <c r="B18">
-        <v>505755692</v>
+        <v>505755721</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B20">
-        <v>5194857137</v>
+        <v>5194857138</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         <v>44562</v>
       </c>
       <c r="B21">
-        <v>4904300758</v>
+        <v>5709543958</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44197</v>
       </c>
       <c r="B22">
-        <v>1023799460</v>
+        <v>1023799763</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44562</v>
       </c>
       <c r="B23">
-        <v>1337315407</v>
+        <v>1298390207</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44197</v>
       </c>
       <c r="B24">
-        <v>5092716381076</v>
+        <v>5092883118575</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>44562</v>
       </c>
       <c r="B25">
-        <v>5585269157910</v>
+        <v>5586340060268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>44197</v>
       </c>
       <c r="B26">
-        <v>1508338165342</v>
+        <v>1486427135288</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B27">
-        <v>1650202719731</v>
+        <v>1666096437177</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44197</v>
       </c>
       <c r="B28">
-        <v>15467737933</v>
+        <v>15486469478</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44562</v>
       </c>
       <c r="B29">
-        <v>16668575792</v>
+        <v>16684246904</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44562</v>
       </c>
       <c r="B31">
-        <v>1370944073</v>
+        <v>1367209650</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44197</v>
       </c>
       <c r="B32">
-        <v>5121376250</v>
+        <v>5121224164</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44562</v>
       </c>
       <c r="B33">
-        <v>7347487583</v>
+        <v>7352052976</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44197</v>
       </c>
       <c r="B34">
-        <v>35116222451</v>
+        <v>35116222381</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44562</v>
       </c>
       <c r="B35">
-        <v>52707846563</v>
+        <v>53990599005</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44197</v>
       </c>
       <c r="B36">
-        <v>7898732029</v>
+        <v>7898423267</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44562</v>
       </c>
       <c r="B37">
-        <v>9509458036</v>
+        <v>9526892957</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44562</v>
       </c>
       <c r="B41">
-        <v>159007612</v>
+        <v>159010757</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44562</v>
       </c>
       <c r="B47">
-        <v>34344776316</v>
+        <v>34439606205</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44197</v>
       </c>
       <c r="B48">
-        <v>5153983808</v>
+        <v>5157498750</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44562</v>
       </c>
       <c r="B49">
-        <v>7380837100</v>
+        <v>7357731628</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>44562</v>
       </c>
       <c r="B53">
-        <v>4246457282</v>
+        <v>4113521617</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44197</v>
       </c>
       <c r="B54">
-        <v>1704092104</v>
+        <v>1705010930</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44562</v>
       </c>
       <c r="B55">
-        <v>1341554483</v>
+        <v>1338492471</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44197</v>
       </c>
       <c r="B56">
-        <v>7206283135</v>
+        <v>7202088222</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44562</v>
       </c>
       <c r="B57">
-        <v>9593482632</v>
+        <v>9602447714</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44197</v>
       </c>
       <c r="B58">
-        <v>55738726174</v>
+        <v>56091240259</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44562</v>
       </c>
       <c r="B59">
-        <v>63262479940</v>
+        <v>63407365755</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44197</v>
       </c>
       <c r="B64">
-        <v>3294806657</v>
+        <v>3295516834</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44562</v>
       </c>
       <c r="B65">
-        <v>3337647098</v>
+        <v>3531385123</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44197</v>
       </c>
       <c r="B68">
-        <v>28248919</v>
+        <v>30472874</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44562</v>
       </c>
       <c r="B69">
-        <v>42316752</v>
+        <v>48121061</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44562</v>
       </c>
       <c r="B71">
-        <v>13056701268</v>
+        <v>12918062362</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44197</v>
       </c>
       <c r="B72">
-        <v>112839351</v>
+        <v>112839353</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44562</v>
       </c>
       <c r="B73">
-        <v>106120859</v>
+        <v>118301985</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44197</v>
       </c>
       <c r="B76">
-        <v>18460488070</v>
+        <v>18460488072</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44562</v>
       </c>
       <c r="B77">
-        <v>22339410831</v>
+        <v>22196921854</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44197</v>
       </c>
       <c r="B78">
-        <v>720705623</v>
+        <v>599506571</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>44562</v>
       </c>
       <c r="B79">
-        <v>563327899</v>
+        <v>410332476</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44197</v>
       </c>
       <c r="B80">
-        <v>1023895056</v>
+        <v>1026604571</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44562</v>
       </c>
       <c r="B81">
-        <v>1007248327</v>
+        <v>1051575723</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44197</v>
       </c>
       <c r="B82">
-        <v>4256702877</v>
+        <v>4256695084</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44562</v>
       </c>
       <c r="B83">
-        <v>8123894360</v>
+        <v>5101924615</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44197</v>
       </c>
       <c r="B84">
-        <v>579259001</v>
+        <v>575417279</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44562</v>
       </c>
       <c r="B85">
-        <v>1957741350</v>
+        <v>1955573191</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44197</v>
       </c>
       <c r="B86">
-        <v>615635199934</v>
+        <v>615635199901</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44562</v>
       </c>
       <c r="B87">
-        <v>657038683591</v>
+        <v>654552215367</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44197</v>
       </c>
       <c r="B88">
-        <v>1562523714</v>
+        <v>1562523718</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44197</v>
       </c>
       <c r="B90">
-        <v>21877520555</v>
+        <v>21877520351</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44562</v>
       </c>
       <c r="B91">
-        <v>25305653307</v>
+        <v>25224159724</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44197</v>
       </c>
       <c r="B92">
-        <v>65826467477</v>
+        <v>65826467475</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44197</v>
       </c>
       <c r="B94">
-        <v>1060959270547</v>
+        <v>1061381079745</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44562</v>
       </c>
       <c r="B95">
-        <v>1484532858620</v>
+        <v>1474986212254</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44197</v>
       </c>
       <c r="B96">
-        <v>47217829186</v>
+        <v>47217829177</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44562</v>
       </c>
       <c r="B97">
-        <v>57391609834</v>
+        <v>57227543992</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44197</v>
       </c>
       <c r="B98">
-        <v>3591811125</v>
+        <v>3303041126</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44562</v>
       </c>
       <c r="B99">
-        <v>5319629516</v>
+        <v>5043582431</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44197</v>
       </c>
       <c r="B100">
-        <v>202805954177</v>
+        <v>202805953976</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44562</v>
       </c>
       <c r="B101">
-        <v>211391996842</v>
+        <v>209657726923</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44197</v>
       </c>
       <c r="B102">
-        <v>18095969440</v>
+        <v>18179242441</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44562</v>
       </c>
       <c r="B103">
-        <v>18531443961</v>
+        <v>18920664405</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44197</v>
       </c>
       <c r="B104">
-        <v>7705493530822</v>
+        <v>7686271297366</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44562</v>
       </c>
       <c r="B105">
-        <v>8535315364708.001</v>
+        <v>8512118104997</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44197</v>
       </c>
       <c r="B106">
-        <v>132703817</v>
+        <v>121498357</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44562</v>
       </c>
       <c r="B107">
-        <v>90721830</v>
+        <v>85104192</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44197</v>
       </c>
       <c r="B108">
-        <v>627010707</v>
+        <v>4267404483</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44562</v>
       </c>
       <c r="B109">
-        <v>676409597</v>
+        <v>4919069774</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44562</v>
       </c>
       <c r="B111">
-        <v>254201009047</v>
+        <v>254197383986</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44197</v>
       </c>
       <c r="B112">
-        <v>21520018099</v>
+        <v>21520017962</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44562</v>
       </c>
       <c r="B113">
-        <v>22404764569</v>
+        <v>22334797902</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44197</v>
       </c>
       <c r="B114">
-        <v>409778754</v>
+        <v>405447016</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44562</v>
       </c>
       <c r="B115">
-        <v>490558565</v>
+        <v>489570494</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>44197</v>
       </c>
       <c r="B116">
-        <v>122354020983</v>
+        <v>122354020967</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44562</v>
       </c>
       <c r="B117">
-        <v>123387268726</v>
+        <v>123387268742</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44197</v>
       </c>
       <c r="B118">
-        <v>456881517599</v>
+        <v>456881164813</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44562</v>
       </c>
       <c r="B119">
-        <v>516016210061</v>
+        <v>516016205357</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44197</v>
       </c>
       <c r="B120">
-        <v>74619469587</v>
+        <v>74619469494</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44562</v>
       </c>
       <c r="B121">
-        <v>80951915150</v>
+        <v>80826352001</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44562</v>
       </c>
       <c r="B123">
-        <v>15683554945</v>
+        <v>15683554943</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44562</v>
       </c>
       <c r="B125">
-        <v>83290272138</v>
+        <v>95602433502</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44197</v>
       </c>
       <c r="B126">
-        <v>4790601254</v>
+        <v>5201138541</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44562</v>
       </c>
       <c r="B127">
-        <v>7569297947</v>
+        <v>6109499655</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44197</v>
       </c>
       <c r="B128">
-        <v>386245450534</v>
+        <v>386779968790</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44562</v>
       </c>
       <c r="B129">
-        <v>466925664809</v>
+        <v>481509054441</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44197</v>
       </c>
       <c r="B130">
-        <v>11949099437</v>
+        <v>10296997508</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44562</v>
       </c>
       <c r="B131">
-        <v>21449715939</v>
+        <v>17654448431</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44197</v>
       </c>
       <c r="B134">
-        <v>203061551</v>
+        <v>206895370</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44562</v>
       </c>
       <c r="B135">
-        <v>303490066</v>
+        <v>300831270</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44197</v>
       </c>
       <c r="B136">
-        <v>4998131851</v>
+        <v>5679904233</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44562</v>
       </c>
       <c r="B137">
-        <v>5177232818</v>
+        <v>5906246563</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44197</v>
       </c>
       <c r="B138">
-        <v>41157188704</v>
+        <v>41157188671</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44562</v>
       </c>
       <c r="B139">
-        <v>50238784706</v>
+        <v>50653770284</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44197</v>
       </c>
       <c r="B140">
-        <v>87200560581</v>
+        <v>87165659554</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44562</v>
       </c>
       <c r="B141">
-        <v>137376104022</v>
+        <v>130920851816</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44562</v>
       </c>
       <c r="B143">
-        <v>37975978068</v>
+        <v>38771573432</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44197</v>
       </c>
       <c r="B144">
-        <v>16800336263</v>
+        <v>16800336177</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44562</v>
       </c>
       <c r="B145">
-        <v>17274356544</v>
+        <v>17405315871</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44197</v>
       </c>
       <c r="B146">
-        <v>1646292329689</v>
+        <v>1644865209588</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44562</v>
       </c>
       <c r="B147">
-        <v>2218934533298</v>
+        <v>2266812442856</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44197</v>
       </c>
       <c r="B150">
-        <v>76314661</v>
+        <v>73819853</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44562</v>
       </c>
       <c r="B151">
-        <v>73978518</v>
+        <v>73192200</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44197</v>
       </c>
       <c r="B152">
-        <v>493348026793</v>
+        <v>492581163873</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44562</v>
       </c>
       <c r="B153">
-        <v>619251284288</v>
+        <v>629752449045</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44562</v>
       </c>
       <c r="B155">
-        <v>320067196</v>
+        <v>320067195</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44197</v>
       </c>
       <c r="B156">
-        <v>17594333454</v>
+        <v>17594333807</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44562</v>
       </c>
       <c r="B157">
-        <v>23078465454</v>
+        <v>23219508571</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44197</v>
       </c>
       <c r="B160">
-        <v>9351785860511</v>
+        <v>9331136506954</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44562</v>
       </c>
       <c r="B161">
-        <v>10754249898006</v>
+        <v>10778930547853</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44197</v>
       </c>
       <c r="B162">
-        <v>27381078426</v>
+        <v>27813302121</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44562</v>
       </c>
       <c r="B163">
-        <v>41271015345</v>
+        <v>40294255249</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44197</v>
       </c>
       <c r="B166">
-        <v>750137760</v>
+        <v>750137751</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44562</v>
       </c>
       <c r="B167">
-        <v>851475612</v>
+        <v>844583053</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44197</v>
       </c>
       <c r="B168">
-        <v>527136291</v>
+        <v>533658657.9999999</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44562</v>
       </c>
       <c r="B169">
-        <v>638995966</v>
+        <v>654432852</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44197</v>
       </c>
       <c r="B170">
-        <v>12445363332</v>
+        <v>12447878326</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44562</v>
       </c>
       <c r="B171">
-        <v>13626163798</v>
+        <v>13644164824</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44197</v>
       </c>
       <c r="B172">
-        <v>15159029402</v>
+        <v>15161318900</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44562</v>
       </c>
       <c r="B173">
-        <v>20411979906</v>
+        <v>20425594177</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44197</v>
       </c>
       <c r="B174">
-        <v>8377133986.999999</v>
+        <v>8377121929.000001</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44562</v>
       </c>
       <c r="B175">
-        <v>13286231743</v>
+        <v>13286276939</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44562</v>
       </c>
       <c r="B177">
-        <v>16844400758</v>
+        <v>22183587434</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44197</v>
       </c>
       <c r="B180">
-        <v>17489763756</v>
+        <v>17377466486</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44562</v>
       </c>
       <c r="B181">
-        <v>24315655908</v>
+        <v>24227150361</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44197</v>
       </c>
       <c r="B182">
-        <v>362156497</v>
+        <v>705565978</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>44562</v>
       </c>
       <c r="B183">
-        <v>377030249</v>
+        <v>805594380</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44197</v>
       </c>
       <c r="B184">
-        <v>13317602487</v>
+        <v>13320449817</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44562</v>
       </c>
       <c r="B185">
-        <v>17054345451</v>
+        <v>17062585113</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44197</v>
       </c>
       <c r="B186">
-        <v>1502012892</v>
+        <v>1501821402</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44562</v>
       </c>
       <c r="B187">
-        <v>1970656623</v>
+        <v>2096899105</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44197</v>
       </c>
       <c r="B188">
-        <v>216044336</v>
+        <v>218678542</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44562</v>
       </c>
       <c r="B189">
-        <v>248729987</v>
+        <v>256718145</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44197</v>
       </c>
       <c r="B190">
-        <v>77629061078</v>
+        <v>77629062204</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44562</v>
       </c>
       <c r="B191">
-        <v>90072130752</v>
+        <v>88620269149</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44197</v>
       </c>
       <c r="B192">
-        <v>3227683856</v>
+        <v>3205233486</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44562</v>
       </c>
       <c r="B193">
-        <v>3733969703</v>
+        <v>3719361938</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44197</v>
       </c>
       <c r="B194">
-        <v>26775746</v>
+        <v>26772708</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44562</v>
       </c>
       <c r="B195">
-        <v>31865260</v>
+        <v>31979118</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44197</v>
       </c>
       <c r="B196">
-        <v>548868945936</v>
+        <v>548868945700.0001</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44562</v>
       </c>
       <c r="B197">
-        <v>635514337888</v>
+        <v>628767851953</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>44197</v>
       </c>
       <c r="B202">
-        <v>261239072909</v>
+        <v>259939698021</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44562</v>
       </c>
       <c r="B203">
-        <v>360394063832</v>
+        <v>358556948901</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44197</v>
       </c>
       <c r="B204">
-        <v>81995695786</v>
+        <v>81995695893</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44562</v>
       </c>
       <c r="B205">
-        <v>85907059063</v>
+        <v>85589722175</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44197</v>
       </c>
       <c r="B206">
-        <v>1476349167</v>
+        <v>1476738314</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44562</v>
       </c>
       <c r="B207">
-        <v>1068628895</v>
+        <v>1055793401</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>44197</v>
       </c>
       <c r="B208">
-        <v>74219849</v>
+        <v>74266884</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44562</v>
       </c>
       <c r="B209">
-        <v>58883704</v>
+        <v>58797476</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44197</v>
       </c>
       <c r="B210">
-        <v>190658115547</v>
+        <v>190658115266</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44562</v>
       </c>
       <c r="B211">
-        <v>213991055481</v>
+        <v>211680156902</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>44197</v>
       </c>
       <c r="B214">
-        <v>16815047953</v>
+        <v>16815047952</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44562</v>
       </c>
       <c r="B215">
-        <v>18558038104</v>
+        <v>18327295966</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44197</v>
       </c>
       <c r="B216">
-        <v>1644269913</v>
+        <v>1608837345</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44562</v>
       </c>
       <c r="B217">
-        <v>2263671795</v>
+        <v>2078757477</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44562</v>
       </c>
       <c r="B219">
-        <v>449535857035</v>
+        <v>449535821464</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44197</v>
       </c>
       <c r="B220">
-        <v>2378175928</v>
+        <v>2376759762</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44562</v>
       </c>
       <c r="B221">
-        <v>3729060611</v>
+        <v>3729745320</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44197</v>
       </c>
       <c r="B224">
-        <v>28681421762</v>
+        <v>28681421763</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44562</v>
       </c>
       <c r="B225">
-        <v>30019339966</v>
+        <v>30014721581</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44197</v>
       </c>
       <c r="B226">
-        <v>454079837</v>
+        <v>343468388</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44562</v>
       </c>
       <c r="B227">
-        <v>448836637</v>
+        <v>275912972</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44197</v>
       </c>
       <c r="B228">
-        <v>1195831213</v>
+        <v>1403634668</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44562</v>
       </c>
       <c r="B229">
-        <v>1317620035</v>
+        <v>1556586860</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44197</v>
       </c>
       <c r="B230">
-        <v>36820212</v>
+        <v>37345124</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44562</v>
       </c>
       <c r="B231">
-        <v>37145766</v>
+        <v>40107309</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44197</v>
       </c>
       <c r="B234">
-        <v>9349414607</v>
+        <v>9386566249</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44562</v>
       </c>
       <c r="B235">
-        <v>12820660645</v>
+        <v>13210353138</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44562</v>
       </c>
       <c r="B237">
-        <v>43383566724</v>
+        <v>42693273233</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44197</v>
       </c>
       <c r="B238">
-        <v>141830131160</v>
+        <v>141830131266</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44562</v>
       </c>
       <c r="B239">
-        <v>151540101075</v>
+        <v>150557814157</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44197</v>
       </c>
       <c r="B240">
-        <v>52979674</v>
+        <v>53130303</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44562</v>
       </c>
       <c r="B241">
-        <v>72097467</v>
+        <v>79954357</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44197</v>
       </c>
       <c r="B242">
-        <v>52570833</v>
+        <v>54640006</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44562</v>
       </c>
       <c r="B243">
-        <v>44557967</v>
+        <v>46803826</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44197</v>
       </c>
       <c r="B246">
-        <v>1658948495</v>
+        <v>1658948503</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44562</v>
       </c>
       <c r="B247">
-        <v>2186695034</v>
+        <v>2186695036</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44197</v>
       </c>
       <c r="B248">
-        <v>4399540648</v>
+        <v>4357054949</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44562</v>
       </c>
       <c r="B249">
-        <v>6171664019</v>
+        <v>5956847469</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44197</v>
       </c>
       <c r="B250">
-        <v>9277283656</v>
+        <v>9277283625</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44562</v>
       </c>
       <c r="B251">
-        <v>13276867150</v>
+        <v>14059435853</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44197</v>
       </c>
       <c r="B252">
-        <v>1079792698</v>
+        <v>1079792686</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44562</v>
       </c>
       <c r="B253">
-        <v>2715998013</v>
+        <v>3069452919</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>218501637</v>
+        <v>218501638</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44562</v>
       </c>
       <c r="B255">
-        <v>232044366</v>
+        <v>234504217</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44562</v>
       </c>
       <c r="B259">
-        <v>3550758994</v>
+        <v>3518766007</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44562</v>
       </c>
       <c r="B261">
-        <v>14362123292</v>
+        <v>15119114375</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44197</v>
       </c>
       <c r="B262">
-        <v>56236884800</v>
+        <v>56211275210</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44562</v>
       </c>
       <c r="B263">
-        <v>66471631148</v>
+        <v>60924474298</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44197</v>
       </c>
       <c r="B264">
-        <v>20874447</v>
+        <v>20878398</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44562</v>
       </c>
       <c r="B265">
-        <v>22587972</v>
+        <v>29597467</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>44197</v>
       </c>
       <c r="B268">
-        <v>340633516883</v>
+        <v>340633516545</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44562</v>
       </c>
       <c r="B269">
-        <v>360541931833</v>
+        <v>358784549732</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>44562</v>
       </c>
       <c r="B273">
-        <v>408348703780</v>
+        <v>407429581914</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44197</v>
       </c>
       <c r="B274">
-        <v>125944806080</v>
+        <v>125944806223</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44562</v>
       </c>
       <c r="B275">
-        <v>128861557225</v>
+        <v>130243842145</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44197</v>
       </c>
       <c r="B276">
-        <v>22050195261171</v>
+        <v>22051745996385</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44562</v>
       </c>
       <c r="B277">
-        <v>24655529674494</v>
+        <v>24683760287035</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44562</v>
       </c>
       <c r="B279">
-        <v>360341121878</v>
+        <v>360614968512</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44197</v>
       </c>
       <c r="B280">
-        <v>3063586579</v>
+        <v>3063586783</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44562</v>
       </c>
       <c r="B281">
-        <v>3207059252</v>
+        <v>3061580272</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44562</v>
       </c>
       <c r="B283">
-        <v>292305268543</v>
+        <v>291381632477</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44197</v>
       </c>
       <c r="B284">
-        <v>16657228</v>
+        <v>16951598</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>44562</v>
       </c>
       <c r="B285">
-        <v>17787532</v>
+        <v>18802702</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44197</v>
       </c>
       <c r="B288">
-        <v>1276838056</v>
+        <v>1277117155</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44562</v>
       </c>
       <c r="B289">
-        <v>1204616173</v>
+        <v>1205143714</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>44197</v>
       </c>
       <c r="B292">
-        <v>57351903433</v>
+        <v>57351903361</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44562</v>
       </c>
       <c r="B293">
-        <v>69700974155</v>
+        <v>67788215744</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44197</v>
       </c>
       <c r="B294">
-        <v>6647148171318</v>
+        <v>6647260619472</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44562</v>
       </c>
       <c r="B295">
-        <v>7150111746903</v>
+        <v>7127929079187</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44197</v>
       </c>
       <c r="B296">
-        <v>2452655301</v>
+        <v>2451638101</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44562</v>
       </c>
       <c r="B297">
-        <v>4193722161</v>
+        <v>4197415685</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44197</v>
       </c>
       <c r="B300">
-        <v>4695751872</v>
+        <v>4694313630</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44562</v>
       </c>
       <c r="B301">
-        <v>7673276422</v>
+        <v>7673565563</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44562</v>
       </c>
       <c r="B305">
-        <v>17614334709</v>
+        <v>22455485712</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44197</v>
       </c>
       <c r="B308">
-        <v>777035183</v>
+        <v>799675235</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44562</v>
       </c>
       <c r="B309">
-        <v>449403799</v>
+        <v>447708049</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44197</v>
       </c>
       <c r="B310">
-        <v>40705673741</v>
+        <v>40827476287</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>44562</v>
       </c>
       <c r="B311">
-        <v>46339780884</v>
+        <v>46102311835</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44197</v>
       </c>
       <c r="B312">
-        <v>6391040503</v>
+        <v>6390961801</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44562</v>
       </c>
       <c r="B313">
-        <v>9824773113</v>
+        <v>10013393874</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44197</v>
       </c>
       <c r="B314">
-        <v>1649978155</v>
+        <v>1650114721</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>44562</v>
       </c>
       <c r="B315">
-        <v>1646519465</v>
+        <v>1646526956</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>44197</v>
       </c>
       <c r="B316">
-        <v>75229280076</v>
+        <v>75229280013</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44562</v>
       </c>
       <c r="B317">
-        <v>82354805503</v>
+        <v>82315038472</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44197</v>
       </c>
       <c r="B318">
-        <v>20833171465</v>
+        <v>20833171861</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44562</v>
       </c>
       <c r="B319">
-        <v>24011049604</v>
+        <v>23738966139</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44197</v>
       </c>
       <c r="B320">
-        <v>5176358630</v>
+        <v>5222329639</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44562</v>
       </c>
       <c r="B321">
-        <v>5208977799</v>
+        <v>5282064086</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44197</v>
       </c>
       <c r="B322">
-        <v>1337931087</v>
+        <v>1424825108</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44562</v>
       </c>
       <c r="B323">
-        <v>1594022952</v>
+        <v>1794746992</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44562</v>
       </c>
       <c r="B327">
-        <v>572471050832</v>
+        <v>616489902684</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44197</v>
       </c>
       <c r="B328">
-        <v>716833758955</v>
+        <v>716888372597</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44562</v>
       </c>
       <c r="B329">
-        <v>818732854883</v>
+        <v>876536330608</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44197</v>
       </c>
       <c r="B330">
-        <v>31309030</v>
+        <v>28839300</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44562</v>
       </c>
       <c r="B331">
-        <v>28277421</v>
+        <v>24300893</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44197</v>
       </c>
       <c r="B332">
-        <v>18109303001</v>
+        <v>17395607850</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44562</v>
       </c>
       <c r="B333">
-        <v>18564496772</v>
+        <v>19569558039</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44197</v>
       </c>
       <c r="B334">
-        <v>12696997525111</v>
+        <v>12718987176221</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44562</v>
       </c>
       <c r="B335">
-        <v>13899713426466</v>
+        <v>13903016434177</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44197</v>
       </c>
       <c r="B336">
-        <v>957862157</v>
+        <v>957920164</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44562</v>
       </c>
       <c r="B337">
-        <v>997924369</v>
+        <v>988185207</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44197</v>
       </c>
       <c r="B338">
-        <v>3887900803</v>
+        <v>3887900895</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44562</v>
       </c>
       <c r="B339">
-        <v>4342448272</v>
+        <v>3697434073</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>44197</v>
       </c>
       <c r="B340">
-        <v>356063393</v>
+        <v>355678207</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44562</v>
       </c>
       <c r="B341">
-        <v>378598104</v>
+        <v>379362593</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44197</v>
       </c>
       <c r="B344">
-        <v>379969120569</v>
+        <v>379969121033</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>44562</v>
       </c>
       <c r="B345">
-        <v>418364066638</v>
+        <v>416599076726</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44197</v>
       </c>
       <c r="B348">
-        <v>379401552404</v>
+        <v>379401552387</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44562</v>
       </c>
       <c r="B349">
-        <v>401706622689</v>
+        <v>401751970003</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44197</v>
       </c>
       <c r="B350">
-        <v>36344059715</v>
+        <v>36171104721</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44562</v>
       </c>
       <c r="B351">
-        <v>46483050628</v>
+        <v>45027191469</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44197</v>
       </c>
       <c r="B354">
-        <v>103891285834</v>
+        <v>103891285857</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44562</v>
       </c>
       <c r="B355">
-        <v>107770858037</v>
+        <v>107587176916</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44197</v>
       </c>
       <c r="B358">
-        <v>25559357631</v>
+        <v>25559357676</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>44562</v>
       </c>
       <c r="B359">
-        <v>29056978647</v>
+        <v>29056978443</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44197</v>
       </c>
       <c r="B360">
-        <v>1069721028</v>
+        <v>1076702205</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44562</v>
       </c>
       <c r="B361">
-        <v>1053607800</v>
+        <v>1077165303</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44197</v>
       </c>
       <c r="B362">
-        <v>1187697311391</v>
+        <v>1187781309291</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44562</v>
       </c>
       <c r="B363">
-        <v>1404092127077</v>
+        <v>1392948684205</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44197</v>
       </c>
       <c r="B364">
-        <v>95674498</v>
+        <v>83612218</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>44562</v>
       </c>
       <c r="B365">
-        <v>79364778</v>
+        <v>81215243</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44562</v>
       </c>
       <c r="B367">
-        <v>94062283605</v>
+        <v>92942210428</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>44197</v>
       </c>
       <c r="B368">
-        <v>14063261482</v>
+        <v>14081079835</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44562</v>
       </c>
       <c r="B369">
-        <v>14253365581</v>
+        <v>15349649063</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44197</v>
       </c>
       <c r="B370">
-        <v>1508338165342</v>
+        <v>1486427135288</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44562</v>
       </c>
       <c r="B371">
-        <v>1650202719731</v>
+        <v>1666096437177</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44197</v>
       </c>
       <c r="B374">
-        <v>6730576026</v>
+        <v>6731715277</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44562</v>
       </c>
       <c r="B375">
-        <v>7219712818</v>
+        <v>8322250615.999999</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>44197</v>
       </c>
       <c r="B378">
-        <v>46288059</v>
+        <v>46586722</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44562</v>
       </c>
       <c r="B379">
-        <v>47546631</v>
+        <v>49908599</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44197</v>
       </c>
       <c r="B380">
-        <v>3686245702</v>
+        <v>3686245690</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>44562</v>
       </c>
       <c r="B381">
-        <v>4661918529</v>
+        <v>4256929628</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>44197</v>
       </c>
       <c r="B382">
-        <v>226563752375</v>
+        <v>226563752471</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44562</v>
       </c>
       <c r="B383">
-        <v>241457659239</v>
+        <v>241155768959</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44197</v>
       </c>
       <c r="B384">
-        <v>1473771201</v>
+        <v>1473414842</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44562</v>
       </c>
       <c r="B385">
-        <v>1577107897</v>
+        <v>1601700205</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>44197</v>
       </c>
       <c r="B386">
-        <v>8899187039</v>
+        <v>8505383388</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44562</v>
       </c>
       <c r="B387">
-        <v>10177581712</v>
+        <v>11382812380</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44197</v>
       </c>
       <c r="B388">
-        <v>31468320</v>
+        <v>32064906</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44562</v>
       </c>
       <c r="B389">
-        <v>26592982</v>
+        <v>25832147</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44197</v>
       </c>
       <c r="B390">
-        <v>42962642</v>
+        <v>43185606</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44562</v>
       </c>
       <c r="B391">
-        <v>25901066</v>
+        <v>26817412</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44197</v>
       </c>
       <c r="B394">
-        <v>40696756050</v>
+        <v>40696663981</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44562</v>
       </c>
       <c r="B395">
-        <v>48361226990</v>
+        <v>48764476847</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44197</v>
       </c>
       <c r="B396">
-        <v>7114200093</v>
+        <v>7114200867</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44562</v>
       </c>
       <c r="B397">
-        <v>8463614334</v>
+        <v>8421454924</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44197</v>
       </c>
       <c r="B398">
-        <v>18887541</v>
+        <v>18783599</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44562</v>
       </c>
       <c r="B399">
-        <v>16832931</v>
+        <v>16646894</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44197</v>
       </c>
       <c r="B400">
-        <v>36817249</v>
+        <v>36537967</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44562</v>
       </c>
       <c r="B401">
-        <v>185207141</v>
+        <v>73436711</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44197</v>
       </c>
       <c r="B402">
-        <v>6429529563</v>
+        <v>6430275276</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44562</v>
       </c>
       <c r="B403">
-        <v>6342538396</v>
+        <v>6337031528</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44197</v>
       </c>
       <c r="B404">
-        <v>1657689626</v>
+        <v>1656897733</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44562</v>
       </c>
       <c r="B405">
-        <v>2085033975</v>
+        <v>2076193922</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44197</v>
       </c>
       <c r="B406">
-        <v>220977580</v>
+        <v>225062365</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44562</v>
       </c>
       <c r="B407">
-        <v>236877267</v>
+        <v>240485937</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44197</v>
       </c>
       <c r="B408">
-        <v>154429266</v>
+        <v>156352609</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44562</v>
       </c>
       <c r="B409">
-        <v>414293536</v>
+        <v>415826480</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44197</v>
       </c>
       <c r="B410">
-        <v>668865211</v>
+        <v>670308248</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44562</v>
       </c>
       <c r="B411">
-        <v>631106440</v>
+        <v>631930857</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44197</v>
       </c>
       <c r="B412">
-        <v>232102189</v>
+        <v>242453499</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44562</v>
       </c>
       <c r="B413">
-        <v>226642043</v>
+        <v>231074054</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44197</v>
       </c>
       <c r="B414">
-        <v>164153485</v>
+        <v>197240876</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44562</v>
       </c>
       <c r="B415">
-        <v>196033175</v>
+        <v>230425596</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44197</v>
       </c>
       <c r="B416">
-        <v>201004649</v>
+        <v>201536372</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44562</v>
       </c>
       <c r="B417">
-        <v>197131168</v>
+        <v>196788748</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44197</v>
       </c>
       <c r="B418">
-        <v>35294202</v>
+        <v>35817236</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44562</v>
       </c>
       <c r="B419">
-        <v>36597436</v>
+        <v>37112082</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44197</v>
       </c>
       <c r="B420">
-        <v>811364585</v>
+        <v>811285856</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44562</v>
       </c>
       <c r="B421">
-        <v>521587179</v>
+        <v>525247959.0000001</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>44197</v>
       </c>
       <c r="B422">
-        <v>266037717</v>
+        <v>266168846</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>44562</v>
       </c>
       <c r="B423">
-        <v>131533274</v>
+        <v>131271670</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44197</v>
       </c>
       <c r="B424">
-        <v>1364317559</v>
+        <v>1377712002</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44562</v>
       </c>
       <c r="B425">
-        <v>1232706446</v>
+        <v>1227399876</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44562</v>
       </c>
       <c r="B427">
-        <v>1841833323</v>
+        <v>1791954574</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44562</v>
       </c>
       <c r="B429">
-        <v>1323455250</v>
+        <v>1544120041</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44197</v>
       </c>
       <c r="B430">
-        <v>71567146</v>
+        <v>71579705</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44562</v>
       </c>
       <c r="B431">
-        <v>26678052</v>
+        <v>26809603</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44197</v>
       </c>
       <c r="B432">
-        <v>26868337</v>
+        <v>26920256</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44562</v>
       </c>
       <c r="B433">
-        <v>23466011</v>
+        <v>23418444</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44197</v>
       </c>
       <c r="B434">
-        <v>215358911</v>
+        <v>215354935</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44562</v>
       </c>
       <c r="B435">
-        <v>206336810</v>
+        <v>207109076</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44197</v>
       </c>
       <c r="B436">
-        <v>488822568</v>
+        <v>488919365</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44562</v>
       </c>
       <c r="B437">
-        <v>578176840</v>
+        <v>578196904</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44197</v>
       </c>
       <c r="B440">
-        <v>8515752</v>
+        <v>8548872</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44562</v>
       </c>
       <c r="B441">
-        <v>4043388</v>
+        <v>3790215</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44197</v>
       </c>
       <c r="B442">
-        <v>1812635</v>
+        <v>1812369</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>44562</v>
       </c>
       <c r="B443">
-        <v>4447412</v>
+        <v>4442395</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44197</v>
       </c>
       <c r="B444">
-        <v>87463380</v>
+        <v>87601213</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44562</v>
       </c>
       <c r="B445">
-        <v>100967869</v>
+        <v>101292394</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44197</v>
       </c>
       <c r="B446">
-        <v>2063257732</v>
+        <v>2063259704</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44562</v>
       </c>
       <c r="B447">
-        <v>2006222264</v>
+        <v>2009211365</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44197</v>
       </c>
       <c r="B448">
-        <v>1290594346</v>
+        <v>1308895046</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44562</v>
       </c>
       <c r="B449">
-        <v>321846662</v>
+        <v>323178643</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44197</v>
       </c>
       <c r="B450">
-        <v>313831177</v>
+        <v>313843137</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44562</v>
       </c>
       <c r="B451">
-        <v>366168757</v>
+        <v>366000672</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44197</v>
       </c>
       <c r="B452">
-        <v>5472228346131</v>
+        <v>5494227669196</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44562</v>
       </c>
       <c r="B453">
-        <v>5897633137848</v>
+        <v>5903957522677</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44197</v>
       </c>
       <c r="B454">
-        <v>1176788552168</v>
+        <v>1177264975010</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44562</v>
       </c>
       <c r="B455">
-        <v>1647760228479</v>
+        <v>1652036311762</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>

--- a/data/imf_total_exports_2021A.xlsx
+++ b/data/imf_total_exports_2021A.xlsx
@@ -391,7 +391,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>924943499924</v>
+        <v>923957548421</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -409,7 +409,7 @@
         <v>44562</v>
       </c>
       <c r="B3">
-        <v>1293681723537</v>
+        <v>1288552086405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -427,7 +427,7 @@
         <v>44197</v>
       </c>
       <c r="B4">
-        <v>81240932346</v>
+        <v>81241039013</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         <v>44562</v>
       </c>
       <c r="B5">
-        <v>125911297629</v>
+        <v>125924553794</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         <v>44197</v>
       </c>
       <c r="B8">
-        <v>1411835132</v>
+        <v>1412421864</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         <v>44562</v>
       </c>
       <c r="B9">
-        <v>1576859155</v>
+        <v>1578136745</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44197</v>
       </c>
       <c r="B18">
-        <v>505751779</v>
+        <v>505755705</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44562</v>
       </c>
       <c r="B19">
-        <v>742313702</v>
+        <v>742312921</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44197</v>
       </c>
       <c r="B22">
-        <v>3297998944</v>
+        <v>3297998941</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44562</v>
       </c>
       <c r="B23">
-        <v>4333391213</v>
+        <v>4336667215</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44197</v>
       </c>
       <c r="B24">
-        <v>5092924882458</v>
+        <v>5092924143873</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>44562</v>
       </c>
       <c r="B25">
-        <v>5590680467179</v>
+        <v>5590618781466</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>44197</v>
       </c>
       <c r="B26">
-        <v>1486469304246</v>
+        <v>1486469253893</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B27">
-        <v>1624340121089</v>
+        <v>1624036074958</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44197</v>
       </c>
       <c r="B28">
-        <v>15497002282</v>
+        <v>15469851270</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44562</v>
       </c>
       <c r="B29">
-        <v>16713536063</v>
+        <v>16667143963</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44562</v>
       </c>
       <c r="B31">
-        <v>1401173854</v>
+        <v>1400847357</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44197</v>
       </c>
       <c r="B32">
-        <v>5121362659</v>
+        <v>5121416615</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44562</v>
       </c>
       <c r="B33">
-        <v>7384279113</v>
+        <v>7420726279</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44197</v>
       </c>
       <c r="B34">
-        <v>35116206394</v>
+        <v>35116206439</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44562</v>
       </c>
       <c r="B35">
-        <v>51443392830</v>
+        <v>51443392823</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44197</v>
       </c>
       <c r="B36">
-        <v>7898257476</v>
+        <v>7898242550</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44562</v>
       </c>
       <c r="B37">
-        <v>9517406902</v>
+        <v>9517767893</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44562</v>
       </c>
       <c r="B47">
-        <v>33845484407</v>
+        <v>33877525355</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44197</v>
       </c>
       <c r="B48">
-        <v>5147252484</v>
+        <v>5152621568</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44562</v>
       </c>
       <c r="B49">
-        <v>7378244862</v>
+        <v>7384167585</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44197</v>
       </c>
       <c r="B54">
-        <v>1703882890</v>
+        <v>1704032166</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44562</v>
       </c>
       <c r="B55">
-        <v>1345616175</v>
+        <v>1345732982</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44197</v>
       </c>
       <c r="B56">
-        <v>7285307770</v>
+        <v>7285226984</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44562</v>
       </c>
       <c r="B57">
-        <v>9653510254</v>
+        <v>9653378840</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44197</v>
       </c>
       <c r="B58">
-        <v>55728684346</v>
+        <v>55600407282</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44562</v>
       </c>
       <c r="B59">
-        <v>64629803222</v>
+        <v>64546666048</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44197</v>
       </c>
       <c r="B64">
-        <v>3294834398</v>
+        <v>3294590763</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44562</v>
       </c>
       <c r="B65">
-        <v>3338784284</v>
+        <v>3335616617</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44197</v>
       </c>
       <c r="B68">
-        <v>29541263</v>
+        <v>29541141</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44562</v>
       </c>
       <c r="B69">
-        <v>43773080</v>
+        <v>43631645</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44197</v>
       </c>
       <c r="B76">
-        <v>18460488069</v>
+        <v>18460488067</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44197</v>
       </c>
       <c r="B78">
-        <v>722989931</v>
+        <v>722807958</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>44562</v>
       </c>
       <c r="B79">
-        <v>465813960</v>
+        <v>465551857</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44197</v>
       </c>
       <c r="B80">
-        <v>1053147019</v>
+        <v>1019963141</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44562</v>
       </c>
       <c r="B81">
-        <v>905538109</v>
+        <v>878346467</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44197</v>
       </c>
       <c r="B82">
-        <v>4256701951</v>
+        <v>4256698486</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44562</v>
       </c>
       <c r="B83">
-        <v>8130865731</v>
+        <v>8122730360</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44197</v>
       </c>
       <c r="B84">
-        <v>578922986</v>
+        <v>578842481</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44562</v>
       </c>
       <c r="B85">
-        <v>1956949137</v>
+        <v>1956979381</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44197</v>
       </c>
       <c r="B88">
-        <v>1196848138</v>
+        <v>1196847842</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44197</v>
       </c>
       <c r="B92">
-        <v>65826467477</v>
+        <v>65826467476.00001</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44562</v>
       </c>
       <c r="B93">
-        <v>44443200593</v>
+        <v>44443200594</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44197</v>
       </c>
       <c r="B94">
-        <v>1056553051996</v>
+        <v>1061393067274</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44562</v>
       </c>
       <c r="B95">
-        <v>1460505441868</v>
+        <v>1469675955997</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44197</v>
       </c>
       <c r="B98">
-        <v>2742826847</v>
+        <v>2740679398</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44562</v>
       </c>
       <c r="B99">
-        <v>4048995815</v>
+        <v>4045901735</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44197</v>
       </c>
       <c r="B102">
-        <v>18131050797</v>
+        <v>18130661522</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44562</v>
       </c>
       <c r="B103">
-        <v>18653173309</v>
+        <v>18653677394</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44197</v>
       </c>
       <c r="B104">
-        <v>7684982101369</v>
+        <v>7692509372723</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44562</v>
       </c>
       <c r="B105">
-        <v>8481248960963</v>
+        <v>8502075895727.999</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44197</v>
       </c>
       <c r="B106">
-        <v>126624162</v>
+        <v>127497550</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44562</v>
       </c>
       <c r="B107">
-        <v>83787052</v>
+        <v>84447602</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44197</v>
       </c>
       <c r="B108">
-        <v>4777073394</v>
+        <v>4019798222</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44562</v>
       </c>
       <c r="B109">
-        <v>5562901624</v>
+        <v>4493168519</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44197</v>
       </c>
       <c r="B114">
-        <v>406133066</v>
+        <v>406284975</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44562</v>
       </c>
       <c r="B115">
-        <v>488492496</v>
+        <v>488350219</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>44197</v>
       </c>
       <c r="B116">
-        <v>122354020969</v>
+        <v>122354020995</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44562</v>
       </c>
       <c r="B117">
-        <v>123387268718</v>
+        <v>123387268738</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44197</v>
       </c>
       <c r="B118">
-        <v>456881527331</v>
+        <v>456881520146</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44562</v>
       </c>
       <c r="B119">
-        <v>516016291965</v>
+        <v>516016210113</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44197</v>
       </c>
       <c r="B120">
-        <v>74619471942</v>
+        <v>74619446080</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44562</v>
       </c>
       <c r="B121">
-        <v>80771934215</v>
+        <v>80734485395</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44562</v>
       </c>
       <c r="B125">
-        <v>83008786144</v>
+        <v>83017129271</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44197</v>
       </c>
       <c r="B126">
-        <v>5201138502</v>
+        <v>5201138542</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44562</v>
       </c>
       <c r="B127">
-        <v>6109499641</v>
+        <v>6109499655</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44197</v>
       </c>
       <c r="B128">
-        <v>388673375168</v>
+        <v>391008823943</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44562</v>
       </c>
       <c r="B129">
-        <v>452347849662</v>
+        <v>459376538761</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44197</v>
       </c>
       <c r="B130">
-        <v>6172795828</v>
+        <v>12012793560</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44562</v>
       </c>
       <c r="B131">
-        <v>7336362084</v>
+        <v>21613691741</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44197</v>
       </c>
       <c r="B134">
-        <v>203590273</v>
+        <v>203316373</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44562</v>
       </c>
       <c r="B135">
-        <v>254409727</v>
+        <v>254140224</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44197</v>
       </c>
       <c r="B136">
-        <v>5183493644</v>
+        <v>5180777128</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44562</v>
       </c>
       <c r="B137">
-        <v>5303435595</v>
+        <v>5301569113</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44562</v>
       </c>
       <c r="B143">
-        <v>37653768772</v>
+        <v>37467155285</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44197</v>
       </c>
       <c r="B146">
-        <v>1643102876968</v>
+        <v>1642747786369</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44562</v>
       </c>
       <c r="B147">
-        <v>2206335122730</v>
+        <v>2201511107421</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44197</v>
       </c>
       <c r="B150">
-        <v>72417896</v>
+        <v>72403137</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44562</v>
       </c>
       <c r="B151">
-        <v>73193371</v>
+        <v>73186313</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44197</v>
       </c>
       <c r="B152">
-        <v>567073817730</v>
+        <v>575245613404</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44562</v>
       </c>
       <c r="B153">
-        <v>680151715612</v>
+        <v>701474139003</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44562</v>
       </c>
       <c r="B155">
-        <v>320067197</v>
+        <v>320067204</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44197</v>
       </c>
       <c r="B156">
-        <v>17606343315</v>
+        <v>17606343314</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44562</v>
       </c>
       <c r="B157">
-        <v>23278176726</v>
+        <v>23278177097</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44197</v>
       </c>
       <c r="B160">
-        <v>9328084978337</v>
+        <v>9335257159092</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44562</v>
       </c>
       <c r="B161">
-        <v>10687584083693</v>
+        <v>10703587003149</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44197</v>
       </c>
       <c r="B162">
-        <v>27329819741</v>
+        <v>29717291905</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44562</v>
       </c>
       <c r="B163">
-        <v>41205548118</v>
+        <v>46159913780</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44562</v>
       </c>
       <c r="B167">
-        <v>1066787320</v>
+        <v>1066789960</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44197</v>
       </c>
       <c r="B168">
-        <v>527868641</v>
+        <v>527267889.9999999</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44562</v>
       </c>
       <c r="B169">
-        <v>631825429</v>
+        <v>631476874</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44197</v>
       </c>
       <c r="B170">
-        <v>12445621498</v>
+        <v>12445490935</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44562</v>
       </c>
       <c r="B171">
-        <v>13590994778</v>
+        <v>13588855115</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44197</v>
       </c>
       <c r="B172">
-        <v>15160079866</v>
+        <v>15160088248</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44562</v>
       </c>
       <c r="B173">
-        <v>20443354674</v>
+        <v>20443194704</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44197</v>
       </c>
       <c r="B174">
-        <v>8377110128</v>
+        <v>8377119006.999999</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44562</v>
       </c>
       <c r="B175">
-        <v>13286252864</v>
+        <v>13286252362</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44197</v>
       </c>
       <c r="B180">
-        <v>17389224066</v>
+        <v>17287659611</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44562</v>
       </c>
       <c r="B181">
-        <v>24381829529</v>
+        <v>23244272156</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44197</v>
       </c>
       <c r="B182">
-        <v>375100245</v>
+        <v>372056075</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>44562</v>
       </c>
       <c r="B183">
-        <v>388481857</v>
+        <v>403733668</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44197</v>
       </c>
       <c r="B184">
-        <v>13317874724</v>
+        <v>13317832869</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44562</v>
       </c>
       <c r="B185">
-        <v>17105593712</v>
+        <v>17096846328</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44197</v>
       </c>
       <c r="B186">
-        <v>1502008762</v>
+        <v>1501998320</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44562</v>
       </c>
       <c r="B187">
-        <v>1816788752</v>
+        <v>1819804334</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44197</v>
       </c>
       <c r="B188">
-        <v>215101534</v>
+        <v>214915054</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44562</v>
       </c>
       <c r="B189">
-        <v>249113749</v>
+        <v>248554164</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44562</v>
       </c>
       <c r="B191">
-        <v>88057188134</v>
+        <v>88057188578</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44197</v>
       </c>
       <c r="B192">
-        <v>3859180295</v>
+        <v>3878239310</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44562</v>
       </c>
       <c r="B193">
-        <v>4636232557</v>
+        <v>4672648527</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44197</v>
       </c>
       <c r="B194">
-        <v>26787816</v>
+        <v>26787994</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44562</v>
       </c>
       <c r="B195">
-        <v>29210965</v>
+        <v>29210942</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>44197</v>
       </c>
       <c r="B202">
-        <v>259736267818</v>
+        <v>259608327442</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44562</v>
       </c>
       <c r="B203">
-        <v>354916615458</v>
+        <v>353814184598</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44197</v>
       </c>
       <c r="B206">
-        <v>1476358761</v>
+        <v>1476359090</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44562</v>
       </c>
       <c r="B207">
-        <v>1066623112</v>
+        <v>1066711832</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>44197</v>
       </c>
       <c r="B208">
-        <v>74213020</v>
+        <v>74214757</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44562</v>
       </c>
       <c r="B209">
-        <v>58884935</v>
+        <v>58884169</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>44197</v>
       </c>
       <c r="B214">
-        <v>16815047952</v>
+        <v>16815047953</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44562</v>
       </c>
       <c r="B215">
-        <v>18426076307</v>
+        <v>18430142121</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44197</v>
       </c>
       <c r="B216">
-        <v>1652895310</v>
+        <v>1652931857</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44562</v>
       </c>
       <c r="B217">
-        <v>2250972025</v>
+        <v>2251046625</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44197</v>
       </c>
       <c r="B220">
-        <v>2376138227</v>
+        <v>2376132163</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44562</v>
       </c>
       <c r="B221">
-        <v>3771028290</v>
+        <v>3749710465</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44197</v>
       </c>
       <c r="B224">
-        <v>28681421751</v>
+        <v>28681421755</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44562</v>
       </c>
       <c r="B225">
-        <v>30872794287</v>
+        <v>30872794285</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44197</v>
       </c>
       <c r="B226">
-        <v>603465512</v>
+        <v>603549815</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44562</v>
       </c>
       <c r="B227">
-        <v>727967516</v>
+        <v>727520400</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44197</v>
       </c>
       <c r="B228">
-        <v>1196733598</v>
+        <v>1197506810</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44562</v>
       </c>
       <c r="B229">
-        <v>1327745406</v>
+        <v>1329582581</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44197</v>
       </c>
       <c r="B230">
-        <v>36816515</v>
+        <v>36787096</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44562</v>
       </c>
       <c r="B231">
-        <v>37147300</v>
+        <v>36967159</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44197</v>
       </c>
       <c r="B234">
-        <v>9386553049</v>
+        <v>9386553043</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44562</v>
       </c>
       <c r="B237">
-        <v>40279145985</v>
+        <v>40279816342</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44197</v>
       </c>
       <c r="B240">
-        <v>52972128</v>
+        <v>52973725</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44562</v>
       </c>
       <c r="B241">
-        <v>72124218</v>
+        <v>72122903</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44197</v>
       </c>
       <c r="B242">
-        <v>49764004</v>
+        <v>49633065</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44562</v>
       </c>
       <c r="B243">
-        <v>60131688</v>
+        <v>60163209</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44197</v>
       </c>
       <c r="B246">
-        <v>1658948479</v>
+        <v>1658948487</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44562</v>
       </c>
       <c r="B247">
-        <v>2186695033</v>
+        <v>2186695028</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44197</v>
       </c>
       <c r="B248">
-        <v>4388330399</v>
+        <v>4389401290</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44562</v>
       </c>
       <c r="B249">
-        <v>6152325903</v>
+        <v>6155961885</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44197</v>
       </c>
       <c r="B252">
-        <v>1079792680</v>
+        <v>1079792688</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44562</v>
       </c>
       <c r="B253">
-        <v>2763291673</v>
+        <v>1934747396</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>264005694</v>
+        <v>264005693</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44562</v>
       </c>
       <c r="B261">
-        <v>14017755148</v>
+        <v>14017860074</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44197</v>
       </c>
       <c r="B262">
-        <v>56236420139</v>
+        <v>56236504857</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44562</v>
       </c>
       <c r="B263">
-        <v>66388392059.00001</v>
+        <v>66403570721</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44197</v>
       </c>
       <c r="B264">
-        <v>20814029</v>
+        <v>20813723</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44562</v>
       </c>
       <c r="B265">
-        <v>21087993</v>
+        <v>21088266</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44197</v>
       </c>
       <c r="B276">
-        <v>22048484302821</v>
+        <v>22055657069328</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44562</v>
       </c>
       <c r="B277">
-        <v>24581789502280</v>
+        <v>24597785777926</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44562</v>
       </c>
       <c r="B283">
-        <v>291007284939</v>
+        <v>290981378928</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44197</v>
       </c>
       <c r="B284">
-        <v>16625488</v>
+        <v>16620338</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>44562</v>
       </c>
       <c r="B285">
-        <v>18097705</v>
+        <v>18122313</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44197</v>
       </c>
       <c r="B288">
-        <v>1276936059</v>
+        <v>1276942162</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44562</v>
       </c>
       <c r="B289">
-        <v>1203758777</v>
+        <v>1203772140</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44197</v>
       </c>
       <c r="B296">
-        <v>2486524186</v>
+        <v>2485956917</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44562</v>
       </c>
       <c r="B297">
-        <v>4529793824</v>
+        <v>4533309415</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44197</v>
       </c>
       <c r="B300">
-        <v>4689842014</v>
+        <v>4689847842</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44562</v>
       </c>
       <c r="B301">
-        <v>7612829489</v>
+        <v>7612928626</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44197</v>
       </c>
       <c r="B308">
-        <v>776789248</v>
+        <v>766646848</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44562</v>
       </c>
       <c r="B309">
-        <v>448035520</v>
+        <v>454385366</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44197</v>
       </c>
       <c r="B312">
-        <v>6390564970</v>
+        <v>6391032037</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44562</v>
       </c>
       <c r="B313">
-        <v>6979982223</v>
+        <v>9646906629</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44197</v>
       </c>
       <c r="B314">
-        <v>1649980406</v>
+        <v>1650309259</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>44562</v>
       </c>
       <c r="B315">
-        <v>1646526614</v>
+        <v>1646507573</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44197</v>
       </c>
       <c r="B320">
-        <v>5050599460</v>
+        <v>5183924746</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44562</v>
       </c>
       <c r="B321">
-        <v>4994350849</v>
+        <v>5111209311</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44197</v>
       </c>
       <c r="B322">
-        <v>1300454995</v>
+        <v>1306883899</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44562</v>
       </c>
       <c r="B323">
-        <v>1590845983</v>
+        <v>1601962838</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44562</v>
       </c>
       <c r="B327">
-        <v>574962106461</v>
+        <v>574625976590</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44197</v>
       </c>
       <c r="B328">
-        <v>716888663025</v>
+        <v>716888567666</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44562</v>
       </c>
       <c r="B329">
-        <v>822107561618</v>
+        <v>821811698340</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44197</v>
       </c>
       <c r="B330">
-        <v>29824500</v>
+        <v>29877793</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44562</v>
       </c>
       <c r="B331">
-        <v>26697185</v>
+        <v>26005401</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44197</v>
       </c>
       <c r="B334">
-        <v>12718987489352</v>
+        <v>12718987488372</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44562</v>
       </c>
       <c r="B335">
-        <v>13892628559432</v>
+        <v>13892620638032</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44197</v>
       </c>
       <c r="B336">
-        <v>957833580</v>
+        <v>957833616</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44562</v>
       </c>
       <c r="B337">
-        <v>990514795</v>
+        <v>990477408</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>44197</v>
       </c>
       <c r="B340">
-        <v>356255653</v>
+        <v>356256864</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44562</v>
       </c>
       <c r="B341">
-        <v>378427375</v>
+        <v>378425235</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44197</v>
       </c>
       <c r="B348">
-        <v>379401552377</v>
+        <v>379401552396</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44197</v>
       </c>
       <c r="B350">
-        <v>35552437508</v>
+        <v>35552675230</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44562</v>
       </c>
       <c r="B351">
-        <v>43902170030</v>
+        <v>43902102905</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44562</v>
       </c>
       <c r="B357">
-        <v>11187261350</v>
+        <v>11187261351</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>44562</v>
       </c>
       <c r="B359">
-        <v>29056978951</v>
+        <v>29056979109</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44197</v>
       </c>
       <c r="B360">
-        <v>1117641530</v>
+        <v>1116621691</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44562</v>
       </c>
       <c r="B361">
-        <v>1233733744</v>
+        <v>1267116222</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44197</v>
       </c>
       <c r="B362">
-        <v>1187580178778</v>
+        <v>1187577779776</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44562</v>
       </c>
       <c r="B363">
-        <v>1395188510272</v>
+        <v>1395349732700</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44197</v>
       </c>
       <c r="B364">
-        <v>97049983</v>
+        <v>97034796</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>44562</v>
       </c>
       <c r="B365">
-        <v>79856787</v>
+        <v>79776017</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44562</v>
       </c>
       <c r="B367">
-        <v>94190114015</v>
+        <v>92204086677</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44197</v>
       </c>
       <c r="B370">
-        <v>1486469304246</v>
+        <v>1486469253893</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44562</v>
       </c>
       <c r="B371">
-        <v>1624340121089</v>
+        <v>1624036074958</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44197</v>
       </c>
       <c r="B374">
-        <v>6727495249</v>
+        <v>6729751616</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44562</v>
       </c>
       <c r="B375">
-        <v>7104355139</v>
+        <v>7242899581</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>44197</v>
       </c>
       <c r="B378">
-        <v>46473621</v>
+        <v>46470459</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44562</v>
       </c>
       <c r="B379">
-        <v>50477965</v>
+        <v>50452355</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44197</v>
       </c>
       <c r="B380">
-        <v>3686245679</v>
+        <v>3686245694</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>44562</v>
       </c>
       <c r="B381">
-        <v>3530120182</v>
+        <v>3874693441</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44197</v>
       </c>
       <c r="B384">
-        <v>1473718492</v>
+        <v>1473623132</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44562</v>
       </c>
       <c r="B385">
-        <v>1646868345</v>
+        <v>1646750867</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44197</v>
       </c>
       <c r="B388">
-        <v>31468187</v>
+        <v>25567133</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44562</v>
       </c>
       <c r="B389">
-        <v>26536732</v>
+        <v>26536758</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44197</v>
       </c>
       <c r="B390">
-        <v>43486691</v>
+        <v>43446169</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44562</v>
       </c>
       <c r="B391">
-        <v>27907896</v>
+        <v>27907687</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44197</v>
       </c>
       <c r="B396">
-        <v>7114200316</v>
+        <v>7114200767</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44562</v>
       </c>
       <c r="B397">
-        <v>8204749868.999999</v>
+        <v>8204749868.000001</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44197</v>
       </c>
       <c r="B398">
-        <v>18865438</v>
+        <v>18865903</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44562</v>
       </c>
       <c r="B399">
-        <v>16658544</v>
+        <v>16800423</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44197</v>
       </c>
       <c r="B400">
-        <v>38130671</v>
+        <v>38130638</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44562</v>
       </c>
       <c r="B401">
-        <v>77252296</v>
+        <v>77284973</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44197</v>
       </c>
       <c r="B402">
-        <v>6519448098</v>
+        <v>6498632597</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44562</v>
       </c>
       <c r="B403">
-        <v>6827539575</v>
+        <v>6898869293</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44197</v>
       </c>
       <c r="B404">
-        <v>1846271252</v>
+        <v>1846262273</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44562</v>
       </c>
       <c r="B405">
-        <v>2266985080</v>
+        <v>2266995657</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44197</v>
       </c>
       <c r="B406">
-        <v>221324287</v>
+        <v>220963723</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44562</v>
       </c>
       <c r="B407">
-        <v>236634821</v>
+        <v>236323433</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44197</v>
       </c>
       <c r="B408">
-        <v>154467671</v>
+        <v>154376846</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44562</v>
       </c>
       <c r="B409">
-        <v>414101915</v>
+        <v>414070729</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44197</v>
       </c>
       <c r="B410">
-        <v>668851784</v>
+        <v>668847277</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44562</v>
       </c>
       <c r="B411">
-        <v>655510587</v>
+        <v>655485150</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44197</v>
       </c>
       <c r="B412">
-        <v>231000927</v>
+        <v>230940616</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44562</v>
       </c>
       <c r="B413">
-        <v>223068680</v>
+        <v>223066006</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44197</v>
       </c>
       <c r="B414">
-        <v>194704845</v>
+        <v>194657837</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44562</v>
       </c>
       <c r="B415">
-        <v>226389617</v>
+        <v>226019429</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44197</v>
       </c>
       <c r="B416">
-        <v>200938079</v>
+        <v>201042224</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44562</v>
       </c>
       <c r="B417">
-        <v>192539616</v>
+        <v>191384585</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44197</v>
       </c>
       <c r="B418">
-        <v>35018241</v>
+        <v>35014574</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44562</v>
       </c>
       <c r="B419">
-        <v>36316596</v>
+        <v>36309571</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44197</v>
       </c>
       <c r="B420">
-        <v>811511567</v>
+        <v>811479042</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44562</v>
       </c>
       <c r="B421">
-        <v>489549514</v>
+        <v>489468573</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>44197</v>
       </c>
       <c r="B422">
-        <v>266636706</v>
+        <v>266637123</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>44562</v>
       </c>
       <c r="B423">
-        <v>132137553</v>
+        <v>132137853</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44197</v>
       </c>
       <c r="B424">
-        <v>1371643559</v>
+        <v>1371643242</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44562</v>
       </c>
       <c r="B425">
-        <v>1174648871</v>
+        <v>1174609282</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44562</v>
       </c>
       <c r="B429">
-        <v>1326394579</v>
+        <v>1478152448</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44197</v>
       </c>
       <c r="B430">
-        <v>71564294</v>
+        <v>71560791</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44562</v>
       </c>
       <c r="B431">
-        <v>27090582</v>
+        <v>26801262</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44197</v>
       </c>
       <c r="B432">
-        <v>26849126</v>
+        <v>26845363</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44562</v>
       </c>
       <c r="B433">
-        <v>22534929</v>
+        <v>22532098</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44197</v>
       </c>
       <c r="B434">
-        <v>215320902</v>
+        <v>215321800</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44562</v>
       </c>
       <c r="B435">
-        <v>204890887</v>
+        <v>204895232</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44197</v>
       </c>
       <c r="B436">
-        <v>489475970</v>
+        <v>489536203</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44562</v>
       </c>
       <c r="B437">
-        <v>581172546</v>
+        <v>581401977</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44197</v>
       </c>
       <c r="B440">
-        <v>8515906</v>
+        <v>8525133</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44562</v>
       </c>
       <c r="B441">
-        <v>4165553</v>
+        <v>4187363</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44197</v>
       </c>
       <c r="B442">
-        <v>1819643</v>
+        <v>1819666</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>44562</v>
       </c>
       <c r="B443">
-        <v>4493746</v>
+        <v>4481717</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44197</v>
       </c>
       <c r="B444">
-        <v>87481752</v>
+        <v>87505495</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44562</v>
       </c>
       <c r="B445">
-        <v>100964258</v>
+        <v>100948563</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44197</v>
       </c>
       <c r="B446">
-        <v>2063257911</v>
+        <v>2063258312</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44562</v>
       </c>
       <c r="B447">
-        <v>2053004106</v>
+        <v>2020764183</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44197</v>
       </c>
       <c r="B448">
-        <v>1303043522</v>
+        <v>1302275795</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44562</v>
       </c>
       <c r="B449">
-        <v>321885685</v>
+        <v>321920655</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44197</v>
       </c>
       <c r="B450">
-        <v>313686768</v>
+        <v>313572510</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44562</v>
       </c>
       <c r="B451">
-        <v>365446543</v>
+        <v>365652478</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44197</v>
       </c>
       <c r="B454">
-        <v>1172437237687</v>
+        <v>1177277157607</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44562</v>
       </c>
       <c r="B455">
-        <v>1625027135491</v>
+        <v>1634205875264</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
